--- a/BackTest/2020-01-16 BackTest PPT.xlsx
+++ b/BackTest/2020-01-16 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M257"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>387.2</v>
       </c>
       <c r="C2" t="n">
-        <v>390.9</v>
+        <v>387.2</v>
       </c>
       <c r="D2" t="n">
-        <v>390.9</v>
+        <v>387.2</v>
       </c>
       <c r="E2" t="n">
         <v>387.2</v>
       </c>
       <c r="F2" t="n">
-        <v>708.8934</v>
+        <v>428.1284</v>
       </c>
       <c r="G2" t="n">
-        <v>391.9150000000002</v>
+        <v>391.8500000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>388.9</v>
+        <v>387.2</v>
       </c>
       <c r="C3" t="n">
-        <v>388.9</v>
+        <v>390.9</v>
       </c>
       <c r="D3" t="n">
-        <v>388.9</v>
+        <v>390.9</v>
       </c>
       <c r="E3" t="n">
-        <v>388.9</v>
+        <v>387.2</v>
       </c>
       <c r="F3" t="n">
-        <v>171.7671</v>
+        <v>708.8934</v>
       </c>
       <c r="G3" t="n">
-        <v>391.9650000000002</v>
+        <v>391.9150000000002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>389</v>
+        <v>388.9</v>
       </c>
       <c r="C4" t="n">
-        <v>389.9</v>
+        <v>388.9</v>
       </c>
       <c r="D4" t="n">
-        <v>389.9</v>
+        <v>388.9</v>
       </c>
       <c r="E4" t="n">
-        <v>389</v>
+        <v>388.9</v>
       </c>
       <c r="F4" t="n">
-        <v>314.0297</v>
+        <v>171.7671</v>
       </c>
       <c r="G4" t="n">
-        <v>391.9183333333336</v>
+        <v>391.9650000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" t="n">
-        <v>390</v>
+        <v>389.9</v>
       </c>
       <c r="D5" t="n">
-        <v>390</v>
+        <v>389.9</v>
       </c>
       <c r="E5" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F5" t="n">
-        <v>847.8658</v>
+        <v>314.0297</v>
       </c>
       <c r="G5" t="n">
-        <v>391.8733333333336</v>
+        <v>391.9183333333336</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,35 +573,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>390.8</v>
+        <v>390</v>
       </c>
       <c r="C6" t="n">
-        <v>391.9</v>
+        <v>390</v>
       </c>
       <c r="D6" t="n">
-        <v>391.9</v>
+        <v>390</v>
       </c>
       <c r="E6" t="n">
-        <v>390.8</v>
+        <v>390</v>
       </c>
       <c r="F6" t="n">
-        <v>5209.3698</v>
+        <v>847.8658</v>
       </c>
       <c r="G6" t="n">
-        <v>391.9116666666669</v>
+        <v>391.8733333333336</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>390</v>
-      </c>
-      <c r="K6" t="n">
-        <v>390</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -612,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>391.9</v>
+        <v>390.8</v>
       </c>
       <c r="C7" t="n">
         <v>391.9</v>
@@ -621,31 +617,23 @@
         <v>391.9</v>
       </c>
       <c r="E7" t="n">
-        <v>391.9</v>
+        <v>390.8</v>
       </c>
       <c r="F7" t="n">
-        <v>492.2957</v>
+        <v>5209.3698</v>
       </c>
       <c r="G7" t="n">
-        <v>391.8983333333336</v>
+        <v>391.9116666666669</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>391.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>390</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -655,40 +643,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390.9</v>
+        <v>391.9</v>
       </c>
       <c r="C8" t="n">
-        <v>390.9</v>
+        <v>391.9</v>
       </c>
       <c r="D8" t="n">
-        <v>390.9</v>
+        <v>391.9</v>
       </c>
       <c r="E8" t="n">
-        <v>390.9</v>
+        <v>391.9</v>
       </c>
       <c r="F8" t="n">
-        <v>79.40000000000001</v>
+        <v>492.2957</v>
       </c>
       <c r="G8" t="n">
-        <v>391.8683333333336</v>
+        <v>391.8983333333336</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>391.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>390</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -710,23 +690,19 @@
         <v>390.9</v>
       </c>
       <c r="F9" t="n">
-        <v>328.79</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>391.8183333333336</v>
+        <v>391.8683333333336</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>390.9</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -740,37 +716,29 @@
         <v>390.9</v>
       </c>
       <c r="C10" t="n">
-        <v>386.1</v>
+        <v>390.9</v>
       </c>
       <c r="D10" t="n">
         <v>390.9</v>
       </c>
       <c r="E10" t="n">
-        <v>386.1</v>
+        <v>390.9</v>
       </c>
       <c r="F10" t="n">
-        <v>2703.88</v>
+        <v>328.79</v>
       </c>
       <c r="G10" t="n">
-        <v>391.6900000000003</v>
+        <v>391.8183333333336</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -780,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>387.1</v>
+        <v>390.9</v>
       </c>
       <c r="C11" t="n">
-        <v>385.8</v>
+        <v>386.1</v>
       </c>
       <c r="D11" t="n">
-        <v>387.1</v>
+        <v>390.9</v>
       </c>
       <c r="E11" t="n">
-        <v>385.8</v>
+        <v>386.1</v>
       </c>
       <c r="F11" t="n">
-        <v>1706.5792</v>
+        <v>2703.88</v>
       </c>
       <c r="G11" t="n">
-        <v>391.5550000000002</v>
+        <v>391.6900000000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -804,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -821,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>390</v>
+        <v>387.1</v>
       </c>
       <c r="C12" t="n">
-        <v>390</v>
+        <v>385.8</v>
       </c>
       <c r="D12" t="n">
-        <v>390</v>
+        <v>387.1</v>
       </c>
       <c r="E12" t="n">
-        <v>390</v>
+        <v>385.8</v>
       </c>
       <c r="F12" t="n">
-        <v>453.6833</v>
+        <v>1706.5792</v>
       </c>
       <c r="G12" t="n">
-        <v>391.5183333333335</v>
+        <v>391.5550000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -845,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -862,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C13" t="n">
-        <v>385.8</v>
+        <v>390</v>
       </c>
       <c r="D13" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E13" t="n">
-        <v>385.8</v>
+        <v>390</v>
       </c>
       <c r="F13" t="n">
-        <v>1137.5822</v>
+        <v>453.6833</v>
       </c>
       <c r="G13" t="n">
-        <v>391.4100000000002</v>
+        <v>391.5183333333335</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -886,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -903,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>385.3</v>
+        <v>388</v>
       </c>
       <c r="C14" t="n">
-        <v>385.3</v>
+        <v>385.8</v>
       </c>
       <c r="D14" t="n">
-        <v>385.3</v>
+        <v>388</v>
       </c>
       <c r="E14" t="n">
-        <v>385.3</v>
+        <v>385.8</v>
       </c>
       <c r="F14" t="n">
-        <v>1006.49</v>
+        <v>1137.5822</v>
       </c>
       <c r="G14" t="n">
-        <v>391.2666666666668</v>
+        <v>391.4100000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -927,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -956,10 +900,10 @@
         <v>385.3</v>
       </c>
       <c r="F15" t="n">
-        <v>417.9</v>
+        <v>1006.49</v>
       </c>
       <c r="G15" t="n">
-        <v>391.1233333333335</v>
+        <v>391.2666666666668</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -968,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -994,13 +932,13 @@
         <v>385.3</v>
       </c>
       <c r="E16" t="n">
-        <v>385.2</v>
+        <v>385.3</v>
       </c>
       <c r="F16" t="n">
-        <v>7057.1027</v>
+        <v>417.9</v>
       </c>
       <c r="G16" t="n">
-        <v>390.9350000000002</v>
+        <v>391.1233333333335</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1009,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1029,19 +961,19 @@
         <v>385.3</v>
       </c>
       <c r="C17" t="n">
-        <v>387</v>
+        <v>385.3</v>
       </c>
       <c r="D17" t="n">
-        <v>391.9</v>
+        <v>385.3</v>
       </c>
       <c r="E17" t="n">
-        <v>385.3</v>
+        <v>385.2</v>
       </c>
       <c r="F17" t="n">
-        <v>11470.64354187</v>
+        <v>7057.1027</v>
       </c>
       <c r="G17" t="n">
-        <v>390.7850000000001</v>
+        <v>390.9350000000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1050,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1067,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>385.3</v>
+      </c>
+      <c r="C18" t="n">
         <v>387</v>
       </c>
-      <c r="C18" t="n">
-        <v>385.3</v>
-      </c>
       <c r="D18" t="n">
-        <v>387</v>
+        <v>391.9</v>
       </c>
       <c r="E18" t="n">
         <v>385.3</v>
       </c>
       <c r="F18" t="n">
-        <v>1365.85</v>
+        <v>11470.64354187</v>
       </c>
       <c r="G18" t="n">
-        <v>390.6066666666668</v>
+        <v>390.7850000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1091,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1108,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C19" t="n">
-        <v>391.9</v>
+        <v>385.3</v>
       </c>
       <c r="D19" t="n">
-        <v>391.9</v>
+        <v>387</v>
       </c>
       <c r="E19" t="n">
-        <v>391</v>
+        <v>385.3</v>
       </c>
       <c r="F19" t="n">
-        <v>4581.5536</v>
+        <v>1365.85</v>
       </c>
       <c r="G19" t="n">
-        <v>390.4916666666668</v>
+        <v>390.6066666666668</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1132,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1149,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>391.9</v>
+        <v>391</v>
       </c>
       <c r="C20" t="n">
         <v>391.9</v>
@@ -1158,13 +1072,13 @@
         <v>391.9</v>
       </c>
       <c r="E20" t="n">
-        <v>391.9</v>
+        <v>391</v>
       </c>
       <c r="F20" t="n">
-        <v>14.9636</v>
+        <v>4581.5536</v>
       </c>
       <c r="G20" t="n">
-        <v>390.3766666666669</v>
+        <v>390.4916666666668</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1173,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1202,10 +1110,10 @@
         <v>391.9</v>
       </c>
       <c r="F21" t="n">
-        <v>878.1411000000001</v>
+        <v>14.9636</v>
       </c>
       <c r="G21" t="n">
-        <v>390.2616666666669</v>
+        <v>390.3766666666669</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1214,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1231,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>387</v>
+        <v>391.9</v>
       </c>
       <c r="C22" t="n">
-        <v>387</v>
+        <v>391.9</v>
       </c>
       <c r="D22" t="n">
-        <v>387</v>
+        <v>391.9</v>
       </c>
       <c r="E22" t="n">
-        <v>387</v>
+        <v>391.9</v>
       </c>
       <c r="F22" t="n">
-        <v>2097.1729</v>
+        <v>878.1411000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>390.0616666666669</v>
+        <v>390.2616666666669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1255,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1284,10 +1180,10 @@
         <v>387</v>
       </c>
       <c r="F23" t="n">
-        <v>350</v>
+        <v>2097.1729</v>
       </c>
       <c r="G23" t="n">
-        <v>389.8616666666669</v>
+        <v>390.0616666666669</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1296,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1316,19 +1206,19 @@
         <v>387</v>
       </c>
       <c r="C24" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D24" t="n">
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>385.2</v>
+        <v>387</v>
       </c>
       <c r="F24" t="n">
-        <v>18124.1749</v>
+        <v>350</v>
       </c>
       <c r="G24" t="n">
-        <v>389.7433333333336</v>
+        <v>389.8616666666669</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1337,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1354,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C25" t="n">
-        <v>391.9</v>
+        <v>386</v>
       </c>
       <c r="D25" t="n">
-        <v>391.9</v>
+        <v>387</v>
       </c>
       <c r="E25" t="n">
-        <v>391</v>
+        <v>385.2</v>
       </c>
       <c r="F25" t="n">
-        <v>5257.1373</v>
+        <v>18124.1749</v>
       </c>
       <c r="G25" t="n">
-        <v>389.6333333333336</v>
+        <v>389.7433333333336</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1378,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1395,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C26" t="n">
-        <v>386.3</v>
+        <v>391.9</v>
       </c>
       <c r="D26" t="n">
-        <v>387</v>
+        <v>391.9</v>
       </c>
       <c r="E26" t="n">
-        <v>386.3</v>
+        <v>391</v>
       </c>
       <c r="F26" t="n">
-        <v>999.9999</v>
+        <v>5257.1373</v>
       </c>
       <c r="G26" t="n">
-        <v>389.411666666667</v>
+        <v>389.6333333333336</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1419,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1448,10 +1320,10 @@
         <v>386.3</v>
       </c>
       <c r="F27" t="n">
-        <v>754.9999</v>
+        <v>999.9999</v>
       </c>
       <c r="G27" t="n">
-        <v>389.266666666667</v>
+        <v>389.411666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1460,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1477,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>387</v>
+      </c>
+      <c r="C28" t="n">
         <v>386.3</v>
       </c>
-      <c r="C28" t="n">
-        <v>386.2</v>
-      </c>
       <c r="D28" t="n">
+        <v>387</v>
+      </c>
+      <c r="E28" t="n">
         <v>386.3</v>
       </c>
-      <c r="E28" t="n">
-        <v>386.2</v>
-      </c>
       <c r="F28" t="n">
-        <v>1243.14</v>
+        <v>754.9999</v>
       </c>
       <c r="G28" t="n">
-        <v>389.1483333333337</v>
+        <v>389.266666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1501,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>386.2</v>
+        <v>386.3</v>
       </c>
       <c r="C29" t="n">
         <v>386.2</v>
       </c>
       <c r="D29" t="n">
-        <v>386.2</v>
+        <v>386.3</v>
       </c>
       <c r="E29" t="n">
         <v>386.2</v>
       </c>
       <c r="F29" t="n">
-        <v>1744.9999</v>
+        <v>1243.14</v>
       </c>
       <c r="G29" t="n">
-        <v>389.0350000000004</v>
+        <v>389.1483333333337</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1542,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1571,10 +1425,10 @@
         <v>386.2</v>
       </c>
       <c r="F30" t="n">
-        <v>83.40770000000001</v>
+        <v>1744.9999</v>
       </c>
       <c r="G30" t="n">
-        <v>389.0050000000003</v>
+        <v>389.0350000000004</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1583,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1603,19 +1451,19 @@
         <v>386.2</v>
       </c>
       <c r="C31" t="n">
-        <v>386.1</v>
+        <v>386.2</v>
       </c>
       <c r="D31" t="n">
         <v>386.2</v>
       </c>
       <c r="E31" t="n">
-        <v>386.1</v>
+        <v>386.2</v>
       </c>
       <c r="F31" t="n">
-        <v>2061.2896</v>
+        <v>83.40770000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>388.956666666667</v>
+        <v>389.0050000000003</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1624,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1644,19 +1486,19 @@
         <v>386.2</v>
       </c>
       <c r="C32" t="n">
-        <v>386.2</v>
+        <v>386.1</v>
       </c>
       <c r="D32" t="n">
         <v>386.2</v>
       </c>
       <c r="E32" t="n">
-        <v>386.2</v>
+        <v>386.1</v>
       </c>
       <c r="F32" t="n">
-        <v>1853.3483</v>
+        <v>2061.2896</v>
       </c>
       <c r="G32" t="n">
-        <v>388.9433333333337</v>
+        <v>388.956666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1665,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1682,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>386.1</v>
+        <v>386.2</v>
       </c>
       <c r="C33" t="n">
-        <v>386.1</v>
+        <v>386.2</v>
       </c>
       <c r="D33" t="n">
-        <v>386.1</v>
+        <v>386.2</v>
       </c>
       <c r="E33" t="n">
-        <v>386.1</v>
+        <v>386.2</v>
       </c>
       <c r="F33" t="n">
-        <v>88.3621</v>
+        <v>1853.3483</v>
       </c>
       <c r="G33" t="n">
-        <v>388.911666666667</v>
+        <v>388.9433333333337</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1706,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1735,10 +1565,10 @@
         <v>386.1</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.11</v>
+        <v>88.3621</v>
       </c>
       <c r="G34" t="n">
-        <v>388.9033333333336</v>
+        <v>388.911666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1747,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1776,10 +1600,10 @@
         <v>386.1</v>
       </c>
       <c r="F35" t="n">
-        <v>5557.91</v>
+        <v>1876.11</v>
       </c>
       <c r="G35" t="n">
-        <v>388.8966666666669</v>
+        <v>388.9033333333336</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1788,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1817,10 +1635,10 @@
         <v>386.1</v>
       </c>
       <c r="F36" t="n">
-        <v>390</v>
+        <v>5557.91</v>
       </c>
       <c r="G36" t="n">
-        <v>388.8883333333336</v>
+        <v>388.8966666666669</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1829,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1846,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>391</v>
+        <v>386.1</v>
       </c>
       <c r="C37" t="n">
-        <v>391</v>
+        <v>386.1</v>
       </c>
       <c r="D37" t="n">
-        <v>391</v>
+        <v>386.1</v>
       </c>
       <c r="E37" t="n">
-        <v>391</v>
+        <v>386.1</v>
       </c>
       <c r="F37" t="n">
-        <v>13</v>
+        <v>390</v>
       </c>
       <c r="G37" t="n">
-        <v>388.871666666667</v>
+        <v>388.8883333333336</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1870,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1890,19 +1696,19 @@
         <v>391</v>
       </c>
       <c r="C38" t="n">
-        <v>393.4</v>
+        <v>391</v>
       </c>
       <c r="D38" t="n">
-        <v>393.4</v>
+        <v>391</v>
       </c>
       <c r="E38" t="n">
         <v>391</v>
       </c>
       <c r="F38" t="n">
-        <v>4053.0632</v>
+        <v>13</v>
       </c>
       <c r="G38" t="n">
-        <v>388.8950000000003</v>
+        <v>388.871666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1911,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1928,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>393.1</v>
+        <v>391</v>
       </c>
       <c r="C39" t="n">
         <v>393.4</v>
@@ -1937,13 +1737,13 @@
         <v>393.4</v>
       </c>
       <c r="E39" t="n">
-        <v>393.1</v>
+        <v>391</v>
       </c>
       <c r="F39" t="n">
-        <v>286.5276</v>
+        <v>4053.0632</v>
       </c>
       <c r="G39" t="n">
-        <v>388.951666666667</v>
+        <v>388.8950000000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1952,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1969,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>393.1</v>
+      </c>
+      <c r="C40" t="n">
         <v>393.4</v>
       </c>
-      <c r="C40" t="n">
-        <v>394.1</v>
-      </c>
       <c r="D40" t="n">
-        <v>394.1</v>
+        <v>393.4</v>
       </c>
       <c r="E40" t="n">
-        <v>393.4</v>
+        <v>393.1</v>
       </c>
       <c r="F40" t="n">
-        <v>260.90605813</v>
+        <v>286.5276</v>
       </c>
       <c r="G40" t="n">
-        <v>388.986666666667</v>
+        <v>388.951666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1993,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2010,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>394.2</v>
+        <v>393.4</v>
       </c>
       <c r="C41" t="n">
-        <v>395.1</v>
+        <v>394.1</v>
       </c>
       <c r="D41" t="n">
-        <v>395.1</v>
+        <v>394.1</v>
       </c>
       <c r="E41" t="n">
-        <v>394.2</v>
+        <v>393.4</v>
       </c>
       <c r="F41" t="n">
-        <v>566.2896</v>
+        <v>260.90605813</v>
       </c>
       <c r="G41" t="n">
-        <v>389.0383333333336</v>
+        <v>388.986666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2034,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2051,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>395.2</v>
+        <v>394.2</v>
       </c>
       <c r="C42" t="n">
-        <v>395.2</v>
+        <v>395.1</v>
       </c>
       <c r="D42" t="n">
-        <v>395.2</v>
+        <v>395.1</v>
       </c>
       <c r="E42" t="n">
-        <v>395.2</v>
+        <v>394.2</v>
       </c>
       <c r="F42" t="n">
-        <v>265.74</v>
+        <v>566.2896</v>
       </c>
       <c r="G42" t="n">
-        <v>389.081666666667</v>
+        <v>389.0383333333336</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2075,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2095,19 +1871,19 @@
         <v>395.2</v>
       </c>
       <c r="C43" t="n">
-        <v>393.4</v>
+        <v>395.2</v>
       </c>
       <c r="D43" t="n">
         <v>395.2</v>
       </c>
       <c r="E43" t="n">
-        <v>392.4</v>
+        <v>395.2</v>
       </c>
       <c r="F43" t="n">
-        <v>1986.84824187</v>
+        <v>265.74</v>
       </c>
       <c r="G43" t="n">
-        <v>389.0933333333336</v>
+        <v>389.081666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2116,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2133,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>393.4</v>
+        <v>395.2</v>
       </c>
       <c r="C44" t="n">
         <v>393.4</v>
       </c>
       <c r="D44" t="n">
-        <v>393.4</v>
+        <v>395.2</v>
       </c>
       <c r="E44" t="n">
-        <v>393.4</v>
+        <v>392.4</v>
       </c>
       <c r="F44" t="n">
-        <v>5.813e-05</v>
+        <v>1986.84824187</v>
       </c>
       <c r="G44" t="n">
-        <v>389.1050000000004</v>
+        <v>389.0933333333336</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2157,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2174,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>395.3</v>
+        <v>393.4</v>
       </c>
       <c r="C45" t="n">
-        <v>397.2</v>
+        <v>393.4</v>
       </c>
       <c r="D45" t="n">
-        <v>397.2</v>
+        <v>393.4</v>
       </c>
       <c r="E45" t="n">
-        <v>395.3</v>
+        <v>393.4</v>
       </c>
       <c r="F45" t="n">
-        <v>56.247</v>
+        <v>5.813e-05</v>
       </c>
       <c r="G45" t="n">
-        <v>389.1633333333337</v>
+        <v>389.1050000000004</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2198,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2215,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>397.2</v>
+        <v>395.3</v>
       </c>
       <c r="C46" t="n">
         <v>397.2</v>
@@ -2224,13 +1982,13 @@
         <v>397.2</v>
       </c>
       <c r="E46" t="n">
-        <v>397.2</v>
+        <v>395.3</v>
       </c>
       <c r="F46" t="n">
-        <v>69.70569999999999</v>
+        <v>56.247</v>
       </c>
       <c r="G46" t="n">
-        <v>389.2500000000003</v>
+        <v>389.1633333333337</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2239,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2256,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>398</v>
+        <v>397.2</v>
       </c>
       <c r="C47" t="n">
-        <v>402</v>
+        <v>397.2</v>
       </c>
       <c r="D47" t="n">
-        <v>402</v>
+        <v>397.2</v>
       </c>
       <c r="E47" t="n">
-        <v>398</v>
+        <v>397.2</v>
       </c>
       <c r="F47" t="n">
-        <v>1616.1706</v>
+        <v>69.70569999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>389.4100000000004</v>
+        <v>389.2500000000003</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2280,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2297,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C48" t="n">
         <v>402</v>
@@ -2306,13 +2052,13 @@
         <v>402</v>
       </c>
       <c r="E48" t="n">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F48" t="n">
-        <v>1304.6221</v>
+        <v>1616.1706</v>
       </c>
       <c r="G48" t="n">
-        <v>389.5933333333336</v>
+        <v>389.4100000000004</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2321,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2350,10 +2090,10 @@
         <v>402</v>
       </c>
       <c r="F49" t="n">
-        <v>1424.9932</v>
+        <v>1304.6221</v>
       </c>
       <c r="G49" t="n">
-        <v>389.7333333333337</v>
+        <v>389.5933333333336</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2362,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2391,10 +2125,10 @@
         <v>402</v>
       </c>
       <c r="F50" t="n">
-        <v>352.0517</v>
+        <v>1424.9932</v>
       </c>
       <c r="G50" t="n">
-        <v>389.9333333333337</v>
+        <v>389.7333333333337</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2403,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2420,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>401.6</v>
+        <v>402</v>
       </c>
       <c r="C51" t="n">
-        <v>401.6</v>
+        <v>402</v>
       </c>
       <c r="D51" t="n">
-        <v>401.6</v>
+        <v>402</v>
       </c>
       <c r="E51" t="n">
-        <v>401.6</v>
+        <v>402</v>
       </c>
       <c r="F51" t="n">
-        <v>3355.8103</v>
+        <v>352.0517</v>
       </c>
       <c r="G51" t="n">
-        <v>390.126666666667</v>
+        <v>389.9333333333337</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2444,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2464,35 +2186,29 @@
         <v>401.6</v>
       </c>
       <c r="C52" t="n">
-        <v>398</v>
+        <v>401.6</v>
       </c>
       <c r="D52" t="n">
         <v>401.6</v>
       </c>
       <c r="E52" t="n">
-        <v>398</v>
+        <v>401.6</v>
       </c>
       <c r="F52" t="n">
-        <v>252.44</v>
+        <v>3355.8103</v>
       </c>
       <c r="G52" t="n">
-        <v>390.2833333333337</v>
+        <v>390.126666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2502,38 +2218,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>401</v>
+        <v>401.6</v>
       </c>
       <c r="C53" t="n">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D53" t="n">
-        <v>401</v>
+        <v>401.6</v>
       </c>
       <c r="E53" t="n">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F53" t="n">
-        <v>1899.45</v>
+        <v>252.44</v>
       </c>
       <c r="G53" t="n">
-        <v>390.4833333333337</v>
+        <v>390.2833333333337</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2543,38 +2253,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>401.5</v>
+        <v>401</v>
       </c>
       <c r="C54" t="n">
-        <v>401.5</v>
+        <v>401</v>
       </c>
       <c r="D54" t="n">
-        <v>401.5</v>
+        <v>401</v>
       </c>
       <c r="E54" t="n">
-        <v>401.5</v>
+        <v>401</v>
       </c>
       <c r="F54" t="n">
-        <v>919.3244999999999</v>
+        <v>1899.45</v>
       </c>
       <c r="G54" t="n">
-        <v>390.7400000000004</v>
+        <v>390.4833333333337</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2587,35 +2291,29 @@
         <v>401.5</v>
       </c>
       <c r="C55" t="n">
-        <v>401.7</v>
+        <v>401.5</v>
       </c>
       <c r="D55" t="n">
-        <v>401.7</v>
+        <v>401.5</v>
       </c>
       <c r="E55" t="n">
         <v>401.5</v>
       </c>
       <c r="F55" t="n">
-        <v>1856.3743</v>
+        <v>919.3244999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>391.0000000000004</v>
+        <v>390.7400000000004</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2625,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>401.8</v>
+        <v>401.5</v>
       </c>
       <c r="C56" t="n">
-        <v>398</v>
+        <v>401.7</v>
       </c>
       <c r="D56" t="n">
-        <v>401.8</v>
+        <v>401.7</v>
       </c>
       <c r="E56" t="n">
-        <v>398</v>
+        <v>401.5</v>
       </c>
       <c r="F56" t="n">
-        <v>14107.9744</v>
+        <v>1856.3743</v>
       </c>
       <c r="G56" t="n">
-        <v>391.2016666666671</v>
+        <v>391.0000000000004</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2649,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2666,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>404</v>
+        <v>401.8</v>
       </c>
       <c r="C57" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D57" t="n">
-        <v>404</v>
+        <v>401.8</v>
       </c>
       <c r="E57" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F57" t="n">
-        <v>3363.8229</v>
+        <v>14107.9744</v>
       </c>
       <c r="G57" t="n">
-        <v>391.4366666666671</v>
+        <v>391.2016666666671</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2690,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2707,40 +2393,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>403.7</v>
+        <v>404</v>
       </c>
       <c r="C58" t="n">
-        <v>403.7</v>
+        <v>400</v>
       </c>
       <c r="D58" t="n">
-        <v>403.7</v>
+        <v>404</v>
       </c>
       <c r="E58" t="n">
-        <v>403.7</v>
+        <v>400</v>
       </c>
       <c r="F58" t="n">
-        <v>333.9</v>
+        <v>3363.8229</v>
       </c>
       <c r="G58" t="n">
-        <v>391.6500000000004</v>
+        <v>391.4366666666671</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>390.9</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>1.02774494755692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2760,10 +2440,10 @@
         <v>403.7</v>
       </c>
       <c r="F59" t="n">
-        <v>921.5198</v>
+        <v>333.9</v>
       </c>
       <c r="G59" t="n">
-        <v>391.861666666667</v>
+        <v>391.6500000000004</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2783,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>402</v>
+        <v>403.7</v>
       </c>
       <c r="C60" t="n">
-        <v>402</v>
+        <v>403.7</v>
       </c>
       <c r="D60" t="n">
-        <v>402</v>
+        <v>403.7</v>
       </c>
       <c r="E60" t="n">
-        <v>402</v>
+        <v>403.7</v>
       </c>
       <c r="F60" t="n">
-        <v>286.6304</v>
+        <v>921.5198</v>
       </c>
       <c r="G60" t="n">
-        <v>392.1083333333337</v>
+        <v>391.861666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2818,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>400.5</v>
+        <v>402</v>
       </c>
       <c r="C61" t="n">
-        <v>400.5</v>
+        <v>402</v>
       </c>
       <c r="D61" t="n">
-        <v>400.5</v>
+        <v>402</v>
       </c>
       <c r="E61" t="n">
-        <v>400.5</v>
+        <v>402</v>
       </c>
       <c r="F61" t="n">
-        <v>264.9299</v>
+        <v>286.6304</v>
       </c>
       <c r="G61" t="n">
-        <v>392.3300000000003</v>
+        <v>392.1083333333337</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2856,19 +2536,19 @@
         <v>400.5</v>
       </c>
       <c r="C62" t="n">
-        <v>404.7</v>
+        <v>400.5</v>
       </c>
       <c r="D62" t="n">
-        <v>404.7</v>
+        <v>400.5</v>
       </c>
       <c r="E62" t="n">
-        <v>395.4</v>
+        <v>400.5</v>
       </c>
       <c r="F62" t="n">
-        <v>10927.7614</v>
+        <v>264.9299</v>
       </c>
       <c r="G62" t="n">
-        <v>392.5600000000003</v>
+        <v>392.3300000000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2888,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>403.7</v>
+        <v>400.5</v>
       </c>
       <c r="C63" t="n">
-        <v>403.7</v>
+        <v>404.7</v>
       </c>
       <c r="D63" t="n">
-        <v>403.7</v>
+        <v>404.7</v>
       </c>
       <c r="E63" t="n">
-        <v>403.7</v>
+        <v>395.4</v>
       </c>
       <c r="F63" t="n">
-        <v>9588.519899999999</v>
+        <v>10927.7614</v>
       </c>
       <c r="G63" t="n">
-        <v>392.806666666667</v>
+        <v>392.5600000000003</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2935,10 +2615,10 @@
         <v>403.7</v>
       </c>
       <c r="F64" t="n">
-        <v>470.7612</v>
+        <v>9588.519899999999</v>
       </c>
       <c r="G64" t="n">
-        <v>393.036666666667</v>
+        <v>392.806666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2970,16 +2650,16 @@
         <v>403.7</v>
       </c>
       <c r="F65" t="n">
-        <v>1053</v>
+        <v>470.7612</v>
       </c>
       <c r="G65" t="n">
-        <v>393.2650000000003</v>
+        <v>393.036666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2996,19 +2676,19 @@
         <v>403.7</v>
       </c>
       <c r="C66" t="n">
-        <v>404</v>
+        <v>403.7</v>
       </c>
       <c r="D66" t="n">
-        <v>404</v>
+        <v>403.7</v>
       </c>
       <c r="E66" t="n">
         <v>403.7</v>
       </c>
       <c r="F66" t="n">
-        <v>491.959</v>
+        <v>1053</v>
       </c>
       <c r="G66" t="n">
-        <v>393.466666666667</v>
+        <v>393.2650000000003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3028,7 +2708,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>404</v>
+        <v>403.7</v>
       </c>
       <c r="C67" t="n">
         <v>404</v>
@@ -3037,13 +2717,13 @@
         <v>404</v>
       </c>
       <c r="E67" t="n">
-        <v>404</v>
+        <v>403.7</v>
       </c>
       <c r="F67" t="n">
-        <v>532.2569999999999</v>
+        <v>491.959</v>
       </c>
       <c r="G67" t="n">
-        <v>393.6683333333336</v>
+        <v>393.466666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3075,10 +2755,10 @@
         <v>404</v>
       </c>
       <c r="F68" t="n">
-        <v>235.6099</v>
+        <v>532.2569999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>393.8866666666669</v>
+        <v>393.6683333333336</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3098,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C69" t="n">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D69" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E69" t="n">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F69" t="n">
-        <v>1392.4521</v>
+        <v>235.6099</v>
       </c>
       <c r="G69" t="n">
-        <v>394.0050000000002</v>
+        <v>393.8866666666669</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3133,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C70" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D70" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E70" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F70" t="n">
-        <v>234.294</v>
+        <v>1392.4521</v>
       </c>
       <c r="G70" t="n">
-        <v>394.2200000000003</v>
+        <v>394.0050000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3168,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C71" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D71" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E71" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F71" t="n">
-        <v>279.4793</v>
+        <v>234.294</v>
       </c>
       <c r="G71" t="n">
-        <v>394.4233333333336</v>
+        <v>394.2200000000003</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3215,10 +2895,10 @@
         <v>398</v>
       </c>
       <c r="F72" t="n">
-        <v>336.596</v>
+        <v>279.4793</v>
       </c>
       <c r="G72" t="n">
-        <v>394.556666666667</v>
+        <v>394.4233333333336</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3250,10 +2930,10 @@
         <v>398</v>
       </c>
       <c r="F73" t="n">
-        <v>13.13</v>
+        <v>336.596</v>
       </c>
       <c r="G73" t="n">
-        <v>394.7600000000003</v>
+        <v>394.556666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3273,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C74" t="n">
-        <v>395.3</v>
+        <v>398</v>
       </c>
       <c r="D74" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E74" t="n">
-        <v>395.3</v>
+        <v>398</v>
       </c>
       <c r="F74" t="n">
-        <v>6209.97639022</v>
+        <v>13.13</v>
       </c>
       <c r="G74" t="n">
-        <v>394.926666666667</v>
+        <v>394.7600000000003</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3308,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>395.3</v>
+        <v>399</v>
       </c>
       <c r="C75" t="n">
         <v>395.3</v>
       </c>
       <c r="D75" t="n">
-        <v>395.3</v>
+        <v>399</v>
       </c>
       <c r="E75" t="n">
         <v>395.3</v>
       </c>
       <c r="F75" t="n">
-        <v>1709.44</v>
+        <v>6209.97639022</v>
       </c>
       <c r="G75" t="n">
-        <v>395.0933333333336</v>
+        <v>394.926666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3343,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>396.3</v>
+        <v>395.3</v>
       </c>
       <c r="C76" t="n">
-        <v>396.3</v>
+        <v>395.3</v>
       </c>
       <c r="D76" t="n">
-        <v>396.3</v>
+        <v>395.3</v>
       </c>
       <c r="E76" t="n">
-        <v>396.3</v>
+        <v>395.3</v>
       </c>
       <c r="F76" t="n">
-        <v>1185.4696</v>
+        <v>1709.44</v>
       </c>
       <c r="G76" t="n">
-        <v>395.2766666666669</v>
+        <v>395.0933333333336</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3390,10 +3070,10 @@
         <v>396.3</v>
       </c>
       <c r="F77" t="n">
-        <v>381.0438</v>
+        <v>1185.4696</v>
       </c>
       <c r="G77" t="n">
-        <v>395.431666666667</v>
+        <v>395.2766666666669</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3413,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>399</v>
+        <v>396.3</v>
       </c>
       <c r="C78" t="n">
-        <v>397.3</v>
+        <v>396.3</v>
       </c>
       <c r="D78" t="n">
-        <v>399</v>
+        <v>396.3</v>
       </c>
       <c r="E78" t="n">
         <v>396.3</v>
       </c>
       <c r="F78" t="n">
-        <v>1336.8</v>
+        <v>381.0438</v>
       </c>
       <c r="G78" t="n">
-        <v>395.6316666666669</v>
+        <v>395.431666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3448,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>399</v>
+      </c>
+      <c r="C79" t="n">
         <v>397.3</v>
       </c>
-      <c r="C79" t="n">
-        <v>396.3</v>
-      </c>
       <c r="D79" t="n">
-        <v>397.3</v>
+        <v>399</v>
       </c>
       <c r="E79" t="n">
         <v>396.3</v>
       </c>
       <c r="F79" t="n">
-        <v>442.8</v>
+        <v>1336.8</v>
       </c>
       <c r="G79" t="n">
-        <v>395.7050000000002</v>
+        <v>395.6316666666669</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3483,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>396.3</v>
+        <v>397.3</v>
       </c>
       <c r="C80" t="n">
         <v>396.3</v>
       </c>
       <c r="D80" t="n">
-        <v>396.3</v>
+        <v>397.3</v>
       </c>
       <c r="E80" t="n">
         <v>396.3</v>
       </c>
       <c r="F80" t="n">
-        <v>7.1914</v>
+        <v>442.8</v>
       </c>
       <c r="G80" t="n">
-        <v>395.7783333333335</v>
+        <v>395.7050000000002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3518,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>397</v>
+        <v>396.3</v>
       </c>
       <c r="C81" t="n">
-        <v>397</v>
+        <v>396.3</v>
       </c>
       <c r="D81" t="n">
-        <v>397</v>
+        <v>396.3</v>
       </c>
       <c r="E81" t="n">
-        <v>397</v>
+        <v>396.3</v>
       </c>
       <c r="F81" t="n">
-        <v>145.7599</v>
+        <v>7.1914</v>
       </c>
       <c r="G81" t="n">
-        <v>395.8633333333335</v>
+        <v>395.7783333333335</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3565,10 +3245,10 @@
         <v>397</v>
       </c>
       <c r="F82" t="n">
-        <v>1847.5587</v>
+        <v>145.7599</v>
       </c>
       <c r="G82" t="n">
-        <v>396.0300000000001</v>
+        <v>395.8633333333335</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3600,10 +3280,10 @@
         <v>397</v>
       </c>
       <c r="F83" t="n">
-        <v>34.5758</v>
+        <v>1847.5587</v>
       </c>
       <c r="G83" t="n">
-        <v>396.1966666666668</v>
+        <v>396.0300000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3623,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C84" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D84" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E84" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F84" t="n">
-        <v>257.8546</v>
+        <v>34.5758</v>
       </c>
       <c r="G84" t="n">
-        <v>396.3633333333335</v>
+        <v>396.1966666666668</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3658,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>395.1</v>
+        <v>396</v>
       </c>
       <c r="C85" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D85" t="n">
-        <v>395.1</v>
+        <v>396</v>
       </c>
       <c r="E85" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F85" t="n">
-        <v>5867.1557</v>
+        <v>257.8546</v>
       </c>
       <c r="G85" t="n">
-        <v>396.4150000000001</v>
+        <v>396.3633333333335</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3693,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>398</v>
+        <v>395.1</v>
       </c>
       <c r="C86" t="n">
-        <v>399.8</v>
+        <v>395</v>
       </c>
       <c r="D86" t="n">
-        <v>399.8</v>
+        <v>395.1</v>
       </c>
       <c r="E86" t="n">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F86" t="n">
-        <v>623.8239</v>
+        <v>5867.1557</v>
       </c>
       <c r="G86" t="n">
-        <v>396.6400000000002</v>
+        <v>396.4150000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3728,7 +3408,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>399.8</v>
+        <v>398</v>
       </c>
       <c r="C87" t="n">
         <v>399.8</v>
@@ -3737,22 +3417,26 @@
         <v>399.8</v>
       </c>
       <c r="E87" t="n">
-        <v>398.9</v>
+        <v>398</v>
       </c>
       <c r="F87" t="n">
-        <v>2509.9571</v>
+        <v>623.8239</v>
       </c>
       <c r="G87" t="n">
-        <v>396.8650000000001</v>
+        <v>396.6400000000002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>395</v>
+      </c>
+      <c r="K87" t="n">
+        <v>395</v>
+      </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
@@ -3772,13 +3456,13 @@
         <v>399.8</v>
       </c>
       <c r="E88" t="n">
-        <v>399.8</v>
+        <v>398.9</v>
       </c>
       <c r="F88" t="n">
-        <v>164.8685</v>
+        <v>2509.9571</v>
       </c>
       <c r="G88" t="n">
-        <v>397.0916666666668</v>
+        <v>396.8650000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3787,8 +3471,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>395</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3798,22 +3488,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>400</v>
+        <v>399.8</v>
       </c>
       <c r="C89" t="n">
-        <v>400</v>
+        <v>399.8</v>
       </c>
       <c r="D89" t="n">
-        <v>400</v>
+        <v>399.8</v>
       </c>
       <c r="E89" t="n">
-        <v>400</v>
+        <v>399.8</v>
       </c>
       <c r="F89" t="n">
-        <v>9.6936</v>
+        <v>164.8685</v>
       </c>
       <c r="G89" t="n">
-        <v>397.3216666666668</v>
+        <v>397.0916666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3822,8 +3512,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>395</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3833,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C90" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D90" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E90" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F90" t="n">
-        <v>1152.3219</v>
+        <v>9.6936</v>
       </c>
       <c r="G90" t="n">
-        <v>397.5350000000001</v>
+        <v>397.3216666666668</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3868,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C91" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D91" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E91" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F91" t="n">
-        <v>516.6057</v>
+        <v>1152.3219</v>
       </c>
       <c r="G91" t="n">
-        <v>397.7666666666668</v>
+        <v>397.5350000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3915,10 +3611,10 @@
         <v>400</v>
       </c>
       <c r="F92" t="n">
-        <v>1255.0512</v>
+        <v>516.6057</v>
       </c>
       <c r="G92" t="n">
-        <v>397.9966666666668</v>
+        <v>397.7666666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3950,10 +3646,10 @@
         <v>400</v>
       </c>
       <c r="F93" t="n">
-        <v>441.97</v>
+        <v>1255.0512</v>
       </c>
       <c r="G93" t="n">
-        <v>398.2283333333335</v>
+        <v>397.9966666666668</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3985,10 +3681,10 @@
         <v>400</v>
       </c>
       <c r="F94" t="n">
-        <v>0.151</v>
+        <v>441.97</v>
       </c>
       <c r="G94" t="n">
-        <v>398.4600000000002</v>
+        <v>398.2283333333335</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4008,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C95" t="n">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D95" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E95" t="n">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F95" t="n">
-        <v>7069.2771</v>
+        <v>0.151</v>
       </c>
       <c r="G95" t="n">
-        <v>398.5583333333335</v>
+        <v>398.4600000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4043,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>399.8</v>
+        <v>396</v>
       </c>
       <c r="C96" t="n">
-        <v>399.8</v>
+        <v>392</v>
       </c>
       <c r="D96" t="n">
-        <v>399.8</v>
+        <v>396</v>
       </c>
       <c r="E96" t="n">
-        <v>399.8</v>
+        <v>392</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>7069.2771</v>
       </c>
       <c r="G96" t="n">
-        <v>398.7866666666669</v>
+        <v>398.5583333333335</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4078,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>398.8</v>
+        <v>399.8</v>
       </c>
       <c r="C97" t="n">
-        <v>394.1</v>
+        <v>399.8</v>
       </c>
       <c r="D97" t="n">
-        <v>398.8</v>
+        <v>399.8</v>
       </c>
       <c r="E97" t="n">
-        <v>394.1</v>
+        <v>399.8</v>
       </c>
       <c r="F97" t="n">
-        <v>3772.3075</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>398.8383333333335</v>
+        <v>398.7866666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4113,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>394.1</v>
+        <v>398.8</v>
       </c>
       <c r="C98" t="n">
         <v>394.1</v>
       </c>
       <c r="D98" t="n">
-        <v>394.1</v>
+        <v>398.8</v>
       </c>
       <c r="E98" t="n">
         <v>394.1</v>
       </c>
       <c r="F98" t="n">
-        <v>189.862</v>
+        <v>3772.3075</v>
       </c>
       <c r="G98" t="n">
-        <v>398.8500000000001</v>
+        <v>398.8383333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4148,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>396.9</v>
+        <v>394.1</v>
       </c>
       <c r="C99" t="n">
-        <v>396.9</v>
+        <v>394.1</v>
       </c>
       <c r="D99" t="n">
-        <v>396.9</v>
+        <v>394.1</v>
       </c>
       <c r="E99" t="n">
-        <v>396.9</v>
+        <v>394.1</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>189.862</v>
       </c>
       <c r="G99" t="n">
-        <v>398.9083333333335</v>
+        <v>398.8500000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4183,22 +3879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>396.8</v>
+        <v>396.9</v>
       </c>
       <c r="C100" t="n">
-        <v>398.9</v>
+        <v>396.9</v>
       </c>
       <c r="D100" t="n">
-        <v>398.9</v>
+        <v>396.9</v>
       </c>
       <c r="E100" t="n">
-        <v>396.8</v>
+        <v>396.9</v>
       </c>
       <c r="F100" t="n">
-        <v>5911.5686</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>398.9883333333335</v>
+        <v>398.9083333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4218,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>399</v>
+        <v>396.8</v>
       </c>
       <c r="C101" t="n">
-        <v>400</v>
+        <v>398.9</v>
       </c>
       <c r="D101" t="n">
-        <v>400</v>
+        <v>398.9</v>
       </c>
       <c r="E101" t="n">
-        <v>399</v>
+        <v>396.8</v>
       </c>
       <c r="F101" t="n">
-        <v>1256.6919</v>
+        <v>5911.5686</v>
       </c>
       <c r="G101" t="n">
-        <v>399.0700000000002</v>
+        <v>398.9883333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4253,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>400.7</v>
+        <v>399</v>
       </c>
       <c r="C102" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D102" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E102" t="n">
-        <v>400.7</v>
+        <v>399</v>
       </c>
       <c r="F102" t="n">
-        <v>2433.5402</v>
+        <v>1256.6919</v>
       </c>
       <c r="G102" t="n">
-        <v>399.1666666666669</v>
+        <v>399.0700000000002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4288,10 +3984,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>400.7</v>
+      </c>
+      <c r="C103" t="n">
         <v>401</v>
-      </c>
-      <c r="C103" t="n">
-        <v>400.7</v>
       </c>
       <c r="D103" t="n">
         <v>401</v>
@@ -4300,10 +3996,10 @@
         <v>400.7</v>
       </c>
       <c r="F103" t="n">
-        <v>792.0700000000001</v>
+        <v>2433.5402</v>
       </c>
       <c r="G103" t="n">
-        <v>399.2883333333335</v>
+        <v>399.1666666666669</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4323,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>400.7</v>
+        <v>401</v>
       </c>
       <c r="C104" t="n">
         <v>400.7</v>
       </c>
       <c r="D104" t="n">
-        <v>400.7</v>
+        <v>401</v>
       </c>
       <c r="E104" t="n">
         <v>400.7</v>
       </c>
       <c r="F104" t="n">
-        <v>869.3741</v>
+        <v>792.0700000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>399.4100000000001</v>
+        <v>399.2883333333335</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4370,10 +4066,10 @@
         <v>400.7</v>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>869.3741</v>
       </c>
       <c r="G105" t="n">
-        <v>399.4683333333335</v>
+        <v>399.4100000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4405,10 +4101,10 @@
         <v>400.7</v>
       </c>
       <c r="F106" t="n">
-        <v>32.43</v>
+        <v>300</v>
       </c>
       <c r="G106" t="n">
-        <v>399.5266666666668</v>
+        <v>399.4683333333335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4428,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>401.5</v>
+        <v>400.7</v>
       </c>
       <c r="C107" t="n">
-        <v>401.5</v>
+        <v>400.7</v>
       </c>
       <c r="D107" t="n">
-        <v>401.5</v>
+        <v>400.7</v>
       </c>
       <c r="E107" t="n">
-        <v>401.5</v>
+        <v>400.7</v>
       </c>
       <c r="F107" t="n">
-        <v>275.0036</v>
+        <v>32.43</v>
       </c>
       <c r="G107" t="n">
-        <v>399.5183333333335</v>
+        <v>399.5266666666668</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4463,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>401.6</v>
+        <v>401.5</v>
       </c>
       <c r="C108" t="n">
-        <v>401.8</v>
+        <v>401.5</v>
       </c>
       <c r="D108" t="n">
-        <v>401.8</v>
+        <v>401.5</v>
       </c>
       <c r="E108" t="n">
-        <v>401.6</v>
+        <v>401.5</v>
       </c>
       <c r="F108" t="n">
-        <v>1848.5671</v>
+        <v>275.0036</v>
       </c>
       <c r="G108" t="n">
-        <v>399.5150000000002</v>
+        <v>399.5183333333335</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4498,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>402.4</v>
+        <v>401.6</v>
       </c>
       <c r="C109" t="n">
-        <v>402.4</v>
+        <v>401.8</v>
       </c>
       <c r="D109" t="n">
-        <v>402.4</v>
+        <v>401.8</v>
       </c>
       <c r="E109" t="n">
-        <v>402.4</v>
+        <v>401.6</v>
       </c>
       <c r="F109" t="n">
-        <v>4307.7282</v>
+        <v>1848.5671</v>
       </c>
       <c r="G109" t="n">
-        <v>399.5216666666668</v>
+        <v>399.5150000000002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4533,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>402.5</v>
+        <v>402.4</v>
       </c>
       <c r="C110" t="n">
-        <v>403.5</v>
+        <v>402.4</v>
       </c>
       <c r="D110" t="n">
-        <v>404</v>
+        <v>402.4</v>
       </c>
       <c r="E110" t="n">
-        <v>402.5</v>
+        <v>402.4</v>
       </c>
       <c r="F110" t="n">
-        <v>4569.3722</v>
+        <v>4307.7282</v>
       </c>
       <c r="G110" t="n">
-        <v>399.5466666666669</v>
+        <v>399.5216666666668</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4568,10 +4264,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="C111" t="n">
         <v>403.5</v>
-      </c>
-      <c r="C111" t="n">
-        <v>404</v>
       </c>
       <c r="D111" t="n">
         <v>404</v>
@@ -4580,10 +4276,10 @@
         <v>402.5</v>
       </c>
       <c r="F111" t="n">
-        <v>4934.1074</v>
+        <v>4569.3722</v>
       </c>
       <c r="G111" t="n">
-        <v>399.5866666666669</v>
+        <v>399.5466666666669</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4603,7 +4299,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>404</v>
+        <v>403.5</v>
       </c>
       <c r="C112" t="n">
         <v>404</v>
@@ -4612,13 +4308,13 @@
         <v>404</v>
       </c>
       <c r="E112" t="n">
-        <v>404</v>
+        <v>402.5</v>
       </c>
       <c r="F112" t="n">
-        <v>722</v>
+        <v>4934.1074</v>
       </c>
       <c r="G112" t="n">
-        <v>399.6866666666668</v>
+        <v>399.5866666666669</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4638,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>404.5</v>
+        <v>404</v>
       </c>
       <c r="C113" t="n">
-        <v>404.5</v>
+        <v>404</v>
       </c>
       <c r="D113" t="n">
-        <v>404.5</v>
+        <v>404</v>
       </c>
       <c r="E113" t="n">
-        <v>404.5</v>
+        <v>404</v>
       </c>
       <c r="F113" t="n">
-        <v>482.9078</v>
+        <v>722</v>
       </c>
       <c r="G113" t="n">
-        <v>399.7450000000002</v>
+        <v>399.6866666666668</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4673,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>404.7</v>
+        <v>404.5</v>
       </c>
       <c r="C114" t="n">
-        <v>407</v>
+        <v>404.5</v>
       </c>
       <c r="D114" t="n">
-        <v>407</v>
+        <v>404.5</v>
       </c>
       <c r="E114" t="n">
-        <v>404.7</v>
+        <v>404.5</v>
       </c>
       <c r="F114" t="n">
-        <v>1012.4821</v>
+        <v>482.9078</v>
       </c>
       <c r="G114" t="n">
-        <v>399.8366666666669</v>
+        <v>399.7450000000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4708,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>404.7</v>
+      </c>
+      <c r="C115" t="n">
         <v>407</v>
       </c>
-      <c r="C115" t="n">
-        <v>408</v>
-      </c>
       <c r="D115" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E115" t="n">
-        <v>407</v>
+        <v>404.7</v>
       </c>
       <c r="F115" t="n">
-        <v>5754.94828039</v>
+        <v>1012.4821</v>
       </c>
       <c r="G115" t="n">
-        <v>399.9416666666668</v>
+        <v>399.8366666666669</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4746,19 +4442,19 @@
         <v>407</v>
       </c>
       <c r="C116" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D116" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E116" t="n">
         <v>407</v>
       </c>
       <c r="F116" t="n">
-        <v>1965</v>
+        <v>5754.94828039</v>
       </c>
       <c r="G116" t="n">
-        <v>400.0916666666669</v>
+        <v>399.9416666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4781,19 +4477,19 @@
         <v>407</v>
       </c>
       <c r="C117" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D117" t="n">
         <v>407</v>
       </c>
       <c r="E117" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F117" t="n">
-        <v>1069.9032</v>
+        <v>1965</v>
       </c>
       <c r="G117" t="n">
-        <v>400.1916666666668</v>
+        <v>400.0916666666669</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4813,22 +4509,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C118" t="n">
         <v>406</v>
       </c>
       <c r="D118" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E118" t="n">
         <v>406</v>
       </c>
       <c r="F118" t="n">
-        <v>254.62</v>
+        <v>1069.9032</v>
       </c>
       <c r="G118" t="n">
-        <v>400.2300000000002</v>
+        <v>400.1916666666668</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4848,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C119" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D119" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E119" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F119" t="n">
-        <v>494.6683</v>
+        <v>254.62</v>
       </c>
       <c r="G119" t="n">
-        <v>400.3016666666668</v>
+        <v>400.2300000000002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4886,19 +4582,19 @@
         <v>408</v>
       </c>
       <c r="C120" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D120" t="n">
         <v>408</v>
       </c>
       <c r="E120" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F120" t="n">
-        <v>2023.0314</v>
+        <v>494.6683</v>
       </c>
       <c r="G120" t="n">
-        <v>400.3850000000002</v>
+        <v>400.3016666666668</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4918,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C121" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D121" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E121" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F121" t="n">
-        <v>30</v>
+        <v>2023.0314</v>
       </c>
       <c r="G121" t="n">
-        <v>400.5266666666668</v>
+        <v>400.3850000000002</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4953,22 +4649,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C122" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D122" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E122" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F122" t="n">
-        <v>126.81</v>
+        <v>30</v>
       </c>
       <c r="G122" t="n">
-        <v>400.5650000000002</v>
+        <v>400.5266666666668</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4991,19 +4687,19 @@
         <v>407</v>
       </c>
       <c r="C123" t="n">
-        <v>406.8</v>
+        <v>407</v>
       </c>
       <c r="D123" t="n">
         <v>407</v>
       </c>
       <c r="E123" t="n">
-        <v>406.8</v>
+        <v>407</v>
       </c>
       <c r="F123" t="n">
-        <v>3953.1503</v>
+        <v>126.81</v>
       </c>
       <c r="G123" t="n">
-        <v>400.6166666666668</v>
+        <v>400.5650000000002</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5026,19 +4722,19 @@
         <v>407</v>
       </c>
       <c r="C124" t="n">
-        <v>407</v>
+        <v>406.8</v>
       </c>
       <c r="D124" t="n">
         <v>407</v>
       </c>
       <c r="E124" t="n">
-        <v>407</v>
+        <v>406.8</v>
       </c>
       <c r="F124" t="n">
-        <v>307.1312</v>
+        <v>3953.1503</v>
       </c>
       <c r="G124" t="n">
-        <v>400.6716666666668</v>
+        <v>400.6166666666668</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5058,22 +4754,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>406.4</v>
+        <v>407</v>
       </c>
       <c r="C125" t="n">
-        <v>405.5</v>
+        <v>407</v>
       </c>
       <c r="D125" t="n">
-        <v>406.4</v>
+        <v>407</v>
       </c>
       <c r="E125" t="n">
-        <v>405.5</v>
+        <v>407</v>
       </c>
       <c r="F125" t="n">
-        <v>2234.7046</v>
+        <v>307.1312</v>
       </c>
       <c r="G125" t="n">
-        <v>400.7016666666668</v>
+        <v>400.6716666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5093,22 +4789,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>405.4</v>
+        <v>406.4</v>
       </c>
       <c r="C126" t="n">
-        <v>405.1</v>
+        <v>405.5</v>
       </c>
       <c r="D126" t="n">
-        <v>406</v>
+        <v>406.4</v>
       </c>
       <c r="E126" t="n">
-        <v>405.1</v>
+        <v>405.5</v>
       </c>
       <c r="F126" t="n">
-        <v>1915.9612</v>
+        <v>2234.7046</v>
       </c>
       <c r="G126" t="n">
-        <v>400.7200000000001</v>
+        <v>400.7016666666668</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5128,22 +4824,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>405</v>
+        <v>405.4</v>
       </c>
       <c r="C127" t="n">
-        <v>404.8</v>
+        <v>405.1</v>
       </c>
       <c r="D127" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E127" t="n">
-        <v>404.8</v>
+        <v>405.1</v>
       </c>
       <c r="F127" t="n">
-        <v>4617.1037</v>
+        <v>1915.9612</v>
       </c>
       <c r="G127" t="n">
-        <v>400.7333333333334</v>
+        <v>400.7200000000001</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5163,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>404.7</v>
+        <v>405</v>
       </c>
       <c r="C128" t="n">
-        <v>404.7</v>
+        <v>404.8</v>
       </c>
       <c r="D128" t="n">
-        <v>404.7</v>
+        <v>405</v>
       </c>
       <c r="E128" t="n">
-        <v>404.7</v>
+        <v>404.8</v>
       </c>
       <c r="F128" t="n">
-        <v>3391.5077</v>
+        <v>4617.1037</v>
       </c>
       <c r="G128" t="n">
-        <v>400.7450000000001</v>
+        <v>400.7333333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5198,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>405</v>
+        <v>404.7</v>
       </c>
       <c r="C129" t="n">
-        <v>405</v>
+        <v>404.7</v>
       </c>
       <c r="D129" t="n">
-        <v>405</v>
+        <v>404.7</v>
       </c>
       <c r="E129" t="n">
-        <v>405</v>
+        <v>404.7</v>
       </c>
       <c r="F129" t="n">
-        <v>40.592</v>
+        <v>3391.5077</v>
       </c>
       <c r="G129" t="n">
-        <v>400.8616666666667</v>
+        <v>400.7450000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5233,22 +4929,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>404.4</v>
+        <v>405</v>
       </c>
       <c r="C130" t="n">
-        <v>402.5</v>
+        <v>405</v>
       </c>
       <c r="D130" t="n">
-        <v>404.4</v>
+        <v>405</v>
       </c>
       <c r="E130" t="n">
-        <v>402.5</v>
+        <v>405</v>
       </c>
       <c r="F130" t="n">
-        <v>100</v>
+        <v>40.592</v>
       </c>
       <c r="G130" t="n">
-        <v>400.9200000000001</v>
+        <v>400.8616666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5268,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>404.4</v>
+      </c>
+      <c r="C131" t="n">
         <v>402.5</v>
       </c>
-      <c r="C131" t="n">
-        <v>401.4</v>
-      </c>
       <c r="D131" t="n">
+        <v>404.4</v>
+      </c>
+      <c r="E131" t="n">
         <v>402.5</v>
       </c>
-      <c r="E131" t="n">
-        <v>401.4</v>
-      </c>
       <c r="F131" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G131" t="n">
-        <v>400.9766666666667</v>
+        <v>400.9200000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5303,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="C132" t="n">
         <v>401.4</v>
       </c>
-      <c r="C132" t="n">
-        <v>398.7</v>
-      </c>
       <c r="D132" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="E132" t="n">
         <v>401.4</v>
       </c>
-      <c r="E132" t="n">
-        <v>398.7</v>
-      </c>
       <c r="F132" t="n">
-        <v>2302.3723</v>
+        <v>15</v>
       </c>
       <c r="G132" t="n">
-        <v>400.9883333333335</v>
+        <v>400.9766666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5338,22 +5034,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>399.9</v>
+        <v>401.4</v>
       </c>
       <c r="C133" t="n">
-        <v>399.9</v>
+        <v>398.7</v>
       </c>
       <c r="D133" t="n">
-        <v>399.9</v>
+        <v>401.4</v>
       </c>
       <c r="E133" t="n">
-        <v>399.9</v>
+        <v>398.7</v>
       </c>
       <c r="F133" t="n">
-        <v>864.763</v>
+        <v>2302.3723</v>
       </c>
       <c r="G133" t="n">
-        <v>401.0200000000002</v>
+        <v>400.9883333333335</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5373,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>401</v>
+        <v>399.9</v>
       </c>
       <c r="C134" t="n">
-        <v>401</v>
+        <v>399.9</v>
       </c>
       <c r="D134" t="n">
-        <v>401</v>
+        <v>399.9</v>
       </c>
       <c r="E134" t="n">
-        <v>401</v>
+        <v>399.9</v>
       </c>
       <c r="F134" t="n">
-        <v>487.3573</v>
+        <v>864.763</v>
       </c>
       <c r="G134" t="n">
-        <v>401.1150000000001</v>
+        <v>401.0200000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5408,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>402.4</v>
+        <v>401</v>
       </c>
       <c r="C135" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D135" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E135" t="n">
-        <v>402.4</v>
+        <v>401</v>
       </c>
       <c r="F135" t="n">
-        <v>1057.5633</v>
+        <v>487.3573</v>
       </c>
       <c r="G135" t="n">
-        <v>401.2433333333335</v>
+        <v>401.1150000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5443,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>404</v>
+        <v>402.4</v>
       </c>
       <c r="C136" t="n">
         <v>403</v>
       </c>
       <c r="D136" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E136" t="n">
-        <v>403</v>
+        <v>402.4</v>
       </c>
       <c r="F136" t="n">
-        <v>494.7277</v>
+        <v>1057.5633</v>
       </c>
       <c r="G136" t="n">
-        <v>401.3550000000002</v>
+        <v>401.2433333333335</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5478,10 +5174,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>404</v>
+      </c>
+      <c r="C137" t="n">
         <v>403</v>
-      </c>
-      <c r="C137" t="n">
-        <v>404</v>
       </c>
       <c r="D137" t="n">
         <v>404</v>
@@ -5490,10 +5186,10 @@
         <v>403</v>
       </c>
       <c r="F137" t="n">
-        <v>434.1813</v>
+        <v>494.7277</v>
       </c>
       <c r="G137" t="n">
-        <v>401.4833333333335</v>
+        <v>401.3550000000002</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5516,19 +5212,19 @@
         <v>403</v>
       </c>
       <c r="C138" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D138" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E138" t="n">
         <v>403</v>
       </c>
       <c r="F138" t="n">
-        <v>5.7098</v>
+        <v>434.1813</v>
       </c>
       <c r="G138" t="n">
-        <v>401.5783333333335</v>
+        <v>401.4833333333335</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5551,19 +5247,19 @@
         <v>403</v>
       </c>
       <c r="C139" t="n">
-        <v>402.4</v>
+        <v>403</v>
       </c>
       <c r="D139" t="n">
         <v>403</v>
       </c>
       <c r="E139" t="n">
-        <v>402.4</v>
+        <v>403</v>
       </c>
       <c r="F139" t="n">
-        <v>2701.36</v>
+        <v>5.7098</v>
       </c>
       <c r="G139" t="n">
-        <v>401.6800000000002</v>
+        <v>401.5783333333335</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5583,22 +5279,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>399.8</v>
+        <v>403</v>
       </c>
       <c r="C140" t="n">
-        <v>401</v>
+        <v>402.4</v>
       </c>
       <c r="D140" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E140" t="n">
-        <v>398.7</v>
+        <v>402.4</v>
       </c>
       <c r="F140" t="n">
-        <v>420</v>
+        <v>2701.36</v>
       </c>
       <c r="G140" t="n">
-        <v>401.7583333333336</v>
+        <v>401.6800000000002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5618,22 +5314,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>402.3</v>
+        <v>399.8</v>
       </c>
       <c r="C141" t="n">
-        <v>402.3</v>
+        <v>401</v>
       </c>
       <c r="D141" t="n">
-        <v>402.3</v>
+        <v>401</v>
       </c>
       <c r="E141" t="n">
-        <v>402.3</v>
+        <v>398.7</v>
       </c>
       <c r="F141" t="n">
-        <v>935.252</v>
+        <v>420</v>
       </c>
       <c r="G141" t="n">
-        <v>401.8466666666669</v>
+        <v>401.7583333333336</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5665,10 +5361,10 @@
         <v>402.3</v>
       </c>
       <c r="F142" t="n">
-        <v>1636</v>
+        <v>935.252</v>
       </c>
       <c r="G142" t="n">
-        <v>401.9350000000002</v>
+        <v>401.8466666666669</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5688,22 +5384,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>402.4</v>
+        <v>402.3</v>
       </c>
       <c r="C143" t="n">
-        <v>402.4</v>
+        <v>402.3</v>
       </c>
       <c r="D143" t="n">
-        <v>402.4</v>
+        <v>402.3</v>
       </c>
       <c r="E143" t="n">
-        <v>402.4</v>
+        <v>402.3</v>
       </c>
       <c r="F143" t="n">
-        <v>396.0465</v>
+        <v>1636</v>
       </c>
       <c r="G143" t="n">
-        <v>402.0250000000003</v>
+        <v>401.9350000000002</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5735,10 +5431,10 @@
         <v>402.4</v>
       </c>
       <c r="F144" t="n">
-        <v>637.866</v>
+        <v>396.0465</v>
       </c>
       <c r="G144" t="n">
-        <v>402.1316666666669</v>
+        <v>402.0250000000003</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5758,7 +5454,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>402.3</v>
+        <v>402.4</v>
       </c>
       <c r="C145" t="n">
         <v>402.4</v>
@@ -5767,13 +5463,13 @@
         <v>402.4</v>
       </c>
       <c r="E145" t="n">
-        <v>402.3</v>
+        <v>402.4</v>
       </c>
       <c r="F145" t="n">
-        <v>3908.4979</v>
+        <v>637.866</v>
       </c>
       <c r="G145" t="n">
-        <v>402.2550000000003</v>
+        <v>402.1316666666669</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5793,22 +5489,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>405</v>
+        <v>402.3</v>
       </c>
       <c r="C146" t="n">
-        <v>405</v>
+        <v>402.4</v>
       </c>
       <c r="D146" t="n">
-        <v>405</v>
+        <v>402.4</v>
       </c>
       <c r="E146" t="n">
-        <v>405</v>
+        <v>402.3</v>
       </c>
       <c r="F146" t="n">
-        <v>4.7752</v>
+        <v>3908.4979</v>
       </c>
       <c r="G146" t="n">
-        <v>402.341666666667</v>
+        <v>402.2550000000003</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5828,22 +5524,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>401.8</v>
+        <v>405</v>
       </c>
       <c r="C147" t="n">
-        <v>401.9</v>
+        <v>405</v>
       </c>
       <c r="D147" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E147" t="n">
-        <v>401.8</v>
+        <v>405</v>
       </c>
       <c r="F147" t="n">
-        <v>926.3766000000001</v>
+        <v>4.7752</v>
       </c>
       <c r="G147" t="n">
-        <v>402.376666666667</v>
+        <v>402.341666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5863,22 +5559,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>406</v>
+        <v>401.8</v>
       </c>
       <c r="C148" t="n">
-        <v>406</v>
+        <v>401.9</v>
       </c>
       <c r="D148" t="n">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E148" t="n">
-        <v>406</v>
+        <v>401.8</v>
       </c>
       <c r="F148" t="n">
-        <v>2</v>
+        <v>926.3766000000001</v>
       </c>
       <c r="G148" t="n">
-        <v>402.4800000000004</v>
+        <v>402.376666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5898,22 +5594,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>403.5</v>
+        <v>406</v>
       </c>
       <c r="C149" t="n">
-        <v>403.5</v>
+        <v>406</v>
       </c>
       <c r="D149" t="n">
-        <v>403.5</v>
+        <v>406</v>
       </c>
       <c r="E149" t="n">
-        <v>403.5</v>
+        <v>406</v>
       </c>
       <c r="F149" t="n">
-        <v>140.7054</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
-        <v>402.5383333333337</v>
+        <v>402.4800000000004</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5945,10 +5641,10 @@
         <v>403.5</v>
       </c>
       <c r="F150" t="n">
-        <v>173.0791</v>
+        <v>140.7054</v>
       </c>
       <c r="G150" t="n">
-        <v>402.6133333333337</v>
+        <v>402.5383333333337</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5971,19 +5667,19 @@
         <v>403.5</v>
       </c>
       <c r="C151" t="n">
-        <v>407</v>
+        <v>403.5</v>
       </c>
       <c r="D151" t="n">
-        <v>407</v>
+        <v>403.5</v>
       </c>
       <c r="E151" t="n">
         <v>403.5</v>
       </c>
       <c r="F151" t="n">
-        <v>2.97543083</v>
+        <v>173.0791</v>
       </c>
       <c r="G151" t="n">
-        <v>402.7300000000004</v>
+        <v>402.6133333333337</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6003,22 +5699,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>403.1</v>
+        <v>403.5</v>
       </c>
       <c r="C152" t="n">
-        <v>403.1</v>
+        <v>407</v>
       </c>
       <c r="D152" t="n">
-        <v>403.1</v>
+        <v>407</v>
       </c>
       <c r="E152" t="n">
-        <v>403.1</v>
+        <v>403.5</v>
       </c>
       <c r="F152" t="n">
-        <v>1528</v>
+        <v>2.97543083</v>
       </c>
       <c r="G152" t="n">
-        <v>402.781666666667</v>
+        <v>402.7300000000004</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6038,22 +5734,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>407</v>
+        <v>403.1</v>
       </c>
       <c r="C153" t="n">
-        <v>407</v>
+        <v>403.1</v>
       </c>
       <c r="D153" t="n">
-        <v>407</v>
+        <v>403.1</v>
       </c>
       <c r="E153" t="n">
-        <v>407</v>
+        <v>403.1</v>
       </c>
       <c r="F153" t="n">
-        <v>2</v>
+        <v>1528</v>
       </c>
       <c r="G153" t="n">
-        <v>402.8983333333337</v>
+        <v>402.781666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6073,22 +5769,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>403.1</v>
+        <v>407</v>
       </c>
       <c r="C154" t="n">
-        <v>403.1</v>
+        <v>407</v>
       </c>
       <c r="D154" t="n">
-        <v>403.1</v>
+        <v>407</v>
       </c>
       <c r="E154" t="n">
-        <v>403.1</v>
+        <v>407</v>
       </c>
       <c r="F154" t="n">
-        <v>385.2225</v>
+        <v>2</v>
       </c>
       <c r="G154" t="n">
-        <v>402.9500000000003</v>
+        <v>402.8983333333337</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6108,22 +5804,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>406.1</v>
+        <v>403.1</v>
       </c>
       <c r="C155" t="n">
-        <v>406.1</v>
+        <v>403.1</v>
       </c>
       <c r="D155" t="n">
-        <v>406.1</v>
+        <v>403.1</v>
       </c>
       <c r="E155" t="n">
-        <v>406.1</v>
+        <v>403.1</v>
       </c>
       <c r="F155" t="n">
-        <v>194.0582</v>
+        <v>385.2225</v>
       </c>
       <c r="G155" t="n">
-        <v>403.1850000000003</v>
+        <v>402.9500000000003</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6146,19 +5842,19 @@
         <v>406.1</v>
       </c>
       <c r="C156" t="n">
-        <v>407</v>
+        <v>406.1</v>
       </c>
       <c r="D156" t="n">
-        <v>407</v>
+        <v>406.1</v>
       </c>
       <c r="E156" t="n">
         <v>406.1</v>
       </c>
       <c r="F156" t="n">
-        <v>235.9668</v>
+        <v>194.0582</v>
       </c>
       <c r="G156" t="n">
-        <v>403.3050000000003</v>
+        <v>403.1850000000003</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6178,7 +5874,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>407</v>
+        <v>406.1</v>
       </c>
       <c r="C157" t="n">
         <v>407</v>
@@ -6187,13 +5883,13 @@
         <v>407</v>
       </c>
       <c r="E157" t="n">
-        <v>407</v>
+        <v>406.1</v>
       </c>
       <c r="F157" t="n">
-        <v>114.1299</v>
+        <v>235.9668</v>
       </c>
       <c r="G157" t="n">
-        <v>403.5200000000003</v>
+        <v>403.3050000000003</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6216,19 +5912,19 @@
         <v>407</v>
       </c>
       <c r="C158" t="n">
-        <v>407.2</v>
+        <v>407</v>
       </c>
       <c r="D158" t="n">
-        <v>407.2</v>
+        <v>407</v>
       </c>
       <c r="E158" t="n">
         <v>407</v>
       </c>
       <c r="F158" t="n">
-        <v>69.37746917</v>
+        <v>114.1299</v>
       </c>
       <c r="G158" t="n">
-        <v>403.7383333333337</v>
+        <v>403.5200000000003</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6248,10 +5944,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>407</v>
+      </c>
+      <c r="C159" t="n">
         <v>407.2</v>
-      </c>
-      <c r="C159" t="n">
-        <v>407</v>
       </c>
       <c r="D159" t="n">
         <v>407.2</v>
@@ -6260,10 +5956,10 @@
         <v>407</v>
       </c>
       <c r="F159" t="n">
-        <v>113.8335</v>
+        <v>69.37746917</v>
       </c>
       <c r="G159" t="n">
-        <v>403.906666666667</v>
+        <v>403.7383333333337</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6286,19 +5982,19 @@
         <v>407.2</v>
       </c>
       <c r="C160" t="n">
-        <v>407.2</v>
+        <v>407</v>
       </c>
       <c r="D160" t="n">
         <v>407.2</v>
       </c>
       <c r="E160" t="n">
-        <v>407.2</v>
+        <v>407</v>
       </c>
       <c r="F160" t="n">
-        <v>220.0728</v>
+        <v>113.8335</v>
       </c>
       <c r="G160" t="n">
-        <v>404.0450000000003</v>
+        <v>403.906666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6318,22 +6014,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>407</v>
+        <v>407.2</v>
       </c>
       <c r="C161" t="n">
-        <v>407</v>
+        <v>407.2</v>
       </c>
       <c r="D161" t="n">
-        <v>407</v>
+        <v>407.2</v>
       </c>
       <c r="E161" t="n">
-        <v>407</v>
+        <v>407.2</v>
       </c>
       <c r="F161" t="n">
-        <v>3.083e-05</v>
+        <v>220.0728</v>
       </c>
       <c r="G161" t="n">
-        <v>404.161666666667</v>
+        <v>404.0450000000003</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6353,22 +6049,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C162" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D162" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E162" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F162" t="n">
-        <v>479.6339</v>
+        <v>3.083e-05</v>
       </c>
       <c r="G162" t="n">
-        <v>404.2450000000003</v>
+        <v>404.161666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6388,22 +6084,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C163" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D163" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E163" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F163" t="n">
-        <v>67.75320000000001</v>
+        <v>479.6339</v>
       </c>
       <c r="G163" t="n">
-        <v>404.3166666666669</v>
+        <v>404.2450000000003</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6423,22 +6119,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C164" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D164" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E164" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F164" t="n">
-        <v>2</v>
+        <v>67.75320000000001</v>
       </c>
       <c r="G164" t="n">
-        <v>404.4050000000003</v>
+        <v>404.3166666666669</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6458,22 +6154,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C165" t="n">
-        <v>399.6</v>
+        <v>406</v>
       </c>
       <c r="D165" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E165" t="n">
-        <v>399.6</v>
+        <v>406</v>
       </c>
       <c r="F165" t="n">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="G165" t="n">
-        <v>404.3866666666669</v>
+        <v>404.4050000000003</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6493,22 +6189,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>404.8</v>
+        <v>405</v>
       </c>
       <c r="C166" t="n">
-        <v>404.8</v>
+        <v>399.6</v>
       </c>
       <c r="D166" t="n">
-        <v>404.8</v>
+        <v>405</v>
       </c>
       <c r="E166" t="n">
-        <v>404.8</v>
+        <v>399.6</v>
       </c>
       <c r="F166" t="n">
-        <v>11.94664031</v>
+        <v>150</v>
       </c>
       <c r="G166" t="n">
-        <v>404.4550000000002</v>
+        <v>404.3866666666669</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6528,22 +6224,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>404</v>
+        <v>404.8</v>
       </c>
       <c r="C167" t="n">
-        <v>404</v>
+        <v>404.8</v>
       </c>
       <c r="D167" t="n">
-        <v>404</v>
+        <v>404.8</v>
       </c>
       <c r="E167" t="n">
-        <v>404</v>
+        <v>404.8</v>
       </c>
       <c r="F167" t="n">
-        <v>50</v>
+        <v>11.94664031</v>
       </c>
       <c r="G167" t="n">
-        <v>404.4966666666669</v>
+        <v>404.4550000000002</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6563,22 +6259,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C168" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D168" t="n">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E168" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F168" t="n">
-        <v>404.8378</v>
+        <v>50</v>
       </c>
       <c r="G168" t="n">
-        <v>404.5166666666669</v>
+        <v>404.4966666666669</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6598,22 +6294,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C169" t="n">
         <v>403</v>
       </c>
       <c r="D169" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E169" t="n">
         <v>403</v>
       </c>
       <c r="F169" t="n">
-        <v>250.5775</v>
+        <v>404.8378</v>
       </c>
       <c r="G169" t="n">
-        <v>404.5266666666669</v>
+        <v>404.5166666666669</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6633,22 +6329,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C170" t="n">
         <v>403</v>
       </c>
       <c r="D170" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E170" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F170" t="n">
-        <v>3567.8828</v>
+        <v>250.5775</v>
       </c>
       <c r="G170" t="n">
-        <v>404.5183333333335</v>
+        <v>404.5266666666669</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6668,22 +6364,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C171" t="n">
         <v>403</v>
       </c>
       <c r="D171" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E171" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F171" t="n">
-        <v>50</v>
+        <v>3567.8828</v>
       </c>
       <c r="G171" t="n">
-        <v>404.5016666666669</v>
+        <v>404.5183333333335</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6715,10 +6411,10 @@
         <v>403</v>
       </c>
       <c r="F172" t="n">
-        <v>1653.5734</v>
+        <v>50</v>
       </c>
       <c r="G172" t="n">
-        <v>404.4850000000002</v>
+        <v>404.5016666666669</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6738,22 +6434,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>405.7</v>
+        <v>403</v>
       </c>
       <c r="C173" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D173" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E173" t="n">
-        <v>405.7</v>
+        <v>403</v>
       </c>
       <c r="F173" t="n">
-        <v>1205.36126917</v>
+        <v>1653.5734</v>
       </c>
       <c r="G173" t="n">
-        <v>404.5266666666669</v>
+        <v>404.4850000000002</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6773,22 +6469,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>407.3</v>
+        <v>405.7</v>
       </c>
       <c r="C174" t="n">
-        <v>405.9</v>
+        <v>407</v>
       </c>
       <c r="D174" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E174" t="n">
-        <v>405.9</v>
+        <v>405.7</v>
       </c>
       <c r="F174" t="n">
-        <v>1739.8507548</v>
+        <v>1205.36126917</v>
       </c>
       <c r="G174" t="n">
-        <v>404.5083333333336</v>
+        <v>404.5266666666669</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6808,19 +6504,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>408</v>
+        <v>407.3</v>
       </c>
       <c r="C175" t="n">
-        <v>408</v>
+        <v>405.9</v>
       </c>
       <c r="D175" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E175" t="n">
-        <v>408</v>
+        <v>405.9</v>
       </c>
       <c r="F175" t="n">
-        <v>2</v>
+        <v>1739.8507548</v>
       </c>
       <c r="G175" t="n">
         <v>404.5083333333336</v>
@@ -6846,19 +6542,19 @@
         <v>408</v>
       </c>
       <c r="C176" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D176" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E176" t="n">
         <v>408</v>
       </c>
       <c r="F176" t="n">
-        <v>1276.69535452</v>
+        <v>2</v>
       </c>
       <c r="G176" t="n">
-        <v>404.5416666666669</v>
+        <v>404.5083333333336</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6878,19 +6574,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C177" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D177" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E177" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F177" t="n">
-        <v>450.5698</v>
+        <v>1276.69535452</v>
       </c>
       <c r="G177" t="n">
         <v>404.5416666666669</v>
@@ -6913,22 +6609,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C178" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D178" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E178" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F178" t="n">
-        <v>2</v>
+        <v>450.5698</v>
       </c>
       <c r="G178" t="n">
-        <v>404.5750000000002</v>
+        <v>404.5416666666669</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6948,22 +6644,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>405.7</v>
+        <v>408</v>
       </c>
       <c r="C179" t="n">
-        <v>405.7</v>
+        <v>408</v>
       </c>
       <c r="D179" t="n">
-        <v>405.7</v>
+        <v>408</v>
       </c>
       <c r="E179" t="n">
-        <v>405.7</v>
+        <v>408</v>
       </c>
       <c r="F179" t="n">
-        <v>16.8588</v>
+        <v>2</v>
       </c>
       <c r="G179" t="n">
-        <v>404.5366666666669</v>
+        <v>404.5750000000002</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6983,22 +6679,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>408</v>
+        <v>405.7</v>
       </c>
       <c r="C180" t="n">
-        <v>408</v>
+        <v>405.7</v>
       </c>
       <c r="D180" t="n">
-        <v>408</v>
+        <v>405.7</v>
       </c>
       <c r="E180" t="n">
-        <v>408</v>
+        <v>405.7</v>
       </c>
       <c r="F180" t="n">
-        <v>2</v>
+        <v>16.8588</v>
       </c>
       <c r="G180" t="n">
-        <v>404.5533333333336</v>
+        <v>404.5366666666669</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7018,22 +6714,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C181" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D181" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E181" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F181" t="n">
-        <v>277.2223</v>
+        <v>2</v>
       </c>
       <c r="G181" t="n">
-        <v>404.4866666666669</v>
+        <v>404.5533333333336</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7053,22 +6749,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>404.9</v>
+        <v>405</v>
       </c>
       <c r="C182" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D182" t="n">
-        <v>404.9</v>
+        <v>405</v>
       </c>
       <c r="E182" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F182" t="n">
-        <v>1018.5575</v>
+        <v>277.2223</v>
       </c>
       <c r="G182" t="n">
-        <v>404.4366666666669</v>
+        <v>404.4866666666669</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7088,22 +6784,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>401</v>
+        <v>404.9</v>
       </c>
       <c r="C183" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D183" t="n">
-        <v>401</v>
+        <v>404.9</v>
       </c>
       <c r="E183" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F183" t="n">
-        <v>238.5626</v>
+        <v>1018.5575</v>
       </c>
       <c r="G183" t="n">
-        <v>404.3400000000003</v>
+        <v>404.4366666666669</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7135,10 +6831,10 @@
         <v>401</v>
       </c>
       <c r="F184" t="n">
-        <v>9809.886</v>
+        <v>238.5626</v>
       </c>
       <c r="G184" t="n">
-        <v>404.2400000000003</v>
+        <v>404.3400000000003</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7158,22 +6854,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>399.3</v>
+        <v>401</v>
       </c>
       <c r="C185" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D185" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E185" t="n">
-        <v>399.3</v>
+        <v>401</v>
       </c>
       <c r="F185" t="n">
-        <v>1374.8</v>
+        <v>9809.886</v>
       </c>
       <c r="G185" t="n">
-        <v>404.1983333333336</v>
+        <v>404.2400000000003</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7193,22 +6889,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>407</v>
+        <v>399.3</v>
       </c>
       <c r="C186" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D186" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E186" t="n">
-        <v>407</v>
+        <v>399.3</v>
       </c>
       <c r="F186" t="n">
-        <v>2</v>
+        <v>1374.8</v>
       </c>
       <c r="G186" t="n">
-        <v>404.2300000000003</v>
+        <v>404.1983333333336</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7228,22 +6924,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>404.9</v>
+        <v>407</v>
       </c>
       <c r="C187" t="n">
-        <v>404.9</v>
+        <v>407</v>
       </c>
       <c r="D187" t="n">
-        <v>404.9</v>
+        <v>407</v>
       </c>
       <c r="E187" t="n">
-        <v>404.9</v>
+        <v>407</v>
       </c>
       <c r="F187" t="n">
-        <v>3426.7</v>
+        <v>2</v>
       </c>
       <c r="G187" t="n">
-        <v>404.231666666667</v>
+        <v>404.2300000000003</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7263,22 +6959,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>405</v>
+        <v>404.9</v>
       </c>
       <c r="C188" t="n">
         <v>404.9</v>
       </c>
       <c r="D188" t="n">
-        <v>406.8</v>
+        <v>404.9</v>
       </c>
       <c r="E188" t="n">
         <v>404.9</v>
       </c>
       <c r="F188" t="n">
-        <v>4615.7114</v>
+        <v>3426.7</v>
       </c>
       <c r="G188" t="n">
-        <v>404.2350000000004</v>
+        <v>404.231666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7298,22 +6994,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>404.9</v>
+        <v>405</v>
       </c>
       <c r="C189" t="n">
         <v>404.9</v>
       </c>
       <c r="D189" t="n">
-        <v>404.9</v>
+        <v>406.8</v>
       </c>
       <c r="E189" t="n">
         <v>404.9</v>
       </c>
       <c r="F189" t="n">
-        <v>884.144</v>
+        <v>4615.7114</v>
       </c>
       <c r="G189" t="n">
-        <v>404.2333333333337</v>
+        <v>404.2350000000004</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7345,10 +7041,10 @@
         <v>404.9</v>
       </c>
       <c r="F190" t="n">
-        <v>110</v>
+        <v>884.144</v>
       </c>
       <c r="G190" t="n">
-        <v>404.2733333333337</v>
+        <v>404.2333333333337</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7380,10 +7076,10 @@
         <v>404.9</v>
       </c>
       <c r="F191" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G191" t="n">
-        <v>404.331666666667</v>
+        <v>404.2733333333337</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7403,22 +7099,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>402.5</v>
+        <v>404.9</v>
       </c>
       <c r="C192" t="n">
-        <v>402.5</v>
+        <v>404.9</v>
       </c>
       <c r="D192" t="n">
-        <v>402.5</v>
+        <v>404.9</v>
       </c>
       <c r="E192" t="n">
-        <v>402.5</v>
+        <v>404.9</v>
       </c>
       <c r="F192" t="n">
-        <v>1143.1315</v>
+        <v>10</v>
       </c>
       <c r="G192" t="n">
-        <v>404.3950000000004</v>
+        <v>404.331666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7438,22 +7134,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>403</v>
+        <v>402.5</v>
       </c>
       <c r="C193" t="n">
-        <v>403</v>
+        <v>402.5</v>
       </c>
       <c r="D193" t="n">
-        <v>403</v>
+        <v>402.5</v>
       </c>
       <c r="E193" t="n">
-        <v>403</v>
+        <v>402.5</v>
       </c>
       <c r="F193" t="n">
-        <v>238.2437</v>
+        <v>1143.1315</v>
       </c>
       <c r="G193" t="n">
-        <v>404.446666666667</v>
+        <v>404.3950000000004</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7485,10 +7181,10 @@
         <v>403</v>
       </c>
       <c r="F194" t="n">
-        <v>261.7563</v>
+        <v>238.2437</v>
       </c>
       <c r="G194" t="n">
-        <v>404.4800000000004</v>
+        <v>404.446666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7508,22 +7204,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C195" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D195" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E195" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F195" t="n">
-        <v>472.4991</v>
+        <v>261.7563</v>
       </c>
       <c r="G195" t="n">
-        <v>404.5133333333337</v>
+        <v>404.4800000000004</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7543,19 +7239,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>403.2</v>
+        <v>405</v>
       </c>
       <c r="C196" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D196" t="n">
-        <v>403.2</v>
+        <v>405</v>
       </c>
       <c r="E196" t="n">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F196" t="n">
-        <v>487.9904</v>
+        <v>472.4991</v>
       </c>
       <c r="G196" t="n">
         <v>404.5133333333337</v>
@@ -7578,22 +7274,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>405</v>
+        <v>403.2</v>
       </c>
       <c r="C197" t="n">
-        <v>405.1</v>
+        <v>403</v>
       </c>
       <c r="D197" t="n">
-        <v>405.1</v>
+        <v>403.2</v>
       </c>
       <c r="E197" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F197" t="n">
-        <v>606.6467</v>
+        <v>487.9904</v>
       </c>
       <c r="G197" t="n">
-        <v>404.531666666667</v>
+        <v>404.5133333333337</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7613,22 +7309,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>405.2</v>
+        <v>405</v>
       </c>
       <c r="C198" t="n">
-        <v>405.2</v>
+        <v>405.1</v>
       </c>
       <c r="D198" t="n">
-        <v>405.2</v>
+        <v>405.1</v>
       </c>
       <c r="E198" t="n">
-        <v>405.2</v>
+        <v>405</v>
       </c>
       <c r="F198" t="n">
-        <v>36.94</v>
+        <v>606.6467</v>
       </c>
       <c r="G198" t="n">
-        <v>404.5683333333337</v>
+        <v>404.531666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7648,22 +7344,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>406</v>
+        <v>405.2</v>
       </c>
       <c r="C199" t="n">
         <v>405.2</v>
       </c>
       <c r="D199" t="n">
-        <v>406</v>
+        <v>405.2</v>
       </c>
       <c r="E199" t="n">
         <v>405.2</v>
       </c>
       <c r="F199" t="n">
-        <v>580.4807</v>
+        <v>36.94</v>
       </c>
       <c r="G199" t="n">
-        <v>404.6150000000004</v>
+        <v>404.5683333333337</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7683,22 +7379,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C200" t="n">
-        <v>408</v>
+        <v>405.2</v>
       </c>
       <c r="D200" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E200" t="n">
-        <v>408</v>
+        <v>405.2</v>
       </c>
       <c r="F200" t="n">
-        <v>244.4885</v>
+        <v>580.4807</v>
       </c>
       <c r="G200" t="n">
-        <v>404.731666666667</v>
+        <v>404.6150000000004</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7721,19 +7417,19 @@
         <v>408</v>
       </c>
       <c r="C201" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D201" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E201" t="n">
         <v>408</v>
       </c>
       <c r="F201" t="n">
-        <v>100</v>
+        <v>244.4885</v>
       </c>
       <c r="G201" t="n">
-        <v>404.8433333333336</v>
+        <v>404.731666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7753,22 +7449,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>405.6</v>
+        <v>408</v>
       </c>
       <c r="C202" t="n">
-        <v>405.6</v>
+        <v>409</v>
       </c>
       <c r="D202" t="n">
-        <v>405.6</v>
+        <v>409</v>
       </c>
       <c r="E202" t="n">
-        <v>405.6</v>
+        <v>408</v>
       </c>
       <c r="F202" t="n">
-        <v>239.64</v>
+        <v>100</v>
       </c>
       <c r="G202" t="n">
-        <v>404.8983333333337</v>
+        <v>404.8433333333336</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7791,19 +7487,19 @@
         <v>405.6</v>
       </c>
       <c r="C203" t="n">
-        <v>405.5</v>
+        <v>405.6</v>
       </c>
       <c r="D203" t="n">
-        <v>409</v>
+        <v>405.6</v>
       </c>
       <c r="E203" t="n">
-        <v>405.5</v>
+        <v>405.6</v>
       </c>
       <c r="F203" t="n">
-        <v>270.9092</v>
+        <v>239.64</v>
       </c>
       <c r="G203" t="n">
-        <v>404.9500000000003</v>
+        <v>404.8983333333337</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7823,22 +7519,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>408.9</v>
+        <v>405.6</v>
       </c>
       <c r="C204" t="n">
-        <v>408.9</v>
+        <v>405.5</v>
       </c>
       <c r="D204" t="n">
-        <v>408.9</v>
+        <v>409</v>
       </c>
       <c r="E204" t="n">
-        <v>408.9</v>
+        <v>405.5</v>
       </c>
       <c r="F204" t="n">
-        <v>71.2516</v>
+        <v>270.9092</v>
       </c>
       <c r="G204" t="n">
-        <v>405.0583333333336</v>
+        <v>404.9500000000003</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7870,10 +7566,10 @@
         <v>408.9</v>
       </c>
       <c r="F205" t="n">
-        <v>71.254</v>
+        <v>71.2516</v>
       </c>
       <c r="G205" t="n">
-        <v>405.166666666667</v>
+        <v>405.0583333333336</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7893,22 +7589,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>408.7</v>
+        <v>408.9</v>
       </c>
       <c r="C206" t="n">
-        <v>410</v>
+        <v>408.9</v>
       </c>
       <c r="D206" t="n">
-        <v>410</v>
+        <v>408.9</v>
       </c>
       <c r="E206" t="n">
-        <v>408.7</v>
+        <v>408.9</v>
       </c>
       <c r="F206" t="n">
-        <v>11227.37380524</v>
+        <v>71.254</v>
       </c>
       <c r="G206" t="n">
-        <v>405.2500000000003</v>
+        <v>405.166666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7928,22 +7624,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
+        <v>408.7</v>
+      </c>
+      <c r="C207" t="n">
         <v>410</v>
       </c>
-      <c r="C207" t="n">
-        <v>413.2</v>
-      </c>
       <c r="D207" t="n">
-        <v>413.2</v>
+        <v>410</v>
       </c>
       <c r="E207" t="n">
-        <v>410</v>
+        <v>408.7</v>
       </c>
       <c r="F207" t="n">
-        <v>1884.59232429</v>
+        <v>11227.37380524</v>
       </c>
       <c r="G207" t="n">
-        <v>405.4383333333336</v>
+        <v>405.2500000000003</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7963,22 +7659,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>413.2</v>
+        <v>410</v>
       </c>
       <c r="C208" t="n">
         <v>413.2</v>
       </c>
       <c r="D208" t="n">
-        <v>414.1</v>
+        <v>413.2</v>
       </c>
       <c r="E208" t="n">
         <v>410</v>
       </c>
       <c r="F208" t="n">
-        <v>1663.15827571</v>
+        <v>1884.59232429</v>
       </c>
       <c r="G208" t="n">
-        <v>405.5583333333336</v>
+        <v>405.4383333333336</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7998,22 +7694,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>410</v>
+        <v>413.2</v>
       </c>
       <c r="C209" t="n">
         <v>413.2</v>
       </c>
       <c r="D209" t="n">
-        <v>413.2</v>
+        <v>414.1</v>
       </c>
       <c r="E209" t="n">
         <v>410</v>
       </c>
       <c r="F209" t="n">
-        <v>30.57</v>
+        <v>1663.15827571</v>
       </c>
       <c r="G209" t="n">
-        <v>405.7200000000003</v>
+        <v>405.5583333333336</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8033,22 +7729,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
+        <v>410</v>
+      </c>
+      <c r="C210" t="n">
         <v>413.2</v>
       </c>
-      <c r="C210" t="n">
-        <v>414.1</v>
-      </c>
       <c r="D210" t="n">
-        <v>414.1</v>
+        <v>413.2</v>
       </c>
       <c r="E210" t="n">
-        <v>413.2</v>
+        <v>410</v>
       </c>
       <c r="F210" t="n">
-        <v>122.27698623</v>
+        <v>30.57</v>
       </c>
       <c r="G210" t="n">
-        <v>405.8966666666669</v>
+        <v>405.7200000000003</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8068,7 +7764,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>410.3</v>
+        <v>413.2</v>
       </c>
       <c r="C211" t="n">
         <v>414.1</v>
@@ -8077,13 +7773,13 @@
         <v>414.1</v>
       </c>
       <c r="E211" t="n">
-        <v>410.3</v>
+        <v>413.2</v>
       </c>
       <c r="F211" t="n">
-        <v>391</v>
+        <v>122.27698623</v>
       </c>
       <c r="G211" t="n">
-        <v>406.0150000000003</v>
+        <v>405.8966666666669</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8115,10 +7811,10 @@
         <v>410.3</v>
       </c>
       <c r="F212" t="n">
-        <v>1050.7168</v>
+        <v>391</v>
       </c>
       <c r="G212" t="n">
-        <v>406.1983333333336</v>
+        <v>406.0150000000003</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8141,19 +7837,19 @@
         <v>410.3</v>
       </c>
       <c r="C213" t="n">
-        <v>410</v>
+        <v>414.1</v>
       </c>
       <c r="D213" t="n">
+        <v>414.1</v>
+      </c>
+      <c r="E213" t="n">
         <v>410.3</v>
       </c>
-      <c r="E213" t="n">
-        <v>410</v>
-      </c>
       <c r="F213" t="n">
-        <v>7437.9916</v>
+        <v>1050.7168</v>
       </c>
       <c r="G213" t="n">
-        <v>406.2483333333336</v>
+        <v>406.1983333333336</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8173,22 +7869,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>410</v>
+        <v>410.3</v>
       </c>
       <c r="C214" t="n">
         <v>410</v>
       </c>
       <c r="D214" t="n">
-        <v>410</v>
+        <v>410.3</v>
       </c>
       <c r="E214" t="n">
         <v>410</v>
       </c>
       <c r="F214" t="n">
-        <v>2856.43751905</v>
+        <v>7437.9916</v>
       </c>
       <c r="G214" t="n">
-        <v>406.3633333333336</v>
+        <v>406.2483333333336</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8208,22 +7904,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C215" t="n">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D215" t="n">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E215" t="n">
         <v>410</v>
       </c>
       <c r="F215" t="n">
-        <v>587.183</v>
+        <v>2856.43751905</v>
       </c>
       <c r="G215" t="n">
-        <v>406.461666666667</v>
+        <v>406.3633333333336</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8243,22 +7939,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>413.1</v>
+        <v>412</v>
       </c>
       <c r="C216" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D216" t="n">
-        <v>414.1</v>
+        <v>412</v>
       </c>
       <c r="E216" t="n">
         <v>410</v>
       </c>
       <c r="F216" t="n">
-        <v>1986.9347</v>
+        <v>587.183</v>
       </c>
       <c r="G216" t="n">
-        <v>406.5283333333336</v>
+        <v>406.461666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8278,22 +7974,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>410.5</v>
+        <v>413.1</v>
       </c>
       <c r="C217" t="n">
-        <v>414.1</v>
+        <v>411</v>
       </c>
       <c r="D217" t="n">
         <v>414.1</v>
       </c>
       <c r="E217" t="n">
-        <v>410.5</v>
+        <v>410</v>
       </c>
       <c r="F217" t="n">
-        <v>1290.9415</v>
+        <v>1986.9347</v>
       </c>
       <c r="G217" t="n">
-        <v>406.6466666666669</v>
+        <v>406.5283333333336</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8316,19 +8012,19 @@
         <v>410.5</v>
       </c>
       <c r="C218" t="n">
-        <v>410.5</v>
+        <v>414.1</v>
       </c>
       <c r="D218" t="n">
-        <v>410.6</v>
+        <v>414.1</v>
       </c>
       <c r="E218" t="n">
         <v>410.5</v>
       </c>
       <c r="F218" t="n">
-        <v>1020.0111</v>
+        <v>1290.9415</v>
       </c>
       <c r="G218" t="n">
-        <v>406.7016666666669</v>
+        <v>406.6466666666669</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8348,22 +8044,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>414.1</v>
+        <v>410.5</v>
       </c>
       <c r="C219" t="n">
-        <v>414.1</v>
+        <v>410.5</v>
       </c>
       <c r="D219" t="n">
-        <v>414.1</v>
+        <v>410.6</v>
       </c>
       <c r="E219" t="n">
-        <v>414.1</v>
+        <v>410.5</v>
       </c>
       <c r="F219" t="n">
-        <v>10</v>
+        <v>1020.0111</v>
       </c>
       <c r="G219" t="n">
-        <v>406.8200000000003</v>
+        <v>406.7016666666669</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8386,19 +8082,19 @@
         <v>414.1</v>
       </c>
       <c r="C220" t="n">
-        <v>412</v>
+        <v>414.1</v>
       </c>
       <c r="D220" t="n">
-        <v>416.2</v>
+        <v>414.1</v>
       </c>
       <c r="E220" t="n">
-        <v>410</v>
+        <v>414.1</v>
       </c>
       <c r="F220" t="n">
-        <v>4125.8565</v>
+        <v>10</v>
       </c>
       <c r="G220" t="n">
-        <v>406.9000000000003</v>
+        <v>406.8200000000003</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8418,22 +8114,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>412</v>
+        <v>414.1</v>
       </c>
       <c r="C221" t="n">
         <v>412</v>
       </c>
       <c r="D221" t="n">
-        <v>412</v>
+        <v>416.2</v>
       </c>
       <c r="E221" t="n">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F221" t="n">
-        <v>44.5529</v>
+        <v>4125.8565</v>
       </c>
       <c r="G221" t="n">
-        <v>406.9833333333336</v>
+        <v>406.9000000000003</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8453,22 +8149,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C222" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D222" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E222" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F222" t="n">
-        <v>568.95</v>
+        <v>44.5529</v>
       </c>
       <c r="G222" t="n">
-        <v>407.0333333333336</v>
+        <v>406.9833333333336</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8491,19 +8187,19 @@
         <v>411</v>
       </c>
       <c r="C223" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D223" t="n">
         <v>411</v>
       </c>
       <c r="E223" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F223" t="n">
-        <v>10</v>
+        <v>568.95</v>
       </c>
       <c r="G223" t="n">
-        <v>407.1333333333336</v>
+        <v>407.0333333333336</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8526,19 +8222,19 @@
         <v>411</v>
       </c>
       <c r="C224" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D224" t="n">
-        <v>416.2</v>
+        <v>411</v>
       </c>
       <c r="E224" t="n">
         <v>411</v>
       </c>
       <c r="F224" t="n">
-        <v>1949.2</v>
+        <v>10</v>
       </c>
       <c r="G224" t="n">
-        <v>407.2333333333336</v>
+        <v>407.1333333333336</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8558,22 +8254,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
+        <v>411</v>
+      </c>
+      <c r="C225" t="n">
         <v>412</v>
-      </c>
-      <c r="C225" t="n">
-        <v>416.2</v>
       </c>
       <c r="D225" t="n">
         <v>416.2</v>
       </c>
       <c r="E225" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F225" t="n">
-        <v>231.5511</v>
+        <v>1949.2</v>
       </c>
       <c r="G225" t="n">
-        <v>407.5100000000003</v>
+        <v>407.2333333333336</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8593,22 +8289,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>412.8</v>
+        <v>412</v>
       </c>
       <c r="C226" t="n">
-        <v>412.8</v>
+        <v>416.2</v>
       </c>
       <c r="D226" t="n">
-        <v>412.8</v>
+        <v>416.2</v>
       </c>
       <c r="E226" t="n">
-        <v>412.8</v>
+        <v>412</v>
       </c>
       <c r="F226" t="n">
-        <v>114.8864</v>
+        <v>231.5511</v>
       </c>
       <c r="G226" t="n">
-        <v>407.6433333333336</v>
+        <v>407.5100000000003</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8628,22 +8324,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>411</v>
+        <v>412.8</v>
       </c>
       <c r="C227" t="n">
-        <v>410</v>
+        <v>412.8</v>
       </c>
       <c r="D227" t="n">
-        <v>411</v>
+        <v>412.8</v>
       </c>
       <c r="E227" t="n">
-        <v>400.5</v>
+        <v>412.8</v>
       </c>
       <c r="F227" t="n">
-        <v>1211.875</v>
+        <v>114.8864</v>
       </c>
       <c r="G227" t="n">
-        <v>407.7433333333336</v>
+        <v>407.6433333333336</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8663,22 +8359,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
+        <v>411</v>
+      </c>
+      <c r="C228" t="n">
         <v>410</v>
-      </c>
-      <c r="C228" t="n">
-        <v>411</v>
       </c>
       <c r="D228" t="n">
         <v>411</v>
       </c>
       <c r="E228" t="n">
-        <v>410</v>
+        <v>400.5</v>
       </c>
       <c r="F228" t="n">
-        <v>81</v>
+        <v>1211.875</v>
       </c>
       <c r="G228" t="n">
-        <v>407.8766666666669</v>
+        <v>407.7433333333336</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8698,7 +8394,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C229" t="n">
         <v>411</v>
@@ -8707,13 +8403,13 @@
         <v>411</v>
       </c>
       <c r="E229" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F229" t="n">
-        <v>1.3</v>
+        <v>81</v>
       </c>
       <c r="G229" t="n">
-        <v>408.0100000000003</v>
+        <v>407.8766666666669</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8733,22 +8429,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C230" t="n">
-        <v>407.9</v>
+        <v>411</v>
       </c>
       <c r="D230" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E230" t="n">
-        <v>407.9</v>
+        <v>411</v>
       </c>
       <c r="F230" t="n">
-        <v>157.903</v>
+        <v>1.3</v>
       </c>
       <c r="G230" t="n">
-        <v>408.091666666667</v>
+        <v>408.0100000000003</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8768,22 +8464,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
+        <v>409</v>
+      </c>
+      <c r="C231" t="n">
         <v>407.9</v>
       </c>
-      <c r="C231" t="n">
-        <v>410</v>
-      </c>
       <c r="D231" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E231" t="n">
         <v>407.9</v>
       </c>
       <c r="F231" t="n">
-        <v>244.1</v>
+        <v>157.903</v>
       </c>
       <c r="G231" t="n">
-        <v>408.2083333333337</v>
+        <v>408.091666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8803,22 +8499,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>409</v>
+        <v>407.9</v>
       </c>
       <c r="C232" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D232" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E232" t="n">
-        <v>405.4</v>
+        <v>407.9</v>
       </c>
       <c r="F232" t="n">
-        <v>2381.0647</v>
+        <v>244.1</v>
       </c>
       <c r="G232" t="n">
-        <v>408.3083333333336</v>
+        <v>408.2083333333337</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8841,19 +8537,19 @@
         <v>409</v>
       </c>
       <c r="C233" t="n">
-        <v>409.9</v>
+        <v>409</v>
       </c>
       <c r="D233" t="n">
-        <v>409.9</v>
+        <v>409</v>
       </c>
       <c r="E233" t="n">
-        <v>409</v>
+        <v>405.4</v>
       </c>
       <c r="F233" t="n">
-        <v>3520.2683</v>
+        <v>2381.0647</v>
       </c>
       <c r="G233" t="n">
-        <v>408.356666666667</v>
+        <v>408.3083333333336</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8873,22 +8569,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>404.1</v>
+        <v>409</v>
       </c>
       <c r="C234" t="n">
-        <v>408.9</v>
+        <v>409.9</v>
       </c>
       <c r="D234" t="n">
-        <v>408.9</v>
+        <v>409.9</v>
       </c>
       <c r="E234" t="n">
-        <v>404.1</v>
+        <v>409</v>
       </c>
       <c r="F234" t="n">
-        <v>1852.2529</v>
+        <v>3520.2683</v>
       </c>
       <c r="G234" t="n">
-        <v>408.406666666667</v>
+        <v>408.356666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8908,22 +8604,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
+        <v>404.1</v>
+      </c>
+      <c r="C235" t="n">
         <v>408.9</v>
-      </c>
-      <c r="C235" t="n">
-        <v>402.1</v>
       </c>
       <c r="D235" t="n">
         <v>408.9</v>
       </c>
       <c r="E235" t="n">
-        <v>402.1</v>
+        <v>404.1</v>
       </c>
       <c r="F235" t="n">
-        <v>2.6</v>
+        <v>1852.2529</v>
       </c>
       <c r="G235" t="n">
-        <v>408.3083333333336</v>
+        <v>408.406666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8943,19 +8639,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>409</v>
+        <v>408.9</v>
       </c>
       <c r="C236" t="n">
-        <v>409</v>
+        <v>402.1</v>
       </c>
       <c r="D236" t="n">
-        <v>409</v>
+        <v>408.9</v>
       </c>
       <c r="E236" t="n">
-        <v>409</v>
+        <v>402.1</v>
       </c>
       <c r="F236" t="n">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="G236" t="n">
         <v>408.3083333333336</v>
@@ -8981,19 +8677,19 @@
         <v>409</v>
       </c>
       <c r="C237" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D237" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E237" t="n">
         <v>409</v>
       </c>
       <c r="F237" t="n">
-        <v>2764.7366</v>
+        <v>10</v>
       </c>
       <c r="G237" t="n">
-        <v>408.3750000000003</v>
+        <v>408.3083333333336</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9013,22 +8709,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>409</v>
+      </c>
+      <c r="C238" t="n">
         <v>410</v>
       </c>
-      <c r="C238" t="n">
-        <v>410.5</v>
-      </c>
       <c r="D238" t="n">
-        <v>410.5</v>
+        <v>410</v>
       </c>
       <c r="E238" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F238" t="n">
-        <v>1371.1422</v>
+        <v>2764.7366</v>
       </c>
       <c r="G238" t="n">
-        <v>408.416666666667</v>
+        <v>408.3750000000003</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9060,10 +8756,10 @@
         <v>410</v>
       </c>
       <c r="F239" t="n">
-        <v>186.1306</v>
+        <v>1371.1422</v>
       </c>
       <c r="G239" t="n">
-        <v>408.496666666667</v>
+        <v>408.416666666667</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9083,22 +8779,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>410</v>
+      </c>
+      <c r="C240" t="n">
         <v>410.5</v>
       </c>
-      <c r="C240" t="n">
-        <v>411.9</v>
-      </c>
       <c r="D240" t="n">
-        <v>411.9</v>
+        <v>410.5</v>
       </c>
       <c r="E240" t="n">
-        <v>410.5</v>
+        <v>410</v>
       </c>
       <c r="F240" t="n">
-        <v>83.59999999999999</v>
+        <v>186.1306</v>
       </c>
       <c r="G240" t="n">
-        <v>408.561666666667</v>
+        <v>408.496666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9118,22 +8814,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>411</v>
+        <v>410.5</v>
       </c>
       <c r="C241" t="n">
-        <v>411</v>
+        <v>411.9</v>
       </c>
       <c r="D241" t="n">
-        <v>411</v>
+        <v>411.9</v>
       </c>
       <c r="E241" t="n">
-        <v>411</v>
+        <v>410.5</v>
       </c>
       <c r="F241" t="n">
-        <v>2309.6404</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G241" t="n">
-        <v>408.661666666667</v>
+        <v>408.561666666667</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9153,22 +8849,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C242" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D242" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E242" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F242" t="n">
-        <v>2</v>
+        <v>2309.6404</v>
       </c>
       <c r="G242" t="n">
-        <v>408.7950000000003</v>
+        <v>408.661666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9188,22 +8884,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C243" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D243" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E243" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F243" t="n">
-        <v>258.4056</v>
+        <v>2</v>
       </c>
       <c r="G243" t="n">
-        <v>408.961666666667</v>
+        <v>408.7950000000003</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9223,7 +8919,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C244" t="n">
         <v>411</v>
@@ -9232,13 +8928,13 @@
         <v>411</v>
       </c>
       <c r="E244" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F244" t="n">
-        <v>242.4308</v>
+        <v>258.4056</v>
       </c>
       <c r="G244" t="n">
-        <v>409.1283333333337</v>
+        <v>408.961666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9270,10 +8966,10 @@
         <v>411</v>
       </c>
       <c r="F245" t="n">
-        <v>57.5692</v>
+        <v>242.4308</v>
       </c>
       <c r="G245" t="n">
-        <v>409.261666666667</v>
+        <v>409.1283333333337</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9293,22 +8989,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>409.2</v>
+        <v>411</v>
       </c>
       <c r="C246" t="n">
-        <v>408.1</v>
+        <v>411</v>
       </c>
       <c r="D246" t="n">
-        <v>409.2</v>
+        <v>411</v>
       </c>
       <c r="E246" t="n">
-        <v>408.1</v>
+        <v>411</v>
       </c>
       <c r="F246" t="n">
-        <v>2426.7735</v>
+        <v>57.5692</v>
       </c>
       <c r="G246" t="n">
-        <v>409.2800000000003</v>
+        <v>409.261666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9328,22 +9024,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>411.9</v>
+        <v>409.2</v>
       </c>
       <c r="C247" t="n">
-        <v>412</v>
+        <v>408.1</v>
       </c>
       <c r="D247" t="n">
-        <v>412</v>
+        <v>409.2</v>
       </c>
       <c r="E247" t="n">
-        <v>411.9</v>
+        <v>408.1</v>
       </c>
       <c r="F247" t="n">
-        <v>20</v>
+        <v>2426.7735</v>
       </c>
       <c r="G247" t="n">
-        <v>409.3983333333336</v>
+        <v>409.2800000000003</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9363,22 +9059,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>410</v>
+        <v>411.9</v>
       </c>
       <c r="C248" t="n">
-        <v>408.1</v>
+        <v>412</v>
       </c>
       <c r="D248" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E248" t="n">
-        <v>408.1</v>
+        <v>411.9</v>
       </c>
       <c r="F248" t="n">
-        <v>228.77</v>
+        <v>20</v>
       </c>
       <c r="G248" t="n">
-        <v>409.4516666666669</v>
+        <v>409.3983333333336</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9398,22 +9094,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C249" t="n">
+        <v>408.1</v>
+      </c>
+      <c r="D249" t="n">
         <v>410</v>
       </c>
-      <c r="D249" t="n">
-        <v>411</v>
-      </c>
       <c r="E249" t="n">
-        <v>410</v>
+        <v>408.1</v>
       </c>
       <c r="F249" t="n">
-        <v>338.4754</v>
+        <v>228.77</v>
       </c>
       <c r="G249" t="n">
-        <v>409.5366666666669</v>
+        <v>409.4516666666669</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9433,22 +9129,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C250" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D250" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E250" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F250" t="n">
-        <v>30.6666</v>
+        <v>338.4754</v>
       </c>
       <c r="G250" t="n">
-        <v>409.6050000000002</v>
+        <v>409.5366666666669</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9471,19 +9167,19 @@
         <v>409</v>
       </c>
       <c r="C251" t="n">
-        <v>408.2</v>
+        <v>409</v>
       </c>
       <c r="D251" t="n">
         <v>409</v>
       </c>
       <c r="E251" t="n">
-        <v>408.2</v>
+        <v>409</v>
       </c>
       <c r="F251" t="n">
-        <v>436.3459</v>
+        <v>30.6666</v>
       </c>
       <c r="G251" t="n">
-        <v>409.6600000000001</v>
+        <v>409.6050000000002</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9503,22 +9199,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>408.9</v>
+        <v>409</v>
       </c>
       <c r="C252" t="n">
-        <v>408.9</v>
+        <v>408.2</v>
       </c>
       <c r="D252" t="n">
-        <v>408.9</v>
+        <v>409</v>
       </c>
       <c r="E252" t="n">
-        <v>408.9</v>
+        <v>408.2</v>
       </c>
       <c r="F252" t="n">
-        <v>1131.6686</v>
+        <v>436.3459</v>
       </c>
       <c r="G252" t="n">
-        <v>409.7666666666668</v>
+        <v>409.6600000000001</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9538,22 +9234,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>410</v>
+        <v>408.9</v>
       </c>
       <c r="C253" t="n">
-        <v>410</v>
+        <v>408.9</v>
       </c>
       <c r="D253" t="n">
-        <v>410</v>
+        <v>408.9</v>
       </c>
       <c r="E253" t="n">
-        <v>410</v>
+        <v>408.9</v>
       </c>
       <c r="F253" t="n">
-        <v>13.3602</v>
+        <v>1131.6686</v>
       </c>
       <c r="G253" t="n">
-        <v>409.8833333333335</v>
+        <v>409.7666666666668</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9573,22 +9269,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C254" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D254" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E254" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F254" t="n">
-        <v>11</v>
+        <v>13.3602</v>
       </c>
       <c r="G254" t="n">
-        <v>409.9833333333335</v>
+        <v>409.8833333333335</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9608,22 +9304,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C255" t="n">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D255" t="n">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E255" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F255" t="n">
-        <v>1348.8392</v>
+        <v>11</v>
       </c>
       <c r="G255" t="n">
-        <v>410.1000000000002</v>
+        <v>409.9833333333335</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9643,22 +9339,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>412.9</v>
+        <v>410</v>
       </c>
       <c r="C256" t="n">
         <v>412</v>
       </c>
       <c r="D256" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E256" t="n">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F256" t="n">
-        <v>943.6254</v>
+        <v>1348.8392</v>
       </c>
       <c r="G256" t="n">
-        <v>410.2500000000002</v>
+        <v>410.1000000000002</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9681,19 +9377,19 @@
         <v>412.9</v>
       </c>
       <c r="C257" t="n">
-        <v>408.1</v>
+        <v>412</v>
       </c>
       <c r="D257" t="n">
-        <v>412.9</v>
+        <v>413</v>
       </c>
       <c r="E257" t="n">
-        <v>408.1</v>
+        <v>412</v>
       </c>
       <c r="F257" t="n">
-        <v>777.2227</v>
+        <v>943.6254</v>
       </c>
       <c r="G257" t="n">
-        <v>410.3000000000002</v>
+        <v>410.2500000000002</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9708,6 +9404,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>412.9</v>
+      </c>
+      <c r="C258" t="n">
+        <v>408.1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>412.9</v>
+      </c>
+      <c r="E258" t="n">
+        <v>408.1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>777.2227</v>
+      </c>
+      <c r="G258" t="n">
+        <v>410.3000000000002</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest PPT.xlsx
+++ b/BackTest/2020-01-16 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M258"/>
+  <dimension ref="A1:N268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>428.1284</v>
       </c>
       <c r="G2" t="n">
+        <v>388.9933333333335</v>
+      </c>
+      <c r="H2" t="n">
         <v>391.8500000000002</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>708.8934</v>
       </c>
       <c r="G3" t="n">
+        <v>388.8933333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>391.9150000000002</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>171.7671</v>
       </c>
       <c r="G4" t="n">
+        <v>388.7533333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>391.9650000000002</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>314.0297</v>
       </c>
       <c r="G5" t="n">
+        <v>388.5066666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>391.9183333333336</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>847.8658</v>
       </c>
       <c r="G6" t="n">
+        <v>388.5066666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>391.8733333333336</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>5209.3698</v>
       </c>
       <c r="G7" t="n">
+        <v>388.6333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>391.9116666666669</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>492.2957</v>
       </c>
       <c r="G8" t="n">
+        <v>388.8533333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>391.8983333333336</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>79.40000000000001</v>
       </c>
       <c r="G9" t="n">
+        <v>388.9799999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>391.8683333333336</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>328.79</v>
       </c>
       <c r="G10" t="n">
+        <v>389.2999999999999</v>
+      </c>
+      <c r="H10" t="n">
         <v>391.8183333333336</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>2703.88</v>
       </c>
       <c r="G11" t="n">
+        <v>389.2999999999999</v>
+      </c>
+      <c r="H11" t="n">
         <v>391.6900000000003</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1706.5792</v>
       </c>
       <c r="G12" t="n">
+        <v>389.2933333333332</v>
+      </c>
+      <c r="H12" t="n">
         <v>391.5550000000002</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>453.6833</v>
       </c>
       <c r="G13" t="n">
+        <v>389.5666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>391.5183333333335</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1137.5822</v>
       </c>
       <c r="G14" t="n">
+        <v>389.2266666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>391.4100000000002</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1006.49</v>
       </c>
       <c r="G15" t="n">
+        <v>388.8466666666666</v>
+      </c>
+      <c r="H15" t="n">
         <v>391.2666666666668</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>417.9</v>
       </c>
       <c r="G16" t="n">
+        <v>388.72</v>
+      </c>
+      <c r="H16" t="n">
         <v>391.1233333333335</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>7057.1027</v>
       </c>
       <c r="G17" t="n">
+        <v>388.5933333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>390.9350000000002</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>11470.64354187</v>
       </c>
       <c r="G18" t="n">
+        <v>388.3333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>390.7850000000001</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1365.85</v>
       </c>
       <c r="G19" t="n">
+        <v>388.0933333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>390.6066666666668</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,25 @@
         <v>4581.5536</v>
       </c>
       <c r="G20" t="n">
+        <v>388.2266666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>390.4916666666668</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>385.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>385.3</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1179,27 @@
         <v>14.9636</v>
       </c>
       <c r="G21" t="n">
+        <v>388.3533333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>390.3766666666669</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>385.3</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1223,29 @@
         <v>878.1411000000001</v>
       </c>
       <c r="G22" t="n">
+        <v>388.3533333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>390.2616666666669</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>391.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>385.3</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1269,21 @@
         <v>2097.1729</v>
       </c>
       <c r="G23" t="n">
+        <v>388.0266666666668</v>
+      </c>
+      <c r="H23" t="n">
         <v>390.0616666666669</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1307,21 @@
         <v>350</v>
       </c>
       <c r="G24" t="n">
+        <v>387.7666666666668</v>
+      </c>
+      <c r="H24" t="n">
         <v>389.8616666666669</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1345,21 @@
         <v>18124.1749</v>
       </c>
       <c r="G25" t="n">
+        <v>387.4400000000002</v>
+      </c>
+      <c r="H25" t="n">
         <v>389.7433333333336</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1383,21 @@
         <v>5257.1373</v>
       </c>
       <c r="G26" t="n">
+        <v>387.8266666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>389.6333333333336</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1421,21 @@
         <v>999.9999</v>
       </c>
       <c r="G27" t="n">
+        <v>387.8600000000001</v>
+      </c>
+      <c r="H27" t="n">
         <v>389.411666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1459,21 @@
         <v>754.9999</v>
       </c>
       <c r="G28" t="n">
+        <v>387.6133333333335</v>
+      </c>
+      <c r="H28" t="n">
         <v>389.266666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1497,21 @@
         <v>1243.14</v>
       </c>
       <c r="G29" t="n">
+        <v>387.6400000000001</v>
+      </c>
+      <c r="H29" t="n">
         <v>389.1483333333337</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1535,21 @@
         <v>1744.9999</v>
       </c>
       <c r="G30" t="n">
+        <v>387.7</v>
+      </c>
+      <c r="H30" t="n">
         <v>389.0350000000004</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1573,21 @@
         <v>83.40770000000001</v>
       </c>
       <c r="G31" t="n">
+        <v>387.76</v>
+      </c>
+      <c r="H31" t="n">
         <v>389.0050000000003</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1611,27 @@
         <v>2061.2896</v>
       </c>
       <c r="G32" t="n">
+        <v>387.8133333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>388.956666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>386.2</v>
+      </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1655,27 @@
         <v>1853.3483</v>
       </c>
       <c r="G33" t="n">
+        <v>387.76</v>
+      </c>
+      <c r="H33" t="n">
         <v>388.9433333333337</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>386.1</v>
+      </c>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1699,27 @@
         <v>88.3621</v>
       </c>
       <c r="G34" t="n">
+        <v>387.8133333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>388.911666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>386.2</v>
+      </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1743,27 @@
         <v>1876.11</v>
       </c>
       <c r="G35" t="n">
+        <v>387.4266666666668</v>
+      </c>
+      <c r="H35" t="n">
         <v>388.9033333333336</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>386.1</v>
+      </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1787,27 @@
         <v>5557.91</v>
       </c>
       <c r="G36" t="n">
+        <v>387.0400000000001</v>
+      </c>
+      <c r="H36" t="n">
         <v>388.8966666666669</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>386.1</v>
+      </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1831,25 @@
         <v>390</v>
       </c>
       <c r="G37" t="n">
+        <v>386.6533333333335</v>
+      </c>
+      <c r="H37" t="n">
         <v>388.8883333333336</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1873,25 @@
         <v>13</v>
       </c>
       <c r="G38" t="n">
+        <v>386.9200000000002</v>
+      </c>
+      <c r="H38" t="n">
         <v>388.871666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1915,25 @@
         <v>4053.0632</v>
       </c>
       <c r="G39" t="n">
+        <v>387.3466666666669</v>
+      </c>
+      <c r="H39" t="n">
         <v>388.8950000000003</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1957,25 @@
         <v>286.5276</v>
       </c>
       <c r="G40" t="n">
+        <v>387.8400000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>388.951666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1999,25 @@
         <v>260.90605813</v>
       </c>
       <c r="G41" t="n">
+        <v>387.9866666666668</v>
+      </c>
+      <c r="H41" t="n">
         <v>388.986666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2041,25 @@
         <v>566.2896</v>
       </c>
       <c r="G42" t="n">
+        <v>388.5733333333336</v>
+      </c>
+      <c r="H42" t="n">
         <v>389.0383333333336</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2083,25 @@
         <v>265.74</v>
       </c>
       <c r="G43" t="n">
+        <v>389.1666666666669</v>
+      </c>
+      <c r="H43" t="n">
         <v>389.081666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2125,25 @@
         <v>1986.84824187</v>
       </c>
       <c r="G44" t="n">
+        <v>389.6466666666668</v>
+      </c>
+      <c r="H44" t="n">
         <v>389.0933333333336</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2167,25 @@
         <v>5.813e-05</v>
       </c>
       <c r="G45" t="n">
+        <v>390.1266666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>389.1050000000004</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2209,25 @@
         <v>56.247</v>
       </c>
       <c r="G46" t="n">
+        <v>390.8600000000002</v>
+      </c>
+      <c r="H46" t="n">
         <v>389.1633333333337</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2251,25 @@
         <v>69.70569999999999</v>
       </c>
       <c r="G47" t="n">
+        <v>391.6000000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>389.2500000000003</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2293,25 @@
         <v>1616.1706</v>
       </c>
       <c r="G48" t="n">
+        <v>392.6533333333335</v>
+      </c>
+      <c r="H48" t="n">
         <v>389.4100000000004</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2335,25 @@
         <v>1304.6221</v>
       </c>
       <c r="G49" t="n">
+        <v>393.7133333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>389.5933333333336</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2377,25 @@
         <v>1424.9932</v>
       </c>
       <c r="G50" t="n">
+        <v>394.7733333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>389.7333333333337</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2419,25 @@
         <v>352.0517</v>
       </c>
       <c r="G51" t="n">
+        <v>395.8333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>389.9333333333337</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2461,25 @@
         <v>3355.8103</v>
       </c>
       <c r="G52" t="n">
+        <v>396.8666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>390.126666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2503,25 @@
         <v>252.44</v>
       </c>
       <c r="G53" t="n">
+        <v>397.3333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>390.2833333333337</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2545,25 @@
         <v>1899.45</v>
       </c>
       <c r="G54" t="n">
+        <v>397.8400000000001</v>
+      </c>
+      <c r="H54" t="n">
         <v>390.4833333333337</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2587,25 @@
         <v>919.3244999999999</v>
       </c>
       <c r="G55" t="n">
+        <v>398.3800000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>390.7400000000004</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2629,25 @@
         <v>1856.3743</v>
       </c>
       <c r="G56" t="n">
+        <v>398.8866666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>391.0000000000004</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2671,25 @@
         <v>14107.9744</v>
       </c>
       <c r="G57" t="n">
+        <v>399.08</v>
+      </c>
+      <c r="H57" t="n">
         <v>391.2016666666671</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2713,25 @@
         <v>3363.8229</v>
       </c>
       <c r="G58" t="n">
+        <v>399.4</v>
+      </c>
+      <c r="H58" t="n">
         <v>391.4366666666671</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2755,25 @@
         <v>333.9</v>
       </c>
       <c r="G59" t="n">
+        <v>400.0866666666668</v>
+      </c>
+      <c r="H59" t="n">
         <v>391.6500000000004</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2797,25 @@
         <v>921.5198</v>
       </c>
       <c r="G60" t="n">
+        <v>400.7733333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>391.861666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2839,25 @@
         <v>286.6304</v>
       </c>
       <c r="G61" t="n">
+        <v>401.0933333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>392.1083333333337</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2881,25 @@
         <v>264.9299</v>
       </c>
       <c r="G62" t="n">
+        <v>401.3133333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>392.3300000000003</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2923,25 @@
         <v>10927.7614</v>
       </c>
       <c r="G63" t="n">
+        <v>401.4933333333335</v>
+      </c>
+      <c r="H63" t="n">
         <v>392.5600000000003</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2965,25 @@
         <v>9588.519899999999</v>
       </c>
       <c r="G64" t="n">
+        <v>401.6066666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>392.806666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3007,25 @@
         <v>470.7612</v>
       </c>
       <c r="G65" t="n">
+        <v>401.7200000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>393.036666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3049,25 @@
         <v>1053</v>
       </c>
       <c r="G66" t="n">
+        <v>401.8333333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>393.2650000000003</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3091,25 @@
         <v>491.959</v>
       </c>
       <c r="G67" t="n">
+        <v>401.9933333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>393.466666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3133,25 @@
         <v>532.2569999999999</v>
       </c>
       <c r="G68" t="n">
+        <v>402.3933333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>393.6683333333336</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3175,25 @@
         <v>235.6099</v>
       </c>
       <c r="G69" t="n">
+        <v>402.5933333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>393.8866666666669</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3217,25 @@
         <v>1392.4521</v>
       </c>
       <c r="G70" t="n">
+        <v>402.36</v>
+      </c>
+      <c r="H70" t="n">
         <v>394.0050000000002</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3259,25 @@
         <v>234.294</v>
       </c>
       <c r="G71" t="n">
+        <v>402.1800000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>394.2200000000003</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3301,25 @@
         <v>279.4793</v>
       </c>
       <c r="G72" t="n">
+        <v>402.1800000000001</v>
+      </c>
+      <c r="H72" t="n">
         <v>394.4233333333336</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3343,25 @@
         <v>336.596</v>
       </c>
       <c r="G73" t="n">
+        <v>402.0466666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>394.556666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3385,25 @@
         <v>13.13</v>
       </c>
       <c r="G74" t="n">
+        <v>401.6666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>394.7600000000003</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3427,25 @@
         <v>6209.97639022</v>
       </c>
       <c r="G75" t="n">
+        <v>401.1066666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>394.926666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3469,25 @@
         <v>1709.44</v>
       </c>
       <c r="G76" t="n">
+        <v>400.6600000000001</v>
+      </c>
+      <c r="H76" t="n">
         <v>395.0933333333336</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3511,25 @@
         <v>1185.4696</v>
       </c>
       <c r="G77" t="n">
+        <v>400.3800000000001</v>
+      </c>
+      <c r="H77" t="n">
         <v>395.2766666666669</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3553,25 @@
         <v>381.0438</v>
       </c>
       <c r="G78" t="n">
+        <v>399.8200000000001</v>
+      </c>
+      <c r="H78" t="n">
         <v>395.431666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3595,25 @@
         <v>1336.8</v>
       </c>
       <c r="G79" t="n">
+        <v>399.3933333333335</v>
+      </c>
+      <c r="H79" t="n">
         <v>395.6316666666669</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3637,25 @@
         <v>442.8</v>
       </c>
       <c r="G80" t="n">
+        <v>398.9000000000002</v>
+      </c>
+      <c r="H80" t="n">
         <v>395.7050000000002</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3679,25 @@
         <v>7.1914</v>
       </c>
       <c r="G81" t="n">
+        <v>398.4066666666669</v>
+      </c>
+      <c r="H81" t="n">
         <v>395.7783333333335</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3721,25 @@
         <v>145.7599</v>
       </c>
       <c r="G82" t="n">
+        <v>397.9400000000002</v>
+      </c>
+      <c r="H82" t="n">
         <v>395.8633333333335</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3763,25 @@
         <v>1847.5587</v>
       </c>
       <c r="G83" t="n">
+        <v>397.4733333333335</v>
+      </c>
+      <c r="H83" t="n">
         <v>396.0300000000001</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3805,25 @@
         <v>34.5758</v>
       </c>
       <c r="G84" t="n">
+        <v>397.0066666666669</v>
+      </c>
+      <c r="H84" t="n">
         <v>396.1966666666668</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3847,25 @@
         <v>257.8546</v>
       </c>
       <c r="G85" t="n">
+        <v>396.8733333333336</v>
+      </c>
+      <c r="H85" t="n">
         <v>396.3633333333335</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3889,25 @@
         <v>5867.1557</v>
       </c>
       <c r="G86" t="n">
+        <v>396.6066666666669</v>
+      </c>
+      <c r="H86" t="n">
         <v>396.4150000000001</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,22 +3931,25 @@
         <v>623.8239</v>
       </c>
       <c r="G87" t="n">
+        <v>396.7266666666669</v>
+      </c>
+      <c r="H87" t="n">
         <v>396.6400000000002</v>
       </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>395</v>
-      </c>
-      <c r="K87" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3462,24 +3973,25 @@
         <v>2509.9571</v>
       </c>
       <c r="G88" t="n">
+        <v>396.8466666666669</v>
+      </c>
+      <c r="H88" t="n">
         <v>396.8650000000001</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>395</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3503,24 +4015,25 @@
         <v>164.8685</v>
       </c>
       <c r="G89" t="n">
+        <v>396.9666666666669</v>
+      </c>
+      <c r="H89" t="n">
         <v>397.0916666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>395</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +4057,25 @@
         <v>9.6936</v>
       </c>
       <c r="G90" t="n">
+        <v>397.2800000000003</v>
+      </c>
+      <c r="H90" t="n">
         <v>397.3216666666668</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +4099,25 @@
         <v>1152.3219</v>
       </c>
       <c r="G91" t="n">
+        <v>397.5266666666669</v>
+      </c>
+      <c r="H91" t="n">
         <v>397.5350000000001</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +4141,25 @@
         <v>516.6057</v>
       </c>
       <c r="G92" t="n">
+        <v>397.7733333333335</v>
+      </c>
+      <c r="H92" t="n">
         <v>397.7666666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4183,25 @@
         <v>1255.0512</v>
       </c>
       <c r="G93" t="n">
+        <v>398.0200000000002</v>
+      </c>
+      <c r="H93" t="n">
         <v>397.9966666666668</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4225,25 @@
         <v>441.97</v>
       </c>
       <c r="G94" t="n">
+        <v>398.2000000000002</v>
+      </c>
+      <c r="H94" t="n">
         <v>398.2283333333335</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4267,25 @@
         <v>0.151</v>
       </c>
       <c r="G95" t="n">
+        <v>398.4466666666668</v>
+      </c>
+      <c r="H95" t="n">
         <v>398.4600000000002</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4309,25 @@
         <v>7069.2771</v>
       </c>
       <c r="G96" t="n">
+        <v>398.1600000000001</v>
+      </c>
+      <c r="H96" t="n">
         <v>398.5583333333335</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4351,25 @@
         <v>2</v>
       </c>
       <c r="G97" t="n">
+        <v>398.3466666666669</v>
+      </c>
+      <c r="H97" t="n">
         <v>398.7866666666669</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4393,25 @@
         <v>3772.3075</v>
       </c>
       <c r="G98" t="n">
+        <v>398.1533333333335</v>
+      </c>
+      <c r="H98" t="n">
         <v>398.8383333333335</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4435,25 @@
         <v>189.862</v>
       </c>
       <c r="G99" t="n">
+        <v>397.9600000000002</v>
+      </c>
+      <c r="H99" t="n">
         <v>398.8500000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4477,25 @@
         <v>2</v>
       </c>
       <c r="G100" t="n">
+        <v>398.0200000000002</v>
+      </c>
+      <c r="H100" t="n">
         <v>398.9083333333335</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4519,25 @@
         <v>5911.5686</v>
       </c>
       <c r="G101" t="n">
+        <v>398.2800000000001</v>
+      </c>
+      <c r="H101" t="n">
         <v>398.9883333333335</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4561,25 @@
         <v>1256.6919</v>
       </c>
       <c r="G102" t="n">
+        <v>398.2933333333335</v>
+      </c>
+      <c r="H102" t="n">
         <v>399.0700000000002</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4603,25 @@
         <v>2433.5402</v>
       </c>
       <c r="G103" t="n">
+        <v>398.3733333333335</v>
+      </c>
+      <c r="H103" t="n">
         <v>399.1666666666669</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4645,25 @@
         <v>792.0700000000001</v>
       </c>
       <c r="G104" t="n">
+        <v>398.4333333333335</v>
+      </c>
+      <c r="H104" t="n">
         <v>399.2883333333335</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4687,25 @@
         <v>869.3741</v>
       </c>
       <c r="G105" t="n">
+        <v>398.4800000000001</v>
+      </c>
+      <c r="H105" t="n">
         <v>399.4100000000001</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4729,25 @@
         <v>300</v>
       </c>
       <c r="G106" t="n">
+        <v>398.5933333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>399.4683333333335</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4771,25 @@
         <v>32.43</v>
       </c>
       <c r="G107" t="n">
+        <v>398.6400000000001</v>
+      </c>
+      <c r="H107" t="n">
         <v>399.5266666666668</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4813,25 @@
         <v>275.0036</v>
       </c>
       <c r="G108" t="n">
+        <v>398.7400000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>399.5183333333335</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4855,25 @@
         <v>1848.5671</v>
       </c>
       <c r="G109" t="n">
+        <v>398.8600000000001</v>
+      </c>
+      <c r="H109" t="n">
         <v>399.5150000000002</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4897,25 @@
         <v>4307.7282</v>
       </c>
       <c r="G110" t="n">
+        <v>399.0200000000001</v>
+      </c>
+      <c r="H110" t="n">
         <v>399.5216666666668</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4939,25 @@
         <v>4569.3722</v>
       </c>
       <c r="G111" t="n">
+        <v>399.7866666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>399.5466666666669</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4981,25 @@
         <v>4934.1074</v>
       </c>
       <c r="G112" t="n">
+        <v>400.0666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>399.5866666666669</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +5023,25 @@
         <v>722</v>
       </c>
       <c r="G113" t="n">
+        <v>400.7266666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>399.6866666666668</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +5065,25 @@
         <v>482.9078</v>
       </c>
       <c r="G114" t="n">
+        <v>401.42</v>
+      </c>
+      <c r="H114" t="n">
         <v>399.7450000000002</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +5107,25 @@
         <v>1012.4821</v>
       </c>
       <c r="G115" t="n">
+        <v>402.0933333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>399.8366666666669</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +5149,25 @@
         <v>5754.94828039</v>
       </c>
       <c r="G116" t="n">
+        <v>402.7</v>
+      </c>
+      <c r="H116" t="n">
         <v>399.9416666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +5191,25 @@
         <v>1965</v>
       </c>
       <c r="G117" t="n">
+        <v>403.1666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>400.0916666666669</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5233,25 @@
         <v>1069.9032</v>
       </c>
       <c r="G118" t="n">
+        <v>403.5000000000001</v>
+      </c>
+      <c r="H118" t="n">
         <v>400.1916666666668</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5275,25 @@
         <v>254.62</v>
       </c>
       <c r="G119" t="n">
+        <v>403.8533333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>400.2300000000002</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5317,25 @@
         <v>494.6683</v>
       </c>
       <c r="G120" t="n">
+        <v>404.3400000000001</v>
+      </c>
+      <c r="H120" t="n">
         <v>400.3016666666668</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5359,25 @@
         <v>2023.0314</v>
       </c>
       <c r="G121" t="n">
+        <v>404.7600000000001</v>
+      </c>
+      <c r="H121" t="n">
         <v>400.3850000000002</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5401,25 @@
         <v>30</v>
       </c>
       <c r="G122" t="n">
+        <v>405.3133333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>400.5266666666668</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5443,25 @@
         <v>126.81</v>
       </c>
       <c r="G123" t="n">
+        <v>405.6800000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>400.5650000000002</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5485,25 @@
         <v>3953.1503</v>
       </c>
       <c r="G124" t="n">
+        <v>406.0133333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>400.6166666666668</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5527,25 @@
         <v>307.1312</v>
       </c>
       <c r="G125" t="n">
+        <v>406.3200000000001</v>
+      </c>
+      <c r="H125" t="n">
         <v>400.6716666666668</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5569,25 @@
         <v>2234.7046</v>
       </c>
       <c r="G126" t="n">
+        <v>406.4533333333335</v>
+      </c>
+      <c r="H126" t="n">
         <v>400.7016666666668</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5611,25 @@
         <v>1915.9612</v>
       </c>
       <c r="G127" t="n">
+        <v>406.5266666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>400.7200000000001</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5653,25 @@
         <v>4617.1037</v>
       </c>
       <c r="G128" t="n">
+        <v>406.5800000000002</v>
+      </c>
+      <c r="H128" t="n">
         <v>400.7333333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5695,25 @@
         <v>3391.5077</v>
       </c>
       <c r="G129" t="n">
+        <v>406.5933333333335</v>
+      </c>
+      <c r="H129" t="n">
         <v>400.7450000000001</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5737,25 @@
         <v>40.592</v>
       </c>
       <c r="G130" t="n">
+        <v>406.4600000000002</v>
+      </c>
+      <c r="H130" t="n">
         <v>400.8616666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5779,25 @@
         <v>100</v>
       </c>
       <c r="G131" t="n">
+        <v>406.0933333333335</v>
+      </c>
+      <c r="H131" t="n">
         <v>400.9200000000001</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5821,25 @@
         <v>15</v>
       </c>
       <c r="G132" t="n">
+        <v>405.7200000000001</v>
+      </c>
+      <c r="H132" t="n">
         <v>400.9766666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5863,25 @@
         <v>2302.3723</v>
       </c>
       <c r="G133" t="n">
+        <v>405.2333333333335</v>
+      </c>
+      <c r="H133" t="n">
         <v>400.9883333333335</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5905,25 @@
         <v>864.763</v>
       </c>
       <c r="G134" t="n">
+        <v>404.8266666666668</v>
+      </c>
+      <c r="H134" t="n">
         <v>401.0200000000002</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5947,25 @@
         <v>487.3573</v>
       </c>
       <c r="G135" t="n">
+        <v>404.3600000000001</v>
+      </c>
+      <c r="H135" t="n">
         <v>401.1150000000001</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5989,25 @@
         <v>1057.5633</v>
       </c>
       <c r="G136" t="n">
+        <v>404.0933333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>401.2433333333335</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +6031,25 @@
         <v>494.7277</v>
       </c>
       <c r="G137" t="n">
+        <v>403.6933333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>401.3550000000002</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +6073,25 @@
         <v>434.1813</v>
       </c>
       <c r="G138" t="n">
+        <v>403.4933333333335</v>
+      </c>
+      <c r="H138" t="n">
         <v>401.4833333333335</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +6115,25 @@
         <v>5.7098</v>
       </c>
       <c r="G139" t="n">
+        <v>403.2400000000001</v>
+      </c>
+      <c r="H139" t="n">
         <v>401.5783333333335</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +6157,25 @@
         <v>2701.36</v>
       </c>
       <c r="G140" t="n">
+        <v>402.9333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>401.6800000000002</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +6199,25 @@
         <v>420</v>
       </c>
       <c r="G141" t="n">
+        <v>402.6333333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>401.7583333333336</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +6241,25 @@
         <v>935.252</v>
       </c>
       <c r="G142" t="n">
+        <v>402.4466666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>401.8466666666669</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +6283,25 @@
         <v>1636</v>
       </c>
       <c r="G143" t="n">
+        <v>402.28</v>
+      </c>
+      <c r="H143" t="n">
         <v>401.9350000000002</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +6325,25 @@
         <v>396.0465</v>
       </c>
       <c r="G144" t="n">
+        <v>402.1266666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>402.0250000000003</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +6367,25 @@
         <v>637.866</v>
       </c>
       <c r="G145" t="n">
+        <v>401.9533333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>402.1316666666669</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +6409,25 @@
         <v>3908.4979</v>
       </c>
       <c r="G146" t="n">
+        <v>401.9466666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>402.2550000000003</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6451,25 @@
         <v>4.7752</v>
       </c>
       <c r="G147" t="n">
+        <v>402.1866666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>402.341666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6493,25 @@
         <v>926.3766000000001</v>
       </c>
       <c r="G148" t="n">
+        <v>402.4</v>
+      </c>
+      <c r="H148" t="n">
         <v>402.376666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6535,25 @@
         <v>2</v>
       </c>
       <c r="G149" t="n">
+        <v>402.8066666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>402.4800000000004</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6577,25 @@
         <v>140.7054</v>
       </c>
       <c r="G150" t="n">
+        <v>402.9733333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>402.5383333333337</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6619,25 @@
         <v>173.0791</v>
       </c>
       <c r="G151" t="n">
+        <v>403.0066666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>402.6133333333337</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6661,25 @@
         <v>2.97543083</v>
       </c>
       <c r="G152" t="n">
+        <v>403.2733333333334</v>
+      </c>
+      <c r="H152" t="n">
         <v>402.7300000000004</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,18 +6703,25 @@
         <v>1528</v>
       </c>
       <c r="G153" t="n">
+        <v>403.2133333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>402.781666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,18 +6745,25 @@
         <v>2</v>
       </c>
       <c r="G154" t="n">
+        <v>403.4800000000001</v>
+      </c>
+      <c r="H154" t="n">
         <v>402.8983333333337</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,18 +6787,25 @@
         <v>385.2225</v>
       </c>
       <c r="G155" t="n">
+        <v>403.5266666666668</v>
+      </c>
+      <c r="H155" t="n">
         <v>402.9500000000003</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,18 +6829,25 @@
         <v>194.0582</v>
       </c>
       <c r="G156" t="n">
+        <v>403.8666666666668</v>
+      </c>
+      <c r="H156" t="n">
         <v>403.1850000000003</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,18 +6871,25 @@
         <v>235.9668</v>
       </c>
       <c r="G157" t="n">
+        <v>404.1800000000001</v>
+      </c>
+      <c r="H157" t="n">
         <v>403.3050000000003</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,18 +6913,25 @@
         <v>114.1299</v>
       </c>
       <c r="G158" t="n">
+        <v>404.4933333333335</v>
+      </c>
+      <c r="H158" t="n">
         <v>403.5200000000003</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,18 +6955,25 @@
         <v>69.37746917</v>
       </c>
       <c r="G159" t="n">
+        <v>404.8133333333334</v>
+      </c>
+      <c r="H159" t="n">
         <v>403.7383333333337</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,18 +6997,25 @@
         <v>113.8335</v>
       </c>
       <c r="G160" t="n">
+        <v>405.1200000000001</v>
+      </c>
+      <c r="H160" t="n">
         <v>403.906666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,18 +7039,25 @@
         <v>220.0728</v>
       </c>
       <c r="G161" t="n">
+        <v>405.4400000000002</v>
+      </c>
+      <c r="H161" t="n">
         <v>404.0450000000003</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,18 +7081,25 @@
         <v>3.083e-05</v>
       </c>
       <c r="G162" t="n">
+        <v>405.5733333333335</v>
+      </c>
+      <c r="H162" t="n">
         <v>404.161666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6099,18 +7123,25 @@
         <v>479.6339</v>
       </c>
       <c r="G163" t="n">
+        <v>405.8466666666669</v>
+      </c>
+      <c r="H163" t="n">
         <v>404.2450000000003</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,18 +7165,25 @@
         <v>67.75320000000001</v>
       </c>
       <c r="G164" t="n">
+        <v>405.7800000000001</v>
+      </c>
+      <c r="H164" t="n">
         <v>404.3166666666669</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,18 +7207,25 @@
         <v>2</v>
       </c>
       <c r="G165" t="n">
+        <v>405.9466666666668</v>
+      </c>
+      <c r="H165" t="n">
         <v>404.4050000000003</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,18 +7249,25 @@
         <v>150</v>
       </c>
       <c r="G166" t="n">
+        <v>405.6866666666668</v>
+      </c>
+      <c r="H166" t="n">
         <v>404.3866666666669</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,18 +7291,25 @@
         <v>11.94664031</v>
       </c>
       <c r="G167" t="n">
+        <v>405.5400000000002</v>
+      </c>
+      <c r="H167" t="n">
         <v>404.4550000000002</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6274,18 +7333,25 @@
         <v>50</v>
       </c>
       <c r="G168" t="n">
+        <v>405.6000000000002</v>
+      </c>
+      <c r="H168" t="n">
         <v>404.4966666666669</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,18 +7375,25 @@
         <v>404.8378</v>
       </c>
       <c r="G169" t="n">
+        <v>405.3333333333335</v>
+      </c>
+      <c r="H169" t="n">
         <v>404.5166666666669</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,18 +7417,25 @@
         <v>250.5775</v>
       </c>
       <c r="G170" t="n">
+        <v>405.3266666666668</v>
+      </c>
+      <c r="H170" t="n">
         <v>404.5266666666669</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,18 +7459,25 @@
         <v>3567.8828</v>
       </c>
       <c r="G171" t="n">
+        <v>405.1200000000001</v>
+      </c>
+      <c r="H171" t="n">
         <v>404.5183333333335</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,18 +7501,25 @@
         <v>50</v>
       </c>
       <c r="G172" t="n">
+        <v>404.8533333333335</v>
+      </c>
+      <c r="H172" t="n">
         <v>404.5016666666669</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6449,18 +7543,25 @@
         <v>1653.5734</v>
       </c>
       <c r="G173" t="n">
+        <v>404.5866666666668</v>
+      </c>
+      <c r="H173" t="n">
         <v>404.4850000000002</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,18 +7585,25 @@
         <v>1205.36126917</v>
       </c>
       <c r="G174" t="n">
+        <v>404.5733333333335</v>
+      </c>
+      <c r="H174" t="n">
         <v>404.5266666666669</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,18 +7627,25 @@
         <v>1739.8507548</v>
       </c>
       <c r="G175" t="n">
+        <v>404.5000000000001</v>
+      </c>
+      <c r="H175" t="n">
         <v>404.5083333333336</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,18 +7669,25 @@
         <v>2</v>
       </c>
       <c r="G176" t="n">
+        <v>404.5533333333335</v>
+      </c>
+      <c r="H176" t="n">
         <v>404.5083333333336</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,18 +7711,25 @@
         <v>1276.69535452</v>
       </c>
       <c r="G177" t="n">
+        <v>404.6866666666668</v>
+      </c>
+      <c r="H177" t="n">
         <v>404.5416666666669</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,18 +7753,25 @@
         <v>450.5698</v>
       </c>
       <c r="G178" t="n">
+        <v>404.6866666666668</v>
+      </c>
+      <c r="H178" t="n">
         <v>404.5416666666669</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6659,18 +7795,25 @@
         <v>2</v>
       </c>
       <c r="G179" t="n">
+        <v>404.8866666666668</v>
+      </c>
+      <c r="H179" t="n">
         <v>404.5750000000002</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6694,18 +7837,25 @@
         <v>16.8588</v>
       </c>
       <c r="G180" t="n">
+        <v>404.8666666666668</v>
+      </c>
+      <c r="H180" t="n">
         <v>404.5366666666669</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,18 +7879,25 @@
         <v>2</v>
       </c>
       <c r="G181" t="n">
+        <v>405.4266666666668</v>
+      </c>
+      <c r="H181" t="n">
         <v>404.5533333333336</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,18 +7921,25 @@
         <v>277.2223</v>
       </c>
       <c r="G182" t="n">
+        <v>405.4400000000001</v>
+      </c>
+      <c r="H182" t="n">
         <v>404.4866666666669</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6799,18 +7963,25 @@
         <v>1018.5575</v>
       </c>
       <c r="G183" t="n">
+        <v>405.4400000000001</v>
+      </c>
+      <c r="H183" t="n">
         <v>404.4366666666669</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,18 +8005,25 @@
         <v>238.5626</v>
       </c>
       <c r="G184" t="n">
+        <v>405.3066666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>404.3400000000003</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6869,18 +8047,25 @@
         <v>9809.886</v>
       </c>
       <c r="G185" t="n">
+        <v>405.1733333333334</v>
+      </c>
+      <c r="H185" t="n">
         <v>404.2400000000003</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,18 +8089,25 @@
         <v>1374.8</v>
       </c>
       <c r="G186" t="n">
+        <v>405.1733333333334</v>
+      </c>
+      <c r="H186" t="n">
         <v>404.1983333333336</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6939,18 +8131,25 @@
         <v>2</v>
       </c>
       <c r="G187" t="n">
+        <v>405.4400000000001</v>
+      </c>
+      <c r="H187" t="n">
         <v>404.2300000000003</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,18 +8173,25 @@
         <v>3426.7</v>
       </c>
       <c r="G188" t="n">
+        <v>405.5666666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>404.231666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7009,18 +8215,25 @@
         <v>4615.7114</v>
       </c>
       <c r="G189" t="n">
+        <v>405.4266666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>404.2350000000004</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7044,18 +8257,25 @@
         <v>884.144</v>
       </c>
       <c r="G190" t="n">
+        <v>405.36</v>
+      </c>
+      <c r="H190" t="n">
         <v>404.2333333333337</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7079,18 +8299,25 @@
         <v>110</v>
       </c>
       <c r="G191" t="n">
+        <v>405.1533333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>404.2733333333337</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7114,18 +8341,25 @@
         <v>10</v>
       </c>
       <c r="G192" t="n">
+        <v>404.88</v>
+      </c>
+      <c r="H192" t="n">
         <v>404.331666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7149,18 +8383,25 @@
         <v>1143.1315</v>
       </c>
       <c r="G193" t="n">
+        <v>404.6466666666666</v>
+      </c>
+      <c r="H193" t="n">
         <v>404.3950000000004</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7184,18 +8425,25 @@
         <v>238.2437</v>
       </c>
       <c r="G194" t="n">
+        <v>404.3133333333333</v>
+      </c>
+      <c r="H194" t="n">
         <v>404.446666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7219,18 +8467,25 @@
         <v>261.7563</v>
       </c>
       <c r="G195" t="n">
+        <v>404.1333333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>404.4800000000004</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7254,18 +8509,25 @@
         <v>472.4991</v>
       </c>
       <c r="G196" t="n">
+        <v>403.9333333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>404.5133333333337</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,18 +8551,25 @@
         <v>487.9904</v>
       </c>
       <c r="G197" t="n">
+        <v>403.8</v>
+      </c>
+      <c r="H197" t="n">
         <v>404.5133333333337</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7324,18 +8593,25 @@
         <v>606.6467</v>
       </c>
       <c r="G198" t="n">
+        <v>403.8733333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>404.531666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7359,18 +8635,25 @@
         <v>36.94</v>
       </c>
       <c r="G199" t="n">
+        <v>404.1533333333334</v>
+      </c>
+      <c r="H199" t="n">
         <v>404.5683333333337</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7394,18 +8677,25 @@
         <v>580.4807</v>
       </c>
       <c r="G200" t="n">
+        <v>404.4333333333333</v>
+      </c>
+      <c r="H200" t="n">
         <v>404.6150000000004</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7429,18 +8719,25 @@
         <v>244.4885</v>
       </c>
       <c r="G201" t="n">
+        <v>404.7666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>404.731666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7464,18 +8761,25 @@
         <v>100</v>
       </c>
       <c r="G202" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="H202" t="n">
         <v>404.8433333333336</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7499,18 +8803,25 @@
         <v>239.64</v>
       </c>
       <c r="G203" t="n">
+        <v>404.9466666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>404.8983333333337</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7534,18 +8845,25 @@
         <v>270.9092</v>
       </c>
       <c r="G204" t="n">
+        <v>404.9866666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>404.9500000000003</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7569,18 +8887,25 @@
         <v>71.2516</v>
       </c>
       <c r="G205" t="n">
+        <v>405.2533333333334</v>
+      </c>
+      <c r="H205" t="n">
         <v>405.0583333333336</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7604,18 +8929,25 @@
         <v>71.254</v>
       </c>
       <c r="G206" t="n">
+        <v>405.5200000000001</v>
+      </c>
+      <c r="H206" t="n">
         <v>405.166666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,18 +8971,25 @@
         <v>11227.37380524</v>
       </c>
       <c r="G207" t="n">
+        <v>405.8600000000001</v>
+      </c>
+      <c r="H207" t="n">
         <v>405.2500000000003</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7674,18 +9013,25 @@
         <v>1884.59232429</v>
       </c>
       <c r="G208" t="n">
+        <v>406.5733333333334</v>
+      </c>
+      <c r="H208" t="n">
         <v>405.4383333333336</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7709,18 +9055,25 @@
         <v>1663.15827571</v>
       </c>
       <c r="G209" t="n">
+        <v>407.2533333333334</v>
+      </c>
+      <c r="H209" t="n">
         <v>405.5583333333336</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7744,18 +9097,25 @@
         <v>30.57</v>
       </c>
       <c r="G210" t="n">
+        <v>407.9333333333334</v>
+      </c>
+      <c r="H210" t="n">
         <v>405.7200000000003</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7779,18 +9139,25 @@
         <v>122.27698623</v>
       </c>
       <c r="G211" t="n">
+        <v>408.5400000000001</v>
+      </c>
+      <c r="H211" t="n">
         <v>405.8966666666669</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7814,18 +9181,25 @@
         <v>391</v>
       </c>
       <c r="G212" t="n">
+        <v>409.2800000000001</v>
+      </c>
+      <c r="H212" t="n">
         <v>406.0150000000003</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7849,18 +9223,25 @@
         <v>1050.7168</v>
       </c>
       <c r="G213" t="n">
+        <v>409.8800000000001</v>
+      </c>
+      <c r="H213" t="n">
         <v>406.1983333333336</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7884,18 +9265,25 @@
         <v>7437.9916</v>
       </c>
       <c r="G214" t="n">
+        <v>410.2000000000001</v>
+      </c>
+      <c r="H214" t="n">
         <v>406.2483333333336</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7919,18 +9307,25 @@
         <v>2856.43751905</v>
       </c>
       <c r="G215" t="n">
+        <v>410.5200000000002</v>
+      </c>
+      <c r="H215" t="n">
         <v>406.3633333333336</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7954,18 +9349,25 @@
         <v>587.183</v>
       </c>
       <c r="G216" t="n">
+        <v>410.7866666666668</v>
+      </c>
+      <c r="H216" t="n">
         <v>406.461666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7989,18 +9391,25 @@
         <v>1986.9347</v>
       </c>
       <c r="G217" t="n">
+        <v>410.9200000000001</v>
+      </c>
+      <c r="H217" t="n">
         <v>406.5283333333336</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8024,18 +9433,25 @@
         <v>1290.9415</v>
       </c>
       <c r="G218" t="n">
+        <v>411.4866666666668</v>
+      </c>
+      <c r="H218" t="n">
         <v>406.6466666666669</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8059,18 +9475,25 @@
         <v>1020.0111</v>
       </c>
       <c r="G219" t="n">
+        <v>411.8200000000001</v>
+      </c>
+      <c r="H219" t="n">
         <v>406.7016666666669</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8094,20 +9517,25 @@
         <v>10</v>
       </c>
       <c r="G220" t="n">
+        <v>412.1666666666669</v>
+      </c>
+      <c r="H220" t="n">
         <v>406.8200000000003</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8129,18 +9557,21 @@
         <v>4125.8565</v>
       </c>
       <c r="G221" t="n">
+        <v>412.3733333333336</v>
+      </c>
+      <c r="H221" t="n">
         <v>406.9000000000003</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8164,18 +9595,21 @@
         <v>44.5529</v>
       </c>
       <c r="G222" t="n">
+        <v>412.5066666666669</v>
+      </c>
+      <c r="H222" t="n">
         <v>406.9833333333336</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8199,18 +9633,21 @@
         <v>568.95</v>
       </c>
       <c r="G223" t="n">
+        <v>412.2266666666669</v>
+      </c>
+      <c r="H223" t="n">
         <v>407.0333333333336</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8234,18 +9671,21 @@
         <v>10</v>
       </c>
       <c r="G224" t="n">
+        <v>412.0800000000002</v>
+      </c>
+      <c r="H224" t="n">
         <v>407.1333333333336</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8269,18 +9709,21 @@
         <v>1949.2</v>
       </c>
       <c r="G225" t="n">
+        <v>412.0000000000002</v>
+      </c>
+      <c r="H225" t="n">
         <v>407.2333333333336</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8304,18 +9747,21 @@
         <v>231.5511</v>
       </c>
       <c r="G226" t="n">
+        <v>412.1400000000002</v>
+      </c>
+      <c r="H226" t="n">
         <v>407.5100000000003</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8339,18 +9785,21 @@
         <v>114.8864</v>
       </c>
       <c r="G227" t="n">
+        <v>412.0533333333335</v>
+      </c>
+      <c r="H227" t="n">
         <v>407.6433333333336</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8374,18 +9823,21 @@
         <v>1211.875</v>
       </c>
       <c r="G228" t="n">
+        <v>411.7800000000001</v>
+      </c>
+      <c r="H228" t="n">
         <v>407.7433333333336</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8409,18 +9861,21 @@
         <v>81</v>
       </c>
       <c r="G229" t="n">
+        <v>411.8466666666669</v>
+      </c>
+      <c r="H229" t="n">
         <v>407.8766666666669</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8444,18 +9899,21 @@
         <v>1.3</v>
       </c>
       <c r="G230" t="n">
+        <v>411.9133333333335</v>
+      </c>
+      <c r="H230" t="n">
         <v>408.0100000000003</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8479,18 +9937,21 @@
         <v>157.903</v>
       </c>
       <c r="G231" t="n">
+        <v>411.6400000000002</v>
+      </c>
+      <c r="H231" t="n">
         <v>408.091666666667</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8514,18 +9975,21 @@
         <v>244.1</v>
       </c>
       <c r="G232" t="n">
+        <v>411.5733333333335</v>
+      </c>
+      <c r="H232" t="n">
         <v>408.2083333333337</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8549,18 +10013,21 @@
         <v>2381.0647</v>
       </c>
       <c r="G233" t="n">
+        <v>411.2333333333335</v>
+      </c>
+      <c r="H233" t="n">
         <v>408.3083333333336</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8584,18 +10051,21 @@
         <v>3520.2683</v>
       </c>
       <c r="G234" t="n">
+        <v>411.1933333333334</v>
+      </c>
+      <c r="H234" t="n">
         <v>408.356666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8619,18 +10089,21 @@
         <v>1852.2529</v>
       </c>
       <c r="G235" t="n">
+        <v>410.8466666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>408.406666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8654,18 +10127,21 @@
         <v>2.6</v>
       </c>
       <c r="G236" t="n">
+        <v>410.1866666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>408.3083333333336</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8689,18 +10165,21 @@
         <v>10</v>
       </c>
       <c r="G237" t="n">
+        <v>409.9866666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>408.3083333333336</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8724,18 +10203,21 @@
         <v>2764.7366</v>
       </c>
       <c r="G238" t="n">
+        <v>410.0533333333334</v>
+      </c>
+      <c r="H238" t="n">
         <v>408.3750000000003</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8759,18 +10241,21 @@
         <v>1371.1422</v>
       </c>
       <c r="G239" t="n">
+        <v>410.0200000000001</v>
+      </c>
+      <c r="H239" t="n">
         <v>408.416666666667</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8794,18 +10279,21 @@
         <v>186.1306</v>
       </c>
       <c r="G240" t="n">
+        <v>409.9200000000001</v>
+      </c>
+      <c r="H240" t="n">
         <v>408.496666666667</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8829,18 +10317,21 @@
         <v>83.59999999999999</v>
       </c>
       <c r="G241" t="n">
+        <v>409.6333333333334</v>
+      </c>
+      <c r="H241" t="n">
         <v>408.561666666667</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8864,18 +10355,21 @@
         <v>2309.6404</v>
       </c>
       <c r="G242" t="n">
+        <v>409.5133333333334</v>
+      </c>
+      <c r="H242" t="n">
         <v>408.661666666667</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8899,18 +10393,21 @@
         <v>2</v>
       </c>
       <c r="G243" t="n">
+        <v>409.6466666666667</v>
+      </c>
+      <c r="H243" t="n">
         <v>408.7950000000003</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8934,18 +10431,21 @@
         <v>258.4056</v>
       </c>
       <c r="G244" t="n">
+        <v>409.6466666666667</v>
+      </c>
+      <c r="H244" t="n">
         <v>408.961666666667</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8969,18 +10469,21 @@
         <v>242.4308</v>
       </c>
       <c r="G245" t="n">
+        <v>409.6466666666667</v>
+      </c>
+      <c r="H245" t="n">
         <v>409.1283333333337</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9004,18 +10507,21 @@
         <v>57.5692</v>
       </c>
       <c r="G246" t="n">
+        <v>409.8533333333334</v>
+      </c>
+      <c r="H246" t="n">
         <v>409.261666666667</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9039,18 +10545,21 @@
         <v>2426.7735</v>
       </c>
       <c r="G247" t="n">
+        <v>409.7266666666667</v>
+      </c>
+      <c r="H247" t="n">
         <v>409.2800000000003</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9074,18 +10583,21 @@
         <v>20</v>
       </c>
       <c r="G248" t="n">
+        <v>409.9266666666668</v>
+      </c>
+      <c r="H248" t="n">
         <v>409.3983333333336</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9109,18 +10621,21 @@
         <v>228.77</v>
       </c>
       <c r="G249" t="n">
+        <v>409.8066666666668</v>
+      </c>
+      <c r="H249" t="n">
         <v>409.4516666666669</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9144,18 +10659,21 @@
         <v>338.4754</v>
       </c>
       <c r="G250" t="n">
+        <v>409.8800000000002</v>
+      </c>
+      <c r="H250" t="n">
         <v>409.5366666666669</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9179,18 +10697,21 @@
         <v>30.6666</v>
       </c>
       <c r="G251" t="n">
+        <v>410.3400000000001</v>
+      </c>
+      <c r="H251" t="n">
         <v>409.6050000000002</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9214,18 +10735,21 @@
         <v>436.3459</v>
       </c>
       <c r="G252" t="n">
+        <v>410.2866666666668</v>
+      </c>
+      <c r="H252" t="n">
         <v>409.6600000000001</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9249,18 +10773,21 @@
         <v>1131.6686</v>
       </c>
       <c r="G253" t="n">
+        <v>410.2133333333334</v>
+      </c>
+      <c r="H253" t="n">
         <v>409.7666666666668</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9284,18 +10811,21 @@
         <v>13.3602</v>
       </c>
       <c r="G254" t="n">
+        <v>410.1800000000001</v>
+      </c>
+      <c r="H254" t="n">
         <v>409.8833333333335</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9319,18 +10849,21 @@
         <v>11</v>
       </c>
       <c r="G255" t="n">
+        <v>410.0800000000001</v>
+      </c>
+      <c r="H255" t="n">
         <v>409.9833333333335</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9354,18 +10887,21 @@
         <v>1348.8392</v>
       </c>
       <c r="G256" t="n">
+        <v>410.0866666666668</v>
+      </c>
+      <c r="H256" t="n">
         <v>410.1000000000002</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9389,18 +10925,21 @@
         <v>943.6254</v>
       </c>
       <c r="G257" t="n">
+        <v>410.1533333333335</v>
+      </c>
+      <c r="H257" t="n">
         <v>410.2500000000002</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9424,18 +10963,401 @@
         <v>777.2227</v>
       </c>
       <c r="G258" t="n">
+        <v>409.8933333333335</v>
+      </c>
+      <c r="H258" t="n">
         <v>410.3000000000002</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>413</v>
+      </c>
+      <c r="C259" t="n">
+        <v>409.1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>413</v>
+      </c>
+      <c r="E259" t="n">
+        <v>409.1</v>
+      </c>
+      <c r="F259" t="n">
+        <v>212.1774</v>
+      </c>
+      <c r="G259" t="n">
+        <v>409.7666666666668</v>
+      </c>
+      <c r="H259" t="n">
+        <v>410.3650000000001</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>409.1</v>
+      </c>
+      <c r="C260" t="n">
+        <v>409.1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>409.1</v>
+      </c>
+      <c r="E260" t="n">
+        <v>409.1</v>
+      </c>
+      <c r="F260" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="G260" t="n">
+        <v>409.6400000000002</v>
+      </c>
+      <c r="H260" t="n">
+        <v>410.4300000000001</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>415</v>
+      </c>
+      <c r="C261" t="n">
+        <v>416.2</v>
+      </c>
+      <c r="D261" t="n">
+        <v>416.2</v>
+      </c>
+      <c r="E261" t="n">
+        <v>415</v>
+      </c>
+      <c r="F261" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="G261" t="n">
+        <v>409.9866666666668</v>
+      </c>
+      <c r="H261" t="n">
+        <v>410.5666666666668</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>413</v>
+      </c>
+      <c r="C262" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="D262" t="n">
+        <v>413</v>
+      </c>
+      <c r="E262" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="F262" t="n">
+        <v>327.7723</v>
+      </c>
+      <c r="G262" t="n">
+        <v>410.2133333333335</v>
+      </c>
+      <c r="H262" t="n">
+        <v>410.6083333333335</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="C263" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="D263" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="E263" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="F263" t="n">
+        <v>8122.8994</v>
+      </c>
+      <c r="G263" t="n">
+        <v>410.1800000000002</v>
+      </c>
+      <c r="H263" t="n">
+        <v>410.7066666666668</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="C264" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="D264" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="E264" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2931.7202</v>
+      </c>
+      <c r="G264" t="n">
+        <v>410.4066666666668</v>
+      </c>
+      <c r="H264" t="n">
+        <v>410.8066666666668</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="C265" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="D265" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="E265" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="F265" t="n">
+        <v>6034.5642</v>
+      </c>
+      <c r="G265" t="n">
+        <v>410.5066666666668</v>
+      </c>
+      <c r="H265" t="n">
+        <v>410.8500000000001</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>413</v>
+      </c>
+      <c r="C266" t="n">
+        <v>413</v>
+      </c>
+      <c r="D266" t="n">
+        <v>417.2</v>
+      </c>
+      <c r="E266" t="n">
+        <v>413</v>
+      </c>
+      <c r="F266" t="n">
+        <v>4394.144</v>
+      </c>
+      <c r="G266" t="n">
+        <v>410.7733333333335</v>
+      </c>
+      <c r="H266" t="n">
+        <v>410.9183333333334</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>418</v>
+      </c>
+      <c r="C267" t="n">
+        <v>418</v>
+      </c>
+      <c r="D267" t="n">
+        <v>418</v>
+      </c>
+      <c r="E267" t="n">
+        <v>418</v>
+      </c>
+      <c r="F267" t="n">
+        <v>236.9137</v>
+      </c>
+      <c r="G267" t="n">
+        <v>411.4266666666668</v>
+      </c>
+      <c r="H267" t="n">
+        <v>411.0516666666668</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>418</v>
+      </c>
+      <c r="C268" t="n">
+        <v>413</v>
+      </c>
+      <c r="D268" t="n">
+        <v>418</v>
+      </c>
+      <c r="E268" t="n">
+        <v>413</v>
+      </c>
+      <c r="F268" t="n">
+        <v>415.9102</v>
+      </c>
+      <c r="G268" t="n">
+        <v>411.7000000000002</v>
+      </c>
+      <c r="H268" t="n">
+        <v>411.0483333333334</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest PPT.xlsx
+++ b/BackTest/2020-01-16 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N326"/>
+  <dimension ref="A1:M326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>-14068.29194724</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>385.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>385.9</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +523,19 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>385.9</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +562,19 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>385.9</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +601,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +634,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +667,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +700,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +733,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +766,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +799,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +832,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +865,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +898,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +931,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +964,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +997,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1030,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1063,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1096,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1129,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1162,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1195,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1228,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1261,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1294,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1327,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1360,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1393,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1424,21 @@
         <v>-16639.17203579</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1465,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1502,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1539,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,22 +1574,21 @@
         <v>-17442.73193579</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
         <v>386.5</v>
       </c>
-      <c r="K35" t="n">
-        <v>386.5</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1684,24 +1613,21 @@
         <v>-17373.10583579</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>386.6</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>386.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1728,22 +1654,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>386.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1768,18 +1689,21 @@
         <v>-18677.16253579</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1804,18 +1728,21 @@
         <v>-18374.11443579</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1840,18 +1767,21 @@
         <v>-18374.11443579</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1876,18 +1806,21 @@
         <v>-17594.92103579</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1914,16 +1847,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1948,18 +1882,21 @@
         <v>-13816.08443579</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>392.7</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1984,18 +1921,21 @@
         <v>-12258.97963579</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>392.7</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2022,16 +1962,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2058,16 +1999,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2092,18 +2034,21 @@
         <v>-11731.57353579</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>392.4</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2130,16 +2075,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2166,16 +2112,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2202,16 +2149,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2238,16 +2186,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2274,16 +2223,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2310,16 +2260,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2346,16 +2297,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2382,16 +2334,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2418,16 +2371,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2454,16 +2408,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2490,16 +2445,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2524,18 +2480,21 @@
         <v>-24219.95853579</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2562,16 +2521,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2598,16 +2558,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2634,16 +2595,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2670,16 +2632,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2706,16 +2669,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2742,16 +2706,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2776,18 +2741,21 @@
         <v>-17311.56693579</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>391.9</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2814,16 +2782,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2850,16 +2819,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2886,16 +2856,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2922,16 +2893,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2958,16 +2930,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2994,16 +2967,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3030,16 +3004,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3066,16 +3041,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3102,16 +3078,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3138,16 +3115,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3174,16 +3152,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3210,16 +3189,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3246,16 +3226,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3282,16 +3263,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3316,18 +3298,21 @@
         <v>-10902.64079392001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>391.9</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3352,18 +3337,21 @@
         <v>-10902.64079392001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3390,16 +3378,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3424,18 +3413,21 @@
         <v>-23769.67839392001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3462,16 +3454,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3498,16 +3491,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3534,16 +3528,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3570,16 +3565,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3604,22 +3600,21 @@
         <v>-26012.81829392001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
         <v>386.2</v>
       </c>
-      <c r="K89" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3644,26 +3639,19 @@
         <v>-28074.10789392001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="K90" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3688,26 +3676,21 @@
         <v>-26220.75959392001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
         <v>386.1</v>
       </c>
-      <c r="K91" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3732,26 +3715,21 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
         <v>386.2</v>
       </c>
-      <c r="K92" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3776,26 +3754,21 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
         <v>386.1</v>
       </c>
-      <c r="K93" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3820,26 +3793,21 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
         <v>386.1</v>
       </c>
-      <c r="K94" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3864,26 +3832,19 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>386.1</v>
-      </c>
-      <c r="K95" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3908,26 +3869,19 @@
         <v>-26296.12169392001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>386.1</v>
-      </c>
-      <c r="K96" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3952,26 +3906,19 @@
         <v>-22243.05849392001</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>391</v>
-      </c>
-      <c r="K97" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3998,22 +3945,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4040,22 +3982,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4082,22 +4019,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4124,22 +4056,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4166,22 +4093,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4208,22 +4130,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4250,22 +4167,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4292,22 +4204,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4334,22 +4241,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4376,22 +4278,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4418,22 +4315,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4460,22 +4352,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4502,22 +4389,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4544,22 +4426,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4586,22 +4463,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4628,22 +4500,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4670,22 +4537,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4712,22 +4574,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4754,22 +4611,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4796,22 +4648,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4838,22 +4685,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4880,22 +4722,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4922,22 +4759,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4964,22 +4796,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5006,22 +4833,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5048,22 +4870,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5090,22 +4907,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5132,22 +4944,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5174,22 +4981,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5216,22 +5018,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5258,22 +5055,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5300,22 +5092,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5342,22 +5129,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5384,22 +5166,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5426,22 +5203,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5468,22 +5240,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5510,22 +5277,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5552,22 +5314,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5594,22 +5351,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5636,22 +5388,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5678,22 +5425,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5720,22 +5462,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5762,22 +5499,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5804,22 +5536,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5846,22 +5573,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5888,22 +5610,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5930,22 +5647,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5972,22 +5684,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6014,22 +5721,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6056,22 +5758,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6098,22 +5795,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6138,24 +5830,19 @@
         <v>-41594.46526788001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6182,22 +5869,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6222,24 +5904,19 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6264,24 +5941,19 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6306,24 +5978,19 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6348,24 +6015,19 @@
         <v>-48147.13666788001</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6390,24 +6052,19 @@
         <v>-48145.13666788001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6434,22 +6091,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6476,22 +6128,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6518,22 +6165,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6560,22 +6202,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6602,22 +6239,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6644,22 +6276,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6686,22 +6313,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6728,22 +6350,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6770,22 +6387,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6812,22 +6424,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6854,22 +6461,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6896,22 +6498,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6938,22 +6535,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6980,22 +6572,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7022,22 +6609,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7064,22 +6646,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7106,22 +6683,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7146,24 +6718,17 @@
         <v>-25675.54506788001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7188,24 +6753,15 @@
         <v>-19920.59678749001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7230,24 +6786,15 @@
         <v>-21885.59678749001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1.048858104609011</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7272,18 +6819,15 @@
         <v>-22955.49998749001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7308,18 +6852,15 @@
         <v>-22955.49998749001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7344,18 +6885,15 @@
         <v>-22460.83168749001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7380,18 +6918,15 @@
         <v>-24483.86308749001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7416,18 +6951,15 @@
         <v>-24453.86308749001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7452,18 +6984,15 @@
         <v>-24580.67308749001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7488,18 +7017,15 @@
         <v>-28533.82338749001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7524,18 +7050,15 @@
         <v>-28226.69218749001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7560,18 +7083,15 @@
         <v>-30461.39678749002</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7596,18 +7116,15 @@
         <v>-32377.35798749002</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7632,18 +7149,15 @@
         <v>-36994.46168749002</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7668,18 +7182,15 @@
         <v>-40385.96938749002</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7704,18 +7215,15 @@
         <v>-40345.37738749002</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7742,16 +7250,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7776,18 +7281,15 @@
         <v>-40460.37738749002</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7812,18 +7314,15 @@
         <v>-42762.74968749002</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7848,18 +7347,15 @@
         <v>-41897.98668749003</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7886,16 +7382,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7922,16 +7415,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7958,16 +7448,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7992,18 +7479,15 @@
         <v>-39918.88478749002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8028,18 +7512,15 @@
         <v>-39924.59458749002</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8064,18 +7545,15 @@
         <v>-42625.95458749002</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8102,16 +7580,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8138,16 +7613,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8174,16 +7646,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8210,16 +7679,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8246,16 +7712,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8280,18 +7743,15 @@
         <v>-41714.65608749002</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8316,18 +7776,15 @@
         <v>-41709.88088749003</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8354,16 +7811,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8390,16 +7844,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8424,18 +7875,15 @@
         <v>-42774.96288749003</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8460,18 +7908,15 @@
         <v>-42774.96288749003</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8496,18 +7941,15 @@
         <v>-42771.98745666003</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8532,18 +7974,15 @@
         <v>-44299.98745666003</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8568,18 +8007,15 @@
         <v>-44297.98745666003</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8604,18 +8040,15 @@
         <v>-44683.20995666003</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8642,16 +8075,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8678,16 +8108,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8714,16 +8141,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8750,16 +8174,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8784,18 +8205,15 @@
         <v>-44297.64098749003</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8820,18 +8238,15 @@
         <v>-44077.56818749003</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8856,18 +8271,15 @@
         <v>-44077.56821832003</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8892,18 +8304,15 @@
         <v>-44557.20211832003</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8928,18 +8337,15 @@
         <v>-44624.95531832003</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8964,18 +8370,15 @@
         <v>-44622.95531832003</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9000,18 +8403,15 @@
         <v>-44772.95531832003</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9036,18 +8436,15 @@
         <v>-44761.00867801002</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9074,16 +8471,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9108,18 +8502,15 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9144,18 +8535,15 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9180,18 +8568,15 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9218,16 +8603,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9252,18 +8634,15 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9288,18 +8667,15 @@
         <v>-44010.48520884002</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9324,18 +8700,15 @@
         <v>-45750.33596364002</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9362,16 +8735,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9396,18 +8766,15 @@
         <v>-44471.64060912002</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9432,18 +8799,15 @@
         <v>-44922.21040912002</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9468,18 +8832,15 @@
         <v>-44920.21040912002</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9506,16 +8867,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9542,16 +8900,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9578,16 +8933,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9614,16 +8966,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9650,16 +8999,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9686,16 +9032,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9722,16 +9065,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9758,16 +9098,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9794,16 +9131,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9830,16 +9164,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9866,16 +9197,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9902,16 +9230,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9938,16 +9263,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9974,16 +9296,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10010,16 +9329,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10046,16 +9362,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10082,16 +9395,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10118,16 +9428,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10154,16 +9461,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10190,16 +9494,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10226,16 +9527,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10262,16 +9560,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10298,16 +9593,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10334,16 +9626,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10370,16 +9659,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10406,16 +9692,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10442,16 +9725,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10478,16 +9758,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10514,16 +9791,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10550,16 +9824,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10586,16 +9857,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10622,16 +9890,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10658,16 +9923,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10694,16 +9956,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10728,18 +9987,15 @@
         <v>-43094.66159336002</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10766,16 +10022,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10802,16 +10055,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10838,16 +10088,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10874,16 +10121,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10910,16 +10154,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10946,16 +10187,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10982,16 +10220,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11016,18 +10251,15 @@
         <v>-48339.33939336002</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11052,18 +10284,15 @@
         <v>-48908.28939336002</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11088,18 +10317,15 @@
         <v>-48898.28939336002</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11124,18 +10350,15 @@
         <v>-46949.08939336002</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11160,18 +10383,15 @@
         <v>-46717.53829336003</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11196,18 +10416,15 @@
         <v>-46832.42469336003</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11234,16 +10451,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11270,16 +10484,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11306,16 +10517,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11342,16 +10550,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11378,16 +10583,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11414,16 +10616,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11450,16 +10649,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11486,16 +10682,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11522,16 +10715,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11558,16 +10748,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11594,16 +10781,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11630,16 +10814,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11666,16 +10847,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11702,16 +10880,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11738,16 +10913,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11774,16 +10946,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11810,16 +10979,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11846,16 +11012,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11882,16 +11045,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11918,16 +11078,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11954,16 +11111,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11990,16 +11144,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12026,16 +11177,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12062,16 +11210,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12098,16 +11243,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12134,16 +11276,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12170,16 +11309,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12206,16 +11342,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12242,16 +11375,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12278,16 +11408,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12314,16 +11441,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12350,16 +11474,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12386,16 +11507,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12422,16 +11540,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12458,16 +11573,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12494,16 +11606,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12530,16 +11639,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12566,16 +11672,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12602,16 +11705,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12638,16 +11738,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12674,18 +11771,15 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest PPT.xlsx
+++ b/BackTest/2020-01-16 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>-14068.29194724</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>385.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>385.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>385.9</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>385.9</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -1424,17 +1408,11 @@
         <v>-16639.17203579</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1467,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1504,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1541,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1574,17 +1540,11 @@
         <v>-17442.73193579</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>386.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1613,17 +1573,11 @@
         <v>-17373.10583579</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>386.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1656,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1689,17 +1639,11 @@
         <v>-18677.16253579</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1728,17 +1672,11 @@
         <v>-18374.11443579</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1767,17 +1705,11 @@
         <v>-18374.11443579</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1806,17 +1738,11 @@
         <v>-17594.92103579</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1849,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1882,17 +1804,11 @@
         <v>-13816.08443579</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>392.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1921,17 +1837,11 @@
         <v>-12258.97963579</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>392.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1964,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2001,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2034,17 +1936,11 @@
         <v>-11731.57353579</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>392.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2077,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2114,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2151,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2188,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2225,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2262,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2336,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2373,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2410,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2447,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2480,17 +2332,11 @@
         <v>-24219.95853579</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2523,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2560,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2597,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2634,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2671,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2708,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2741,17 +2563,11 @@
         <v>-17311.56693579</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>391.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2784,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2821,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2858,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2895,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2932,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2969,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3006,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3080,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3117,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3154,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3191,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3228,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3265,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3298,17 +3058,11 @@
         <v>-10902.64079392001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>391.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3337,17 +3091,11 @@
         <v>-10902.64079392001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3380,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3413,17 +3157,11 @@
         <v>-23769.67839392001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3456,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3493,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3530,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3567,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3600,17 +3322,11 @@
         <v>-26012.81829392001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>386.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3639,13 +3355,15 @@
         <v>-28074.10789392001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>386.2</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3676,7 +3394,7 @@
         <v>-26220.75959392001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>386.1</v>
@@ -3715,7 +3433,7 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>386.2</v>
@@ -3754,7 +3472,7 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>386.1</v>
@@ -3793,7 +3511,7 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>386.1</v>
@@ -3832,9 +3550,11 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>386.1</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3869,9 +3589,11 @@
         <v>-26296.12169392001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>386.1</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3906,9 +3628,11 @@
         <v>-22243.05849392001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>391</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -3943,9 +3667,11 @@
         <v>-22243.05849392001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>393.4</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3980,9 +3706,11 @@
         <v>-21982.15243579001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>393.4</v>
+      </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4017,9 +3745,11 @@
         <v>-21415.86283579001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>394.1</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -5830,7 +5560,7 @@
         <v>-41594.46526788001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5904,7 +5634,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5941,7 +5671,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5978,7 +5708,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6015,7 +5745,7 @@
         <v>-48147.13666788001</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6052,7 +5782,7 @@
         <v>-48145.13666788001</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6718,16 +6448,18 @@
         <v>-25675.54506788001</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
       <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
@@ -6753,11 +6485,15 @@
         <v>-19920.59678749001</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6786,11 +6522,15 @@
         <v>-21885.59678749001</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6819,11 +6559,15 @@
         <v>-22955.49998749001</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6852,11 +6596,15 @@
         <v>-22955.49998749001</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6885,11 +6633,15 @@
         <v>-22460.83168749001</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6918,11 +6670,15 @@
         <v>-24483.86308749001</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6951,11 +6707,15 @@
         <v>-24453.86308749001</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6984,11 +6744,15 @@
         <v>-24580.67308749001</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7017,11 +6781,15 @@
         <v>-28533.82338749001</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7050,11 +6818,15 @@
         <v>-28226.69218749001</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7083,11 +6855,15 @@
         <v>-30461.39678749002</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7116,11 +6892,15 @@
         <v>-32377.35798749002</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7149,11 +6929,15 @@
         <v>-36994.46168749002</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7182,11 +6966,15 @@
         <v>-40385.96938749002</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7215,11 +7003,15 @@
         <v>-40345.37738749002</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7252,7 +7044,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7281,11 +7077,15 @@
         <v>-40460.37738749002</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7314,11 +7114,15 @@
         <v>-42762.74968749002</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7347,11 +7151,15 @@
         <v>-41897.98668749003</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7384,7 +7192,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7417,7 +7229,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7450,7 +7266,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7479,11 +7299,15 @@
         <v>-39918.88478749002</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7512,11 +7336,15 @@
         <v>-39924.59458749002</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7545,11 +7373,15 @@
         <v>-42625.95458749002</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7582,7 +7414,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7615,7 +7451,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7648,7 +7488,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7681,7 +7525,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7714,7 +7562,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7743,11 +7595,15 @@
         <v>-41714.65608749002</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7776,11 +7632,15 @@
         <v>-41709.88088749003</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7813,7 +7673,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7846,7 +7710,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7875,11 +7743,15 @@
         <v>-42774.96288749003</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7908,11 +7780,15 @@
         <v>-42774.96288749003</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7941,11 +7817,15 @@
         <v>-42771.98745666003</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7974,11 +7854,15 @@
         <v>-44299.98745666003</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8007,11 +7891,15 @@
         <v>-44297.98745666003</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8040,11 +7928,15 @@
         <v>-44683.20995666003</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8077,7 +7969,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8110,7 +8006,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8143,7 +8043,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8176,7 +8080,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8205,11 +8113,15 @@
         <v>-44297.64098749003</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8238,11 +8150,15 @@
         <v>-44077.56818749003</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8271,11 +8187,15 @@
         <v>-44077.56821832003</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8304,11 +8224,15 @@
         <v>-44557.20211832003</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8337,11 +8261,15 @@
         <v>-44624.95531832003</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8370,11 +8298,15 @@
         <v>-44622.95531832003</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8403,11 +8335,15 @@
         <v>-44772.95531832003</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8436,11 +8372,15 @@
         <v>-44761.00867801002</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8473,7 +8413,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8502,11 +8446,15 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8535,11 +8483,15 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8568,11 +8520,15 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8605,7 +8561,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8634,11 +8594,15 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8667,11 +8631,15 @@
         <v>-44010.48520884002</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8700,11 +8668,15 @@
         <v>-45750.33596364002</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8737,7 +8709,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8766,11 +8742,15 @@
         <v>-44471.64060912002</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8799,11 +8779,15 @@
         <v>-44922.21040912002</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8832,11 +8816,15 @@
         <v>-44920.21040912002</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8869,7 +8857,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8902,7 +8894,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8935,7 +8931,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8968,7 +8968,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9001,7 +9005,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9034,7 +9042,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9067,7 +9079,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9100,7 +9116,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9133,7 +9153,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9166,7 +9190,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9199,7 +9227,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9232,7 +9264,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9265,7 +9301,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9298,7 +9338,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9331,7 +9375,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9364,7 +9412,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9397,7 +9449,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9430,7 +9486,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9463,7 +9523,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9496,7 +9560,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9529,7 +9597,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9562,7 +9634,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9595,7 +9671,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +9708,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9661,7 +9745,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9694,7 +9782,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9727,7 +9819,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9760,7 +9856,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9793,7 +9893,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9826,7 +9930,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9859,7 +9967,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9892,7 +10004,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9925,7 +10041,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9958,7 +10078,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9987,11 +10111,15 @@
         <v>-43094.66159336002</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10024,7 +10152,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10057,7 +10189,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10090,7 +10226,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10123,7 +10263,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10156,7 +10300,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10189,7 +10337,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10222,7 +10374,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10251,11 +10407,15 @@
         <v>-48339.33939336002</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10284,11 +10444,15 @@
         <v>-48908.28939336002</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10317,11 +10481,15 @@
         <v>-48898.28939336002</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10350,11 +10518,15 @@
         <v>-46949.08939336002</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10383,11 +10555,15 @@
         <v>-46717.53829336003</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10416,11 +10592,15 @@
         <v>-46832.42469336003</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10453,7 +10633,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10486,7 +10670,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10519,7 +10707,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10552,7 +10744,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10585,7 +10781,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10618,7 +10818,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10651,7 +10855,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10684,7 +10892,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10717,7 +10929,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10750,7 +10966,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10783,7 +11003,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10816,7 +11040,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10849,7 +11077,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10882,7 +11114,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10915,7 +11151,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10948,7 +11188,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10981,7 +11225,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11014,7 +11262,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11047,7 +11299,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11080,7 +11336,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11113,7 +11373,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11146,7 +11410,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11179,7 +11447,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11212,7 +11484,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11245,7 +11521,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11278,7 +11558,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11311,7 +11595,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11344,7 +11632,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11377,7 +11669,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11410,7 +11706,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11443,7 +11743,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11476,7 +11780,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11509,7 +11817,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11542,7 +11854,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11571,14 +11887,16 @@
         <v>-47979.84939336</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
@@ -11736,7 +12054,7 @@
         <v>-43348.79169336001</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11769,7 +12087,7 @@
         <v>-43764.70189336</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11780,6 +12098,6 @@
       <c r="M326" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest PPT.xlsx
+++ b/BackTest/2020-01-16 BackTest PPT.xlsx
@@ -3421,10 +3421,14 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>386.2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>386.2</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
@@ -3454,11 +3458,19 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>386.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3499,19 @@
         <v>-26309.12169392001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>386.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3916,7 +3936,7 @@
         <v>-21464.55347766</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3969,7 @@
         <v>-21464.55347766</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4002,7 @@
         <v>-21464.55347766</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4035,7 @@
         <v>-24820.36377766</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4068,7 @@
         <v>-25072.80377766</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4101,7 @@
         <v>-23173.35377766</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4134,7 @@
         <v>-22254.02927766</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4167,7 @@
         <v>-20397.65497766</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4200,7 @@
         <v>-34505.62937766001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4233,7 @@
         <v>-31141.80647766001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4266,7 @@
         <v>-30807.90647766001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4299,7 @@
         <v>-30807.90647766001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4332,7 @@
         <v>-31094.53687766001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4365,7 @@
         <v>-31359.46677766001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4398,7 @@
         <v>-20431.70537766001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4431,7 @@
         <v>-30020.22527766001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4464,7 @@
         <v>-30020.22527766001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4497,7 @@
         <v>-30020.22527766001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4609,7 +4629,7 @@
         <v>-30920.71837766001</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4662,7 @@
         <v>-30686.42437766001</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4695,7 @@
         <v>-30965.90367766</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4741,7 +4761,7 @@
         <v>-30965.90367766</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4939,7 +4959,7 @@
         <v>-35096.41046788001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4992,7 @@
         <v>-35096.41046788001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,10 +5025,14 @@
         <v>-34950.65056788001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>396.3</v>
+      </c>
+      <c r="J140" t="n">
+        <v>396.3</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5038,11 +5062,19 @@
         <v>-34950.65056788001</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>397</v>
+      </c>
+      <c r="J141" t="n">
+        <v>396.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5103,17 @@
         <v>-34950.65056788001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>396.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,7 +5142,7 @@
         <v>-35208.50516788001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5175,7 @@
         <v>-41075.66086788001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5203,7 +5241,7 @@
         <v>-40451.83696788001</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5274,7 @@
         <v>-40451.83696788001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5307,7 @@
         <v>-40442.14336788001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5340,7 @@
         <v>-41594.46526788001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5373,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5406,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5439,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5472,7 @@
         <v>-41077.85956788001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6160,7 +6198,7 @@
         <v>-21885.59678749001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6231,7 @@
         <v>-22955.49998749001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6264,7 @@
         <v>-22955.49998749001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6297,7 @@
         <v>-22460.83168749001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6330,7 @@
         <v>-24483.86308749001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6391,7 +6429,7 @@
         <v>-28533.82338749001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6462,7 @@
         <v>-28226.69218749001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6688,7 +6726,7 @@
         <v>-42762.74968749002</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,10 +6759,14 @@
         <v>-41897.98668749003</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>398.7</v>
+      </c>
+      <c r="J192" t="n">
+        <v>398.7</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
@@ -6754,11 +6796,19 @@
         <v>-41410.62938749002</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>399.9</v>
+      </c>
+      <c r="J193" t="n">
+        <v>398.7</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +6837,19 @@
         <v>-40353.06608749002</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>401</v>
+      </c>
+      <c r="J194" t="n">
+        <v>398.7</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6853,7 +6911,7 @@
         <v>-39918.88478749002</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6944,7 @@
         <v>-39924.59458749002</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6977,7 @@
         <v>-42625.95458749002</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +7010,7 @@
         <v>-43045.95458749002</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,10 +7043,14 @@
         <v>-42110.70258749002</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>401</v>
+      </c>
+      <c r="J200" t="n">
+        <v>401</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
@@ -7018,11 +7080,19 @@
         <v>-42110.70258749002</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>402.3</v>
+      </c>
+      <c r="J201" t="n">
+        <v>401</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7121,17 @@
         <v>-41714.65608749002</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>401</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7117,7 +7193,7 @@
         <v>-41714.65608749002</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7226,7 @@
         <v>-41709.88088749003</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7259,7 @@
         <v>-42636.25748749003</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7249,7 +7325,7 @@
         <v>-42774.96288749003</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7315,11 +7391,17 @@
         <v>-42771.98745666003</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>403.5</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7430,17 @@
         <v>-44299.98745666003</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>407</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7469,17 @@
         <v>-44297.98745666003</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>403.1</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7508,17 @@
         <v>-44683.20995666003</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>407</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +7547,17 @@
         <v>-44489.15175666003</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>403.1</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +7586,17 @@
         <v>-44253.18495666003</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>406.1</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7625,15 @@
         <v>-44253.18495666003</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +7662,15 @@
         <v>-44183.80748749003</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7699,17 @@
         <v>-44297.64098749003</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>407.2</v>
+      </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +7738,17 @@
         <v>-44077.56818749003</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>407</v>
+      </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7777,17 @@
         <v>-44077.56821832003</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>407.2</v>
+      </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +7816,17 @@
         <v>-44557.20211832003</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>407</v>
+      </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7855,17 @@
         <v>-44624.95531832003</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>406</v>
+      </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +7894,17 @@
         <v>-44622.95531832003</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>405</v>
+      </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7933,17 @@
         <v>-44772.95531832003</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>406</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7972,17 @@
         <v>-44761.00867801002</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>399.6</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +8011,17 @@
         <v>-44811.00867801002</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>404.8</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8050,17 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>404</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +8089,17 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>403</v>
+      </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8128,17 @@
         <v>-45215.84647801003</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>403</v>
+      </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7980,10 +8172,12 @@
       <c r="I230" t="n">
         <v>403</v>
       </c>
-      <c r="J230" t="n">
-        <v>403</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8017,12 +8211,10 @@
       <c r="I231" t="n">
         <v>403</v>
       </c>
-      <c r="J231" t="n">
-        <v>403</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
@@ -8053,15 +8245,15 @@
         <v>-44010.48520884002</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
         <v>403</v>
       </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L232" t="n">
@@ -8092,11 +8284,17 @@
         <v>-45750.33596364002</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>407</v>
+      </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8125,11 +8323,17 @@
         <v>-45748.33596364002</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>405.9</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8158,11 +8362,17 @@
         <v>-44471.64060912002</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>408</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8191,11 +8401,17 @@
         <v>-44922.21040912002</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>409</v>
+      </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8224,11 +8440,17 @@
         <v>-44920.21040912002</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>406</v>
+      </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8257,11 +8479,17 @@
         <v>-44937.06920912002</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>408</v>
+      </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8295,10 +8523,12 @@
       <c r="I239" t="n">
         <v>405.7</v>
       </c>
-      <c r="J239" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8327,15 +8557,15 @@
         <v>-45212.29150912002</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>408</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -8366,15 +8596,15 @@
         <v>-46230.84900912002</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>405</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
@@ -8405,12 +8635,12 @@
         <v>-46469.41160912002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>404</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8444,12 +8674,12 @@
         <v>-46469.41160912002</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>401</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8483,12 +8713,12 @@
         <v>-45094.61160912002</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>401</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8522,12 +8752,12 @@
         <v>-45092.61160912002</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>403</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8561,12 +8791,12 @@
         <v>-48519.31160912001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>407</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8600,12 +8830,12 @@
         <v>-48519.31160912001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8639,12 +8869,12 @@
         <v>-48519.31160912001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8678,12 +8908,12 @@
         <v>-48519.31160912001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8717,12 +8947,12 @@
         <v>-48519.31160912001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8756,12 +8986,12 @@
         <v>-49662.44310912002</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8795,12 +9025,12 @@
         <v>-49424.19940912002</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8834,12 +9064,12 @@
         <v>-49424.19940912002</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>403</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8873,12 +9103,12 @@
         <v>-48951.70030912002</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>403</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8912,12 +9142,12 @@
         <v>-49439.69070912002</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>405</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8956,9 +9186,7 @@
       <c r="I256" t="n">
         <v>403</v>
       </c>
-      <c r="J256" t="n">
-        <v>405.7</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8997,9 +9225,7 @@
       <c r="I257" t="n">
         <v>405.1</v>
       </c>
-      <c r="J257" t="n">
-        <v>405.7</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9038,9 +9264,7 @@
       <c r="I258" t="n">
         <v>405.2</v>
       </c>
-      <c r="J258" t="n">
-        <v>405.7</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9074,12 +9298,12 @@
         <v>-48551.61550912002</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>405.2</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9113,12 +9337,12 @@
         <v>-48451.61550912002</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>408</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9152,12 +9376,12 @@
         <v>-48691.25550912002</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>409</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9191,12 +9415,12 @@
         <v>-48962.16470912002</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>405.6</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9230,12 +9454,12 @@
         <v>-48890.91310912002</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>405.5</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9269,12 +9493,12 @@
         <v>-48890.91310912002</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>408.9</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9308,12 +9532,12 @@
         <v>-37663.53930388002</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>408.9</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9347,12 +9571,12 @@
         <v>-35778.94697959001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>410</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9386,12 +9610,12 @@
         <v>-35778.94697959001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>413.2</v>
+      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9425,12 +9649,12 @@
         <v>-35778.94697959001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>413.2</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9464,20 +9688,16 @@
         <v>-35656.66999336002</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>405.7</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
@@ -9503,17 +9723,11 @@
         <v>-35656.66999336002</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9542,17 +9756,11 @@
         <v>-35656.66999336002</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9581,17 +9789,11 @@
         <v>-43094.66159336002</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9620,17 +9822,11 @@
         <v>-43094.66159336002</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9662,14 +9858,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9701,14 +9891,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9740,14 +9924,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9779,14 +9957,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9818,14 +9990,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9854,17 +10020,11 @@
         <v>-48339.33939336002</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9893,17 +10053,11 @@
         <v>-48339.33939336002</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9932,17 +10086,11 @@
         <v>-48908.28939336002</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9974,14 +10122,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10013,14 +10155,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10052,14 +10188,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10091,14 +10221,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10130,14 +10254,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10169,14 +10287,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10208,14 +10320,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10247,14 +10353,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10286,14 +10386,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10325,14 +10419,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10361,15 +10449,15 @@
         <v>-46737.89909336003</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>409</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L292" t="n">
@@ -10403,9 +10491,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>405.7</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10439,12 +10525,12 @@
         <v>-48592.75199336003</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>408.9</v>
+      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10478,12 +10564,12 @@
         <v>-48582.75199336003</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>402.1</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10517,12 +10603,12 @@
         <v>-45818.01539336002</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>409</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10556,12 +10642,10 @@
         <v>-44446.87319336002</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>405.7</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10595,12 +10679,12 @@
         <v>-44446.87319336002</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>410.5</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10634,12 +10718,12 @@
         <v>-44363.27319336002</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>410.5</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10673,12 +10757,12 @@
         <v>-46672.91359336002</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>411.9</v>
+      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10712,12 +10796,10 @@
         <v>-46670.91359336002</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>405.7</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10754,9 +10836,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>405.7</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10790,12 +10870,12 @@
         <v>-46929.31919336002</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>411</v>
+      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10829,12 +10909,12 @@
         <v>-46929.31919336002</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>411</v>
+      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10868,12 +10948,12 @@
         <v>-49356.09269336002</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>411</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10907,12 +10987,12 @@
         <v>-49336.09269336002</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>408.1</v>
+      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10946,12 +11026,12 @@
         <v>-49564.86269336002</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>412</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10985,12 +11065,12 @@
         <v>-49226.38729336001</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>408.1</v>
+      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11024,12 +11104,12 @@
         <v>-49257.05389336001</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>410</v>
+      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11063,12 +11143,12 @@
         <v>-49693.39979336001</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>409</v>
+      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11102,12 +11182,12 @@
         <v>-48561.73119336001</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>408.2</v>
+      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11141,12 +11221,12 @@
         <v>-48548.37099336001</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>408.9</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11180,12 +11260,12 @@
         <v>-48559.37099336001</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>410</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11219,12 +11299,12 @@
         <v>-47210.53179336001</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>409</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11258,12 +11338,12 @@
         <v>-47210.53179336001</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>412</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11297,12 +11377,12 @@
         <v>-47987.75449336001</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>412</v>
+      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11336,12 +11416,12 @@
         <v>-47775.57709336001</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>408.1</v>
+      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11375,12 +11455,12 @@
         <v>-47775.57709336001</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>409.1</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11414,12 +11494,12 @@
         <v>-47652.07709336001</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>405.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>409.1</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11453,20 +11533,16 @@
         <v>-47979.84939336</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>405.7</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
@@ -11492,17 +11568,11 @@
         <v>-47979.84939336</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11531,17 +11601,11 @@
         <v>-47979.84939336</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11570,17 +11634,11 @@
         <v>-47979.84939336</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11612,14 +11670,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11648,17 +11700,11 @@
         <v>-43348.79169336001</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11687,17 +11733,11 @@
         <v>-43764.70189336</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>405.7</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest PPT.xlsx
+++ b/BackTest/2020-01-16 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M326"/>
+  <dimension ref="A1:L326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1753</v>
       </c>
       <c r="G2" t="n">
-        <v>-14563.32794724</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>495.036</v>
       </c>
       <c r="G3" t="n">
-        <v>-14068.29194724</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3189.1048</v>
       </c>
       <c r="G4" t="n">
-        <v>-14068.29194724</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>118.33</v>
       </c>
       <c r="G5" t="n">
-        <v>-14186.62194724</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>461.8</v>
       </c>
       <c r="G6" t="n">
-        <v>-13724.82194724</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>435.8984</v>
       </c>
       <c r="G7" t="n">
-        <v>-13724.82194724</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1017.2223</v>
       </c>
       <c r="G8" t="n">
-        <v>-12707.59964724</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1307.9667</v>
       </c>
       <c r="G9" t="n">
-        <v>-14015.56634724</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>920.276</v>
       </c>
       <c r="G10" t="n">
-        <v>-13095.29034724</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>61.7521</v>
       </c>
       <c r="G11" t="n">
-        <v>-13157.04244724</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>61.7521</v>
       </c>
       <c r="G12" t="n">
-        <v>-13095.29034724</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>405.5112</v>
       </c>
       <c r="G13" t="n">
-        <v>-12689.77914724</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>0.0001</v>
       </c>
       <c r="G14" t="n">
-        <v>-12689.77914724</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>-12589.77914724</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>542.3824</v>
       </c>
       <c r="G16" t="n">
-        <v>-13132.16154724</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>429.30706012</v>
       </c>
       <c r="G17" t="n">
-        <v>-13132.16154724</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>-13130.16154724</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>792.8721</v>
       </c>
       <c r="G19" t="n">
-        <v>-13130.16154724</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>78.53319999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>-13130.16154724</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>627.9665</v>
       </c>
       <c r="G21" t="n">
-        <v>-12502.19504724</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1382.76803988</v>
       </c>
       <c r="G22" t="n">
-        <v>-12502.19504724</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2667.01806012</v>
       </c>
       <c r="G23" t="n">
-        <v>-15169.21310736</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>200.0250941</v>
       </c>
       <c r="G24" t="n">
-        <v>-14969.18801326</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>59.97747747</v>
       </c>
       <c r="G25" t="n">
-        <v>-14909.21053579</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>198.333</v>
       </c>
       <c r="G26" t="n">
-        <v>-15107.54353579</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1706.1396</v>
       </c>
       <c r="G27" t="n">
-        <v>-16813.68313579</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>245</v>
       </c>
       <c r="G28" t="n">
-        <v>-17058.68313579</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>132.83</v>
       </c>
       <c r="G29" t="n">
-        <v>-17191.51313579</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>924.2908</v>
       </c>
       <c r="G30" t="n">
-        <v>-16267.22233579</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>371.9497</v>
       </c>
       <c r="G31" t="n">
-        <v>-16639.17203579</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>746.4501</v>
       </c>
       <c r="G32" t="n">
-        <v>-15892.72193579</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>496.6989</v>
       </c>
       <c r="G33" t="n">
-        <v>-16389.42083579</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1053.466</v>
       </c>
       <c r="G34" t="n">
-        <v>-17442.88683579</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>0.1549</v>
       </c>
       <c r="G35" t="n">
-        <v>-17442.73193579</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>69.62609999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>-17373.10583579</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>124.4697</v>
       </c>
       <c r="G37" t="n">
-        <v>-17373.10583579</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1304.0567</v>
       </c>
       <c r="G38" t="n">
-        <v>-18677.16253579</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>303.0481</v>
       </c>
       <c r="G39" t="n">
-        <v>-18374.11443579</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>9.7614</v>
       </c>
       <c r="G40" t="n">
-        <v>-18374.11443579</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>779.1934</v>
       </c>
       <c r="G41" t="n">
-        <v>-17594.92103579</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>3778.8366</v>
       </c>
       <c r="G42" t="n">
-        <v>-13816.08443579</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>470.3</v>
       </c>
       <c r="G43" t="n">
-        <v>-13816.08443579</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1557.1048</v>
       </c>
       <c r="G44" t="n">
-        <v>-12258.97963579</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>108.2747</v>
       </c>
       <c r="G45" t="n">
-        <v>-12367.25433579</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>685.6808</v>
       </c>
       <c r="G46" t="n">
-        <v>-11681.57353579</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>-11731.57353579</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>127.3597</v>
       </c>
       <c r="G48" t="n">
-        <v>-11604.21383579</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>142.17</v>
       </c>
       <c r="G49" t="n">
-        <v>-11746.38383579</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>2178.4047</v>
       </c>
       <c r="G50" t="n">
-        <v>-11746.38383579</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>150</v>
       </c>
       <c r="G51" t="n">
-        <v>-11896.38383579</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>433.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>-11462.38393579</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>9023.1762</v>
       </c>
       <c r="G53" t="n">
-        <v>-20485.56013579</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>947.5504</v>
       </c>
       <c r="G54" t="n">
-        <v>-20485.56013579</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>3901.7272</v>
       </c>
       <c r="G55" t="n">
-        <v>-24387.28733579</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>5000</v>
       </c>
       <c r="G56" t="n">
-        <v>-24387.28733579</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>999.2997</v>
       </c>
       <c r="G57" t="n">
-        <v>-23387.98763579</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>148.5745</v>
       </c>
       <c r="G58" t="n">
-        <v>-23239.41313579</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>980.5454</v>
       </c>
       <c r="G59" t="n">
-        <v>-24219.95853579</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>428.1284</v>
       </c>
       <c r="G60" t="n">
-        <v>-24219.95853579</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>708.8934</v>
       </c>
       <c r="G61" t="n">
-        <v>-23511.06513579</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>171.7671</v>
       </c>
       <c r="G62" t="n">
-        <v>-23682.83223579</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>314.0297</v>
       </c>
       <c r="G63" t="n">
-        <v>-23368.80253579</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>847.8658</v>
       </c>
       <c r="G64" t="n">
-        <v>-22520.93673579</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>5209.3698</v>
       </c>
       <c r="G65" t="n">
-        <v>-17311.56693579</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>492.2957</v>
       </c>
       <c r="G66" t="n">
-        <v>-17311.56693579</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>79.40000000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>-17390.96693579001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>328.79</v>
       </c>
       <c r="G68" t="n">
-        <v>-17390.96693579001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>2703.88</v>
       </c>
       <c r="G69" t="n">
-        <v>-20094.84693579001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1706.5792</v>
       </c>
       <c r="G70" t="n">
-        <v>-21801.42613579001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>453.6833</v>
       </c>
       <c r="G71" t="n">
-        <v>-21347.74283579001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1137.5822</v>
       </c>
       <c r="G72" t="n">
-        <v>-22485.32503579001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1006.49</v>
       </c>
       <c r="G73" t="n">
-        <v>-23491.81503579001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>417.9</v>
       </c>
       <c r="G74" t="n">
-        <v>-23491.81503579001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>7057.1027</v>
       </c>
       <c r="G75" t="n">
-        <v>-23491.81503579001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>11470.64354187</v>
       </c>
       <c r="G76" t="n">
-        <v>-12021.17149392001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1365.85</v>
       </c>
       <c r="G77" t="n">
-        <v>-13387.02149392001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>4581.5536</v>
       </c>
       <c r="G78" t="n">
-        <v>-8805.467893920009</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>14.9636</v>
       </c>
       <c r="G79" t="n">
-        <v>-8805.467893920009</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>878.1411000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-8805.467893920009</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>2097.1729</v>
       </c>
       <c r="G81" t="n">
-        <v>-10902.64079392001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>350</v>
       </c>
       <c r="G82" t="n">
-        <v>-10902.64079392001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>18124.1749</v>
       </c>
       <c r="G83" t="n">
-        <v>-29026.81569392001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>5257.1373</v>
       </c>
       <c r="G84" t="n">
-        <v>-23769.67839392001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>999.9999</v>
       </c>
       <c r="G85" t="n">
-        <v>-24769.67829392001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>754.9999</v>
       </c>
       <c r="G86" t="n">
-        <v>-24769.67829392001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>1243.14</v>
       </c>
       <c r="G87" t="n">
-        <v>-26012.81829392001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1744.9999</v>
       </c>
       <c r="G88" t="n">
-        <v>-26012.81829392001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>83.40770000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>-26012.81829392001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>2061.2896</v>
       </c>
       <c r="G90" t="n">
-        <v>-28074.10789392001</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,19 @@
         <v>1853.3483</v>
       </c>
       <c r="G91" t="n">
-        <v>-26220.75959392001</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>386.1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>386.1</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,22 +3147,23 @@
         <v>88.3621</v>
       </c>
       <c r="G92" t="n">
-        <v>-26309.12169392001</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>386.2</v>
       </c>
       <c r="I92" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>386.1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3455,26 +3185,23 @@
         <v>1876.11</v>
       </c>
       <c r="G93" t="n">
-        <v>-26309.12169392001</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>386.1</v>
       </c>
       <c r="I93" t="n">
         <v>386.1</v>
       </c>
-      <c r="J93" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="K93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3496,59 +3223,57 @@
         <v>5557.91</v>
       </c>
       <c r="G94" t="n">
-        <v>-26309.12169392001</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>386.1</v>
       </c>
       <c r="I94" t="n">
         <v>386.1</v>
       </c>
-      <c r="J94" t="n">
-        <v>386.2</v>
-      </c>
-      <c r="K94" t="inlineStr">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>390</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="J95" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>386.1</v>
-      </c>
-      <c r="C95" t="n">
-        <v>386.1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>386.1</v>
-      </c>
-      <c r="E95" t="n">
-        <v>386.1</v>
-      </c>
-      <c r="F95" t="n">
-        <v>390</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-26309.12169392001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3570,18 +3295,23 @@
         <v>13</v>
       </c>
       <c r="G96" t="n">
-        <v>-26296.12169392001</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>386.1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3603,18 +3333,15 @@
         <v>4053.0632</v>
       </c>
       <c r="G97" t="n">
-        <v>-22243.05849392001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3636,18 +3363,15 @@
         <v>286.5276</v>
       </c>
       <c r="G98" t="n">
-        <v>-22243.05849392001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3669,18 +3393,15 @@
         <v>260.90605813</v>
       </c>
       <c r="G99" t="n">
-        <v>-21982.15243579001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3702,18 +3423,15 @@
         <v>566.2896</v>
       </c>
       <c r="G100" t="n">
-        <v>-21415.86283579001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3735,18 +3453,15 @@
         <v>265.74</v>
       </c>
       <c r="G101" t="n">
-        <v>-21150.12283579</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3768,18 +3483,15 @@
         <v>1986.84824187</v>
       </c>
       <c r="G102" t="n">
-        <v>-23136.97107766</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3801,18 +3513,15 @@
         <v>5.813e-05</v>
       </c>
       <c r="G103" t="n">
-        <v>-23136.97107766</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3834,18 +3543,15 @@
         <v>56.247</v>
       </c>
       <c r="G104" t="n">
-        <v>-23080.72407766</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3867,18 +3573,15 @@
         <v>69.70569999999999</v>
       </c>
       <c r="G105" t="n">
-        <v>-23080.72407766</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3900,18 +3603,15 @@
         <v>1616.1706</v>
       </c>
       <c r="G106" t="n">
-        <v>-21464.55347766</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3933,18 +3633,15 @@
         <v>1304.6221</v>
       </c>
       <c r="G107" t="n">
-        <v>-21464.55347766</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3966,18 +3663,15 @@
         <v>1424.9932</v>
       </c>
       <c r="G108" t="n">
-        <v>-21464.55347766</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3999,18 +3693,15 @@
         <v>352.0517</v>
       </c>
       <c r="G109" t="n">
-        <v>-21464.55347766</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4032,18 +3723,15 @@
         <v>3355.8103</v>
       </c>
       <c r="G110" t="n">
-        <v>-24820.36377766</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4065,18 +3753,15 @@
         <v>252.44</v>
       </c>
       <c r="G111" t="n">
-        <v>-25072.80377766</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4098,18 +3783,15 @@
         <v>1899.45</v>
       </c>
       <c r="G112" t="n">
-        <v>-23173.35377766</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4131,18 +3813,15 @@
         <v>919.3244999999999</v>
       </c>
       <c r="G113" t="n">
-        <v>-22254.02927766</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4164,18 +3843,15 @@
         <v>1856.3743</v>
       </c>
       <c r="G114" t="n">
-        <v>-20397.65497766</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4197,18 +3873,15 @@
         <v>14107.9744</v>
       </c>
       <c r="G115" t="n">
-        <v>-34505.62937766001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4230,18 +3903,15 @@
         <v>3363.8229</v>
       </c>
       <c r="G116" t="n">
-        <v>-31141.80647766001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4263,18 +3933,15 @@
         <v>333.9</v>
       </c>
       <c r="G117" t="n">
-        <v>-30807.90647766001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4296,18 +3963,15 @@
         <v>921.5198</v>
       </c>
       <c r="G118" t="n">
-        <v>-30807.90647766001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4329,18 +3993,15 @@
         <v>286.6304</v>
       </c>
       <c r="G119" t="n">
-        <v>-31094.53687766001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4362,18 +4023,15 @@
         <v>264.9299</v>
       </c>
       <c r="G120" t="n">
-        <v>-31359.46677766001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4395,18 +4053,15 @@
         <v>10927.7614</v>
       </c>
       <c r="G121" t="n">
-        <v>-20431.70537766001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4428,18 +4083,15 @@
         <v>9588.519899999999</v>
       </c>
       <c r="G122" t="n">
-        <v>-30020.22527766001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4461,18 +4113,15 @@
         <v>470.7612</v>
       </c>
       <c r="G123" t="n">
-        <v>-30020.22527766001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4494,18 +4143,15 @@
         <v>1053</v>
       </c>
       <c r="G124" t="n">
-        <v>-30020.22527766001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4527,18 +4173,15 @@
         <v>491.959</v>
       </c>
       <c r="G125" t="n">
-        <v>-29528.26627766001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4560,18 +4203,15 @@
         <v>532.2569999999999</v>
       </c>
       <c r="G126" t="n">
-        <v>-29528.26627766001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4593,18 +4233,15 @@
         <v>235.6099</v>
       </c>
       <c r="G127" t="n">
-        <v>-29528.26627766001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4626,18 +4263,15 @@
         <v>1392.4521</v>
       </c>
       <c r="G128" t="n">
-        <v>-30920.71837766001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4659,18 +4293,15 @@
         <v>234.294</v>
       </c>
       <c r="G129" t="n">
-        <v>-30686.42437766001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4692,18 +4323,15 @@
         <v>279.4793</v>
       </c>
       <c r="G130" t="n">
-        <v>-30965.90367766</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4725,18 +4353,15 @@
         <v>336.596</v>
       </c>
       <c r="G131" t="n">
-        <v>-30965.90367766</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4758,18 +4383,15 @@
         <v>13.13</v>
       </c>
       <c r="G132" t="n">
-        <v>-30965.90367766</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4791,18 +4413,15 @@
         <v>6209.97639022</v>
       </c>
       <c r="G133" t="n">
-        <v>-37175.88006788</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4824,18 +4443,15 @@
         <v>1709.44</v>
       </c>
       <c r="G134" t="n">
-        <v>-37175.88006788</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4857,18 +4473,15 @@
         <v>1185.4696</v>
       </c>
       <c r="G135" t="n">
-        <v>-35990.41046788001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4890,18 +4503,15 @@
         <v>381.0438</v>
       </c>
       <c r="G136" t="n">
-        <v>-35990.41046788001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4923,18 +4533,15 @@
         <v>1336.8</v>
       </c>
       <c r="G137" t="n">
-        <v>-34653.61046788</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4956,18 +4563,15 @@
         <v>442.8</v>
       </c>
       <c r="G138" t="n">
-        <v>-35096.41046788001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4989,18 +4593,15 @@
         <v>7.1914</v>
       </c>
       <c r="G139" t="n">
-        <v>-35096.41046788001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5022,22 +4623,15 @@
         <v>145.7599</v>
       </c>
       <c r="G140" t="n">
-        <v>-34950.65056788001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>396.3</v>
-      </c>
-      <c r="J140" t="n">
-        <v>396.3</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5059,26 +4653,15 @@
         <v>1847.5587</v>
       </c>
       <c r="G141" t="n">
-        <v>-34950.65056788001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>397</v>
-      </c>
-      <c r="J141" t="n">
-        <v>396.3</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5100,24 +4683,15 @@
         <v>34.5758</v>
       </c>
       <c r="G142" t="n">
-        <v>-34950.65056788001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>396.3</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5139,18 +4713,15 @@
         <v>257.8546</v>
       </c>
       <c r="G143" t="n">
-        <v>-35208.50516788001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5172,18 +4743,15 @@
         <v>5867.1557</v>
       </c>
       <c r="G144" t="n">
-        <v>-41075.66086788001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5205,18 +4773,15 @@
         <v>623.8239</v>
       </c>
       <c r="G145" t="n">
-        <v>-40451.83696788001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5238,18 +4803,15 @@
         <v>2509.9571</v>
       </c>
       <c r="G146" t="n">
-        <v>-40451.83696788001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5271,18 +4833,15 @@
         <v>164.8685</v>
       </c>
       <c r="G147" t="n">
-        <v>-40451.83696788001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5304,18 +4863,15 @@
         <v>9.6936</v>
       </c>
       <c r="G148" t="n">
-        <v>-40442.14336788001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5337,18 +4893,15 @@
         <v>1152.3219</v>
       </c>
       <c r="G149" t="n">
-        <v>-41594.46526788001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5370,18 +4923,15 @@
         <v>516.6057</v>
       </c>
       <c r="G150" t="n">
-        <v>-41077.85956788001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5403,18 +4953,15 @@
         <v>1255.0512</v>
       </c>
       <c r="G151" t="n">
-        <v>-41077.85956788001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5436,18 +4983,15 @@
         <v>441.97</v>
       </c>
       <c r="G152" t="n">
-        <v>-41077.85956788001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5469,18 +5013,15 @@
         <v>0.151</v>
       </c>
       <c r="G153" t="n">
-        <v>-41077.85956788001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5502,18 +5043,15 @@
         <v>7069.2771</v>
       </c>
       <c r="G154" t="n">
-        <v>-48147.13666788001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5535,18 +5073,15 @@
         <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>-48145.13666788001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5568,18 +5103,15 @@
         <v>3772.3075</v>
       </c>
       <c r="G156" t="n">
-        <v>-51917.44416788001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5601,18 +5133,15 @@
         <v>189.862</v>
       </c>
       <c r="G157" t="n">
-        <v>-51917.44416788001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5634,18 +5163,15 @@
         <v>2</v>
       </c>
       <c r="G158" t="n">
-        <v>-51915.44416788001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5667,18 +5193,15 @@
         <v>5911.5686</v>
       </c>
       <c r="G159" t="n">
-        <v>-46003.87556788002</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5700,18 +5223,15 @@
         <v>1256.6919</v>
       </c>
       <c r="G160" t="n">
-        <v>-44747.18366788002</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5733,18 +5253,15 @@
         <v>2433.5402</v>
       </c>
       <c r="G161" t="n">
-        <v>-42313.64346788001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5766,18 +5283,15 @@
         <v>792.0700000000001</v>
       </c>
       <c r="G162" t="n">
-        <v>-43105.71346788001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5799,18 +5313,15 @@
         <v>869.3741</v>
       </c>
       <c r="G163" t="n">
-        <v>-43105.71346788001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5832,18 +5343,15 @@
         <v>300</v>
       </c>
       <c r="G164" t="n">
-        <v>-43105.71346788001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5865,18 +5373,15 @@
         <v>32.43</v>
       </c>
       <c r="G165" t="n">
-        <v>-43105.71346788001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5898,18 +5403,15 @@
         <v>275.0036</v>
       </c>
       <c r="G166" t="n">
-        <v>-42830.70986788001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5931,18 +5433,15 @@
         <v>1848.5671</v>
       </c>
       <c r="G167" t="n">
-        <v>-40982.14276788001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5964,18 +5463,15 @@
         <v>4307.7282</v>
       </c>
       <c r="G168" t="n">
-        <v>-36674.41456788001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5997,18 +5493,15 @@
         <v>4569.3722</v>
       </c>
       <c r="G169" t="n">
-        <v>-32105.04236788001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6030,18 +5523,15 @@
         <v>4934.1074</v>
       </c>
       <c r="G170" t="n">
-        <v>-27170.93496788001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6063,18 +5553,15 @@
         <v>722</v>
       </c>
       <c r="G171" t="n">
-        <v>-27170.93496788001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6096,18 +5583,15 @@
         <v>482.9078</v>
       </c>
       <c r="G172" t="n">
-        <v>-26688.02716788001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6129,18 +5613,15 @@
         <v>1012.4821</v>
       </c>
       <c r="G173" t="n">
-        <v>-25675.54506788001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6162,18 +5643,15 @@
         <v>5754.94828039</v>
       </c>
       <c r="G174" t="n">
-        <v>-19920.59678749001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6195,18 +5673,15 @@
         <v>1965</v>
       </c>
       <c r="G175" t="n">
-        <v>-21885.59678749001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6228,18 +5703,15 @@
         <v>1069.9032</v>
       </c>
       <c r="G176" t="n">
-        <v>-22955.49998749001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6261,18 +5733,15 @@
         <v>254.62</v>
       </c>
       <c r="G177" t="n">
-        <v>-22955.49998749001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6294,18 +5763,15 @@
         <v>494.6683</v>
       </c>
       <c r="G178" t="n">
-        <v>-22460.83168749001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6327,18 +5793,15 @@
         <v>2023.0314</v>
       </c>
       <c r="G179" t="n">
-        <v>-24483.86308749001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6360,18 +5823,15 @@
         <v>30</v>
       </c>
       <c r="G180" t="n">
-        <v>-24453.86308749001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6393,18 +5853,15 @@
         <v>126.81</v>
       </c>
       <c r="G181" t="n">
-        <v>-24580.67308749001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6426,18 +5883,15 @@
         <v>3953.1503</v>
       </c>
       <c r="G182" t="n">
-        <v>-28533.82338749001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6459,18 +5913,15 @@
         <v>307.1312</v>
       </c>
       <c r="G183" t="n">
-        <v>-28226.69218749001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6492,18 +5943,15 @@
         <v>2234.7046</v>
       </c>
       <c r="G184" t="n">
-        <v>-30461.39678749002</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6525,18 +5973,15 @@
         <v>1915.9612</v>
       </c>
       <c r="G185" t="n">
-        <v>-32377.35798749002</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6558,18 +6003,15 @@
         <v>4617.1037</v>
       </c>
       <c r="G186" t="n">
-        <v>-36994.46168749002</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6591,18 +6033,15 @@
         <v>3391.5077</v>
       </c>
       <c r="G187" t="n">
-        <v>-40385.96938749002</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6624,18 +6063,15 @@
         <v>40.592</v>
       </c>
       <c r="G188" t="n">
-        <v>-40345.37738749002</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6657,18 +6093,15 @@
         <v>100</v>
       </c>
       <c r="G189" t="n">
-        <v>-40445.37738749002</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6690,18 +6123,15 @@
         <v>15</v>
       </c>
       <c r="G190" t="n">
-        <v>-40460.37738749002</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6723,18 +6153,15 @@
         <v>2302.3723</v>
       </c>
       <c r="G191" t="n">
-        <v>-42762.74968749002</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6756,22 +6183,15 @@
         <v>864.763</v>
       </c>
       <c r="G192" t="n">
-        <v>-41897.98668749003</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>398.7</v>
-      </c>
-      <c r="J192" t="n">
-        <v>398.7</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6793,26 +6213,15 @@
         <v>487.3573</v>
       </c>
       <c r="G193" t="n">
-        <v>-41410.62938749002</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>399.9</v>
-      </c>
-      <c r="J193" t="n">
-        <v>398.7</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6834,26 +6243,15 @@
         <v>1057.5633</v>
       </c>
       <c r="G194" t="n">
-        <v>-40353.06608749002</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>401</v>
-      </c>
-      <c r="J194" t="n">
-        <v>398.7</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6875,18 +6273,15 @@
         <v>494.7277</v>
       </c>
       <c r="G195" t="n">
-        <v>-40353.06608749002</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6908,18 +6303,15 @@
         <v>434.1813</v>
       </c>
       <c r="G196" t="n">
-        <v>-39918.88478749002</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6941,18 +6333,15 @@
         <v>5.7098</v>
       </c>
       <c r="G197" t="n">
-        <v>-39924.59458749002</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6974,18 +6363,15 @@
         <v>2701.36</v>
       </c>
       <c r="G198" t="n">
-        <v>-42625.95458749002</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7007,18 +6393,15 @@
         <v>420</v>
       </c>
       <c r="G199" t="n">
-        <v>-43045.95458749002</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7040,22 +6423,15 @@
         <v>935.252</v>
       </c>
       <c r="G200" t="n">
-        <v>-42110.70258749002</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>401</v>
-      </c>
-      <c r="J200" t="n">
-        <v>401</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7077,26 +6453,15 @@
         <v>1636</v>
       </c>
       <c r="G201" t="n">
-        <v>-42110.70258749002</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>402.3</v>
-      </c>
-      <c r="J201" t="n">
-        <v>401</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7118,24 +6483,15 @@
         <v>396.0465</v>
       </c>
       <c r="G202" t="n">
-        <v>-41714.65608749002</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>401</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7157,18 +6513,15 @@
         <v>637.866</v>
       </c>
       <c r="G203" t="n">
-        <v>-41714.65608749002</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7190,18 +6543,15 @@
         <v>3908.4979</v>
       </c>
       <c r="G204" t="n">
-        <v>-41714.65608749002</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7223,18 +6573,15 @@
         <v>4.7752</v>
       </c>
       <c r="G205" t="n">
-        <v>-41709.88088749003</v>
-      </c>
-      <c r="H205" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7256,18 +6603,15 @@
         <v>926.3766000000001</v>
       </c>
       <c r="G206" t="n">
-        <v>-42636.25748749003</v>
-      </c>
-      <c r="H206" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7289,18 +6633,15 @@
         <v>2</v>
       </c>
       <c r="G207" t="n">
-        <v>-42634.25748749003</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7322,18 +6663,15 @@
         <v>140.7054</v>
       </c>
       <c r="G208" t="n">
-        <v>-42774.96288749003</v>
-      </c>
-      <c r="H208" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7355,18 +6693,15 @@
         <v>173.0791</v>
       </c>
       <c r="G209" t="n">
-        <v>-42774.96288749003</v>
-      </c>
-      <c r="H209" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7388,24 +6723,15 @@
         <v>2.97543083</v>
       </c>
       <c r="G210" t="n">
-        <v>-42771.98745666003</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>403.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7427,24 +6753,15 @@
         <v>1528</v>
       </c>
       <c r="G211" t="n">
-        <v>-44299.98745666003</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7466,24 +6783,15 @@
         <v>2</v>
       </c>
       <c r="G212" t="n">
-        <v>-44297.98745666003</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>403.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7505,24 +6813,15 @@
         <v>385.2225</v>
       </c>
       <c r="G213" t="n">
-        <v>-44683.20995666003</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7544,24 +6843,15 @@
         <v>194.0582</v>
       </c>
       <c r="G214" t="n">
-        <v>-44489.15175666003</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>403.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7583,24 +6873,15 @@
         <v>235.9668</v>
       </c>
       <c r="G215" t="n">
-        <v>-44253.18495666003</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>406.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7622,22 +6903,15 @@
         <v>114.1299</v>
       </c>
       <c r="G216" t="n">
-        <v>-44253.18495666003</v>
-      </c>
-      <c r="H216" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7659,22 +6933,15 @@
         <v>69.37746917</v>
       </c>
       <c r="G217" t="n">
-        <v>-44183.80748749003</v>
-      </c>
-      <c r="H217" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7696,24 +6963,15 @@
         <v>113.8335</v>
       </c>
       <c r="G218" t="n">
-        <v>-44297.64098749003</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>407.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7735,24 +6993,15 @@
         <v>220.0728</v>
       </c>
       <c r="G219" t="n">
-        <v>-44077.56818749003</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7774,24 +7023,15 @@
         <v>3.083e-05</v>
       </c>
       <c r="G220" t="n">
-        <v>-44077.56821832003</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>407.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7813,24 +7053,15 @@
         <v>479.6339</v>
       </c>
       <c r="G221" t="n">
-        <v>-44557.20211832003</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7852,24 +7083,15 @@
         <v>67.75320000000001</v>
       </c>
       <c r="G222" t="n">
-        <v>-44624.95531832003</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7891,24 +7113,15 @@
         <v>2</v>
       </c>
       <c r="G223" t="n">
-        <v>-44622.95531832003</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7930,24 +7143,15 @@
         <v>150</v>
       </c>
       <c r="G224" t="n">
-        <v>-44772.95531832003</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7969,24 +7173,15 @@
         <v>11.94664031</v>
       </c>
       <c r="G225" t="n">
-        <v>-44761.00867801002</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>399.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8008,24 +7203,15 @@
         <v>50</v>
       </c>
       <c r="G226" t="n">
-        <v>-44811.00867801002</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>404.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8047,24 +7233,15 @@
         <v>404.8378</v>
       </c>
       <c r="G227" t="n">
-        <v>-45215.84647801003</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8086,24 +7263,15 @@
         <v>250.5775</v>
       </c>
       <c r="G228" t="n">
-        <v>-45215.84647801003</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8125,24 +7293,15 @@
         <v>3567.8828</v>
       </c>
       <c r="G229" t="n">
-        <v>-45215.84647801003</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8164,24 +7323,15 @@
         <v>50</v>
       </c>
       <c r="G230" t="n">
-        <v>-45215.84647801003</v>
-      </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8203,24 +7353,15 @@
         <v>1653.5734</v>
       </c>
       <c r="G231" t="n">
-        <v>-45215.84647801003</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8242,24 +7383,15 @@
         <v>1205.36126917</v>
       </c>
       <c r="G232" t="n">
-        <v>-44010.48520884002</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8281,24 +7413,15 @@
         <v>1739.8507548</v>
       </c>
       <c r="G233" t="n">
-        <v>-45750.33596364002</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8320,24 +7443,15 @@
         <v>2</v>
       </c>
       <c r="G234" t="n">
-        <v>-45748.33596364002</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>405.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8359,24 +7473,15 @@
         <v>1276.69535452</v>
       </c>
       <c r="G235" t="n">
-        <v>-44471.64060912002</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8398,24 +7503,15 @@
         <v>450.5698</v>
       </c>
       <c r="G236" t="n">
-        <v>-44922.21040912002</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8437,24 +7533,15 @@
         <v>2</v>
       </c>
       <c r="G237" t="n">
-        <v>-44920.21040912002</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8476,24 +7563,15 @@
         <v>16.8588</v>
       </c>
       <c r="G238" t="n">
-        <v>-44937.06920912002</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8515,24 +7593,15 @@
         <v>2</v>
       </c>
       <c r="G239" t="n">
-        <v>-44935.06920912002</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>405.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8554,24 +7623,15 @@
         <v>277.2223</v>
       </c>
       <c r="G240" t="n">
-        <v>-45212.29150912002</v>
-      </c>
-      <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8593,24 +7653,15 @@
         <v>1018.5575</v>
       </c>
       <c r="G241" t="n">
-        <v>-46230.84900912002</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8632,24 +7683,15 @@
         <v>238.5626</v>
       </c>
       <c r="G242" t="n">
-        <v>-46469.41160912002</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8671,24 +7713,15 @@
         <v>9809.886</v>
       </c>
       <c r="G243" t="n">
-        <v>-46469.41160912002</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8710,24 +7743,15 @@
         <v>1374.8</v>
       </c>
       <c r="G244" t="n">
-        <v>-45094.61160912002</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8749,24 +7773,15 @@
         <v>2</v>
       </c>
       <c r="G245" t="n">
-        <v>-45092.61160912002</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8788,24 +7803,15 @@
         <v>3426.7</v>
       </c>
       <c r="G246" t="n">
-        <v>-48519.31160912001</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8827,24 +7833,15 @@
         <v>4615.7114</v>
       </c>
       <c r="G247" t="n">
-        <v>-48519.31160912001</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>404.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8866,24 +7863,15 @@
         <v>884.144</v>
       </c>
       <c r="G248" t="n">
-        <v>-48519.31160912001</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>404.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8905,24 +7893,15 @@
         <v>110</v>
       </c>
       <c r="G249" t="n">
-        <v>-48519.31160912001</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>404.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8944,24 +7923,15 @@
         <v>10</v>
       </c>
       <c r="G250" t="n">
-        <v>-48519.31160912001</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>404.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8983,24 +7953,15 @@
         <v>1143.1315</v>
       </c>
       <c r="G251" t="n">
-        <v>-49662.44310912002</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>404.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9022,24 +7983,15 @@
         <v>238.2437</v>
       </c>
       <c r="G252" t="n">
-        <v>-49424.19940912002</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>402.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9061,24 +8013,15 @@
         <v>261.7563</v>
       </c>
       <c r="G253" t="n">
-        <v>-49424.19940912002</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9100,24 +8043,15 @@
         <v>472.4991</v>
       </c>
       <c r="G254" t="n">
-        <v>-48951.70030912002</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9139,24 +8073,15 @@
         <v>487.9904</v>
       </c>
       <c r="G255" t="n">
-        <v>-49439.69070912002</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9178,24 +8103,15 @@
         <v>606.6467</v>
       </c>
       <c r="G256" t="n">
-        <v>-48833.04400912002</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9217,24 +8133,15 @@
         <v>36.94</v>
       </c>
       <c r="G257" t="n">
-        <v>-48796.10400912002</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>405.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9256,24 +8163,15 @@
         <v>580.4807</v>
       </c>
       <c r="G258" t="n">
-        <v>-48796.10400912002</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>405.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9295,24 +8193,15 @@
         <v>244.4885</v>
       </c>
       <c r="G259" t="n">
-        <v>-48551.61550912002</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>405.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9334,24 +8223,15 @@
         <v>100</v>
       </c>
       <c r="G260" t="n">
-        <v>-48451.61550912002</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9373,24 +8253,15 @@
         <v>239.64</v>
       </c>
       <c r="G261" t="n">
-        <v>-48691.25550912002</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9412,24 +8283,15 @@
         <v>270.9092</v>
       </c>
       <c r="G262" t="n">
-        <v>-48962.16470912002</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>405.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9451,24 +8313,15 @@
         <v>71.2516</v>
       </c>
       <c r="G263" t="n">
-        <v>-48890.91310912002</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>405.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9490,24 +8343,15 @@
         <v>71.254</v>
       </c>
       <c r="G264" t="n">
-        <v>-48890.91310912002</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>408.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9529,24 +8373,15 @@
         <v>11227.37380524</v>
       </c>
       <c r="G265" t="n">
-        <v>-37663.53930388002</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>408.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9568,24 +8403,15 @@
         <v>1884.59232429</v>
       </c>
       <c r="G266" t="n">
-        <v>-35778.94697959001</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9607,24 +8433,15 @@
         <v>1663.15827571</v>
       </c>
       <c r="G267" t="n">
-        <v>-35778.94697959001</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>413.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9646,24 +8463,15 @@
         <v>30.57</v>
       </c>
       <c r="G268" t="n">
-        <v>-35778.94697959001</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>413.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9685,20 +8493,15 @@
         <v>122.27698623</v>
       </c>
       <c r="G269" t="n">
-        <v>-35656.66999336002</v>
-      </c>
-      <c r="H269" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K269" t="n">
+        <v>1</v>
       </c>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9720,18 +8523,15 @@
         <v>391</v>
       </c>
       <c r="G270" t="n">
-        <v>-35656.66999336002</v>
-      </c>
-      <c r="H270" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9753,18 +8553,15 @@
         <v>1050.7168</v>
       </c>
       <c r="G271" t="n">
-        <v>-35656.66999336002</v>
-      </c>
-      <c r="H271" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9786,18 +8583,15 @@
         <v>7437.9916</v>
       </c>
       <c r="G272" t="n">
-        <v>-43094.66159336002</v>
-      </c>
-      <c r="H272" t="n">
         <v>2</v>
       </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9819,18 +8613,15 @@
         <v>2856.43751905</v>
       </c>
       <c r="G273" t="n">
-        <v>-43094.66159336002</v>
-      </c>
-      <c r="H273" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9852,18 +8643,15 @@
         <v>587.183</v>
       </c>
       <c r="G274" t="n">
-        <v>-42507.47859336002</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9885,18 +8673,15 @@
         <v>1986.9347</v>
       </c>
       <c r="G275" t="n">
-        <v>-44494.41329336002</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9918,18 +8703,15 @@
         <v>1290.9415</v>
       </c>
       <c r="G276" t="n">
-        <v>-43203.47179336002</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9951,18 +8733,15 @@
         <v>1020.0111</v>
       </c>
       <c r="G277" t="n">
-        <v>-44223.48289336002</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9984,18 +8763,15 @@
         <v>10</v>
       </c>
       <c r="G278" t="n">
-        <v>-44213.48289336002</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10017,18 +8793,15 @@
         <v>4125.8565</v>
       </c>
       <c r="G279" t="n">
-        <v>-48339.33939336002</v>
-      </c>
-      <c r="H279" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10050,18 +8823,15 @@
         <v>44.5529</v>
       </c>
       <c r="G280" t="n">
-        <v>-48339.33939336002</v>
-      </c>
-      <c r="H280" t="n">
         <v>2</v>
       </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10083,18 +8853,15 @@
         <v>568.95</v>
       </c>
       <c r="G281" t="n">
-        <v>-48908.28939336002</v>
-      </c>
-      <c r="H281" t="n">
         <v>2</v>
       </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10116,18 +8883,15 @@
         <v>10</v>
       </c>
       <c r="G282" t="n">
-        <v>-48898.28939336002</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10149,18 +8913,15 @@
         <v>1949.2</v>
       </c>
       <c r="G283" t="n">
-        <v>-46949.08939336002</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10182,18 +8943,15 @@
         <v>231.5511</v>
       </c>
       <c r="G284" t="n">
-        <v>-46717.53829336003</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10215,18 +8973,15 @@
         <v>114.8864</v>
       </c>
       <c r="G285" t="n">
-        <v>-46832.42469336003</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10248,18 +9003,15 @@
         <v>1211.875</v>
       </c>
       <c r="G286" t="n">
-        <v>-48044.29969336003</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10281,18 +9033,15 @@
         <v>81</v>
       </c>
       <c r="G287" t="n">
-        <v>-47963.29969336003</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10314,18 +9063,15 @@
         <v>1.3</v>
       </c>
       <c r="G288" t="n">
-        <v>-47963.29969336003</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10347,18 +9093,15 @@
         <v>157.903</v>
       </c>
       <c r="G289" t="n">
-        <v>-48121.20269336003</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10380,18 +9123,15 @@
         <v>244.1</v>
       </c>
       <c r="G290" t="n">
-        <v>-47877.10269336003</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10413,18 +9153,15 @@
         <v>2381.0647</v>
       </c>
       <c r="G291" t="n">
-        <v>-50258.16739336003</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10446,24 +9183,15 @@
         <v>3520.2683</v>
       </c>
       <c r="G292" t="n">
-        <v>-46737.89909336003</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10485,22 +9213,15 @@
         <v>1852.2529</v>
       </c>
       <c r="G293" t="n">
-        <v>-48590.15199336003</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10522,24 +9243,15 @@
         <v>2.6</v>
       </c>
       <c r="G294" t="n">
-        <v>-48592.75199336003</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>408.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10561,24 +9273,15 @@
         <v>10</v>
       </c>
       <c r="G295" t="n">
-        <v>-48582.75199336003</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>402.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10600,24 +9303,15 @@
         <v>2764.7366</v>
       </c>
       <c r="G296" t="n">
-        <v>-45818.01539336002</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10639,22 +9333,15 @@
         <v>1371.1422</v>
       </c>
       <c r="G297" t="n">
-        <v>-44446.87319336002</v>
-      </c>
-      <c r="H297" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10676,24 +9363,15 @@
         <v>186.1306</v>
       </c>
       <c r="G298" t="n">
-        <v>-44446.87319336002</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>410.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10715,24 +9393,15 @@
         <v>83.59999999999999</v>
       </c>
       <c r="G299" t="n">
-        <v>-44363.27319336002</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>410.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10754,24 +9423,15 @@
         <v>2309.6404</v>
       </c>
       <c r="G300" t="n">
-        <v>-46672.91359336002</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>411.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10793,22 +9453,15 @@
         <v>2</v>
       </c>
       <c r="G301" t="n">
-        <v>-46670.91359336002</v>
-      </c>
-      <c r="H301" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10830,22 +9483,15 @@
         <v>258.4056</v>
       </c>
       <c r="G302" t="n">
-        <v>-46929.31919336002</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10867,24 +9513,15 @@
         <v>242.4308</v>
       </c>
       <c r="G303" t="n">
-        <v>-46929.31919336002</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10906,24 +9543,15 @@
         <v>57.5692</v>
       </c>
       <c r="G304" t="n">
-        <v>-46929.31919336002</v>
-      </c>
-      <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>411</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10945,24 +9573,15 @@
         <v>2426.7735</v>
       </c>
       <c r="G305" t="n">
-        <v>-49356.09269336002</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>411</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10984,24 +9603,15 @@
         <v>20</v>
       </c>
       <c r="G306" t="n">
-        <v>-49336.09269336002</v>
-      </c>
-      <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>408.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11023,24 +9633,15 @@
         <v>228.77</v>
       </c>
       <c r="G307" t="n">
-        <v>-49564.86269336002</v>
-      </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>412</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11062,24 +9663,15 @@
         <v>338.4754</v>
       </c>
       <c r="G308" t="n">
-        <v>-49226.38729336001</v>
-      </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>408.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11101,24 +9693,15 @@
         <v>30.6666</v>
       </c>
       <c r="G309" t="n">
-        <v>-49257.05389336001</v>
-      </c>
-      <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>410</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11140,24 +9723,15 @@
         <v>436.3459</v>
       </c>
       <c r="G310" t="n">
-        <v>-49693.39979336001</v>
-      </c>
-      <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>409</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11179,24 +9753,15 @@
         <v>1131.6686</v>
       </c>
       <c r="G311" t="n">
-        <v>-48561.73119336001</v>
-      </c>
-      <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>408.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11218,24 +9783,15 @@
         <v>13.3602</v>
       </c>
       <c r="G312" t="n">
-        <v>-48548.37099336001</v>
-      </c>
-      <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>408.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11257,24 +9813,15 @@
         <v>11</v>
       </c>
       <c r="G313" t="n">
-        <v>-48559.37099336001</v>
-      </c>
-      <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>410</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11296,24 +9843,15 @@
         <v>1348.8392</v>
       </c>
       <c r="G314" t="n">
-        <v>-47210.53179336001</v>
-      </c>
-      <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>409</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11335,24 +9873,15 @@
         <v>943.6254</v>
       </c>
       <c r="G315" t="n">
-        <v>-47210.53179336001</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>412</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11374,24 +9903,15 @@
         <v>777.2227</v>
       </c>
       <c r="G316" t="n">
-        <v>-47987.75449336001</v>
-      </c>
-      <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>412</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11413,24 +9933,15 @@
         <v>212.1774</v>
       </c>
       <c r="G317" t="n">
-        <v>-47775.57709336001</v>
-      </c>
-      <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>408.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11452,24 +9963,15 @@
         <v>87.69</v>
       </c>
       <c r="G318" t="n">
-        <v>-47775.57709336001</v>
-      </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>409.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11491,24 +9993,15 @@
         <v>123.5</v>
       </c>
       <c r="G319" t="n">
-        <v>-47652.07709336001</v>
-      </c>
-      <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>409.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11530,20 +10023,15 @@
         <v>327.7723</v>
       </c>
       <c r="G320" t="n">
-        <v>-47979.84939336</v>
-      </c>
-      <c r="H320" t="n">
         <v>2</v>
       </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K320" t="n">
+        <v>1</v>
       </c>
       <c r="L320" t="inlineStr"/>
-      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11565,18 +10053,15 @@
         <v>8122.8994</v>
       </c>
       <c r="G321" t="n">
-        <v>-47979.84939336</v>
-      </c>
-      <c r="H321" t="n">
         <v>2</v>
       </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11598,18 +10083,15 @@
         <v>2931.7202</v>
       </c>
       <c r="G322" t="n">
-        <v>-47979.84939336</v>
-      </c>
-      <c r="H322" t="n">
         <v>2</v>
       </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11631,18 +10113,15 @@
         <v>6034.5642</v>
       </c>
       <c r="G323" t="n">
-        <v>-47979.84939336</v>
-      </c>
-      <c r="H323" t="n">
         <v>2</v>
       </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11664,18 +10143,15 @@
         <v>4394.144</v>
       </c>
       <c r="G324" t="n">
-        <v>-43585.70539336</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11697,18 +10173,15 @@
         <v>236.9137</v>
       </c>
       <c r="G325" t="n">
-        <v>-43348.79169336001</v>
-      </c>
-      <c r="H325" t="n">
         <v>2</v>
       </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11730,18 +10203,15 @@
         <v>415.9102</v>
       </c>
       <c r="G326" t="n">
-        <v>-43764.70189336</v>
-      </c>
-      <c r="H326" t="n">
         <v>2</v>
       </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
